--- a/questions_and_analysis/employee_dataset.xlsx
+++ b/questions_and_analysis/employee_dataset.xlsx
@@ -5,22 +5,26 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dumisani Mukuchura\Desktop\Projects\Excel\questions_and_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dumisani Mukuchura\Desktop\Projects\Excel\CycleSilicon Inc. Employee Bike Purchase Dataset – Part 1 Data Cleaning-Preparation and EDA by Dumisani Maxwell Mukuchura\questions_and_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8327" windowHeight="9203" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8327" windowHeight="9203" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="employee_dataset" sheetId="1" r:id="rId1"/>
     <sheet name="ABOUT PROJECT &amp; DATA DICTIONARY" sheetId="2" r:id="rId2"/>
+    <sheet name="employee_dataset_copy" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">employee_dataset_copy!$A$1:$Y$86</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="351">
   <si>
     <t>Employee ID</t>
   </si>
@@ -941,6 +945,289 @@
   </si>
   <si>
     <t>Steps Taken in Data Cleaning and Preliminary EDA</t>
+  </si>
+  <si>
+    <t>Step 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 2. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Dataset has 1 Header Row and 100 Data Rows </t>
+  </si>
+  <si>
+    <t>Step 3.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check for Duplicates and if available remove them: Go to Data and Remove Duplicates, Check Header Row available
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Result: 15 Duplicates Removed, 85 Unique Rows Remaining</t>
+    </r>
+  </si>
+  <si>
+    <t>First Name-fixed</t>
+  </si>
+  <si>
+    <t>Step 4.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fix First Name to Proper and remove leading or following whitespaces with new Column First Name-fixed as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>=TRIM(PROPER(B3))</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 5. </t>
+  </si>
+  <si>
+    <t>Last Name-fixed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fix Last Name to Proper and remove leading or following whitespaces with new Column Last Name-fixed as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>=TRIM(PROPER(D3))</t>
+    </r>
+  </si>
+  <si>
+    <t>Personal Email-fixed</t>
+  </si>
+  <si>
+    <t>Step 6.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fix Personal Email, removing whitespaces, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>= TRIM(G3)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 7. </t>
+  </si>
+  <si>
+    <t>Change the Age from General Data Type to Number</t>
+  </si>
+  <si>
+    <t>Step 8.</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Step 9.</t>
+  </si>
+  <si>
+    <t>Create a Copy of the original Dataset and Start visual inspection and also add a filter to every column</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Find and Replace on Gender Column to have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>M = Male, F = Female</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for Readability</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Find and Replace on Marital Status to have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>S = Single, M = Married, D = Divorced, W = Widowed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for Readability</t>
+    </r>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Widowed</t>
+  </si>
+  <si>
+    <t>Divorced</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Step 10.</t>
+  </si>
+  <si>
+    <t>Job Titile-fixed</t>
+  </si>
+  <si>
+    <t>Job Title-fixed-2</t>
+  </si>
+  <si>
+    <t>Step 11.</t>
+  </si>
+  <si>
+    <t>Convert the General to Number on Salary column</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">By Visual inspection on Job Occupation drop down filter there are mispelt Directr and Directorate to be changed to Director. But first trim away the Whitespaces and copy and repaste as values only 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>=(TRIM(SUBSTITUTE(SUBSTITUTE(K2, "Directorate", "Director"), "Directr", "Director")))</t>
+    </r>
+  </si>
+  <si>
+    <t>Step 12.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix Commute Distance to remove Whitespaces and consisted naming convention use Find and Replace on 0 - 1 Miles to 0-1 Miles and also 10+ Miles to Over 10 Miles </t>
+  </si>
+  <si>
+    <t>Over 10 Miles</t>
+  </si>
+  <si>
+    <t>Start Date-fixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 13. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Isolated dates with format dd-mm-yyyy to have mm/dd/yyyy using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>=TEXT(DATE(RIGHT(S3,4), MID(S3,4,2), LEFT(S3,2)), "mm/dd/yyyy")</t>
+    </r>
+  </si>
+  <si>
+    <t>Step 14.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Isolated dates with format Tuesday, 08, 2011 by a filter and used </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>=TEXT(DATE(RIGHT(S7,4), 1, MID(S7,FIND(",",S7)+2,2)),"mm/dd/yyyy")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to fix </t>
+    </r>
+  </si>
+  <si>
+    <t>Step 15.</t>
+  </si>
+  <si>
+    <t>Start Date-fixed 2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Considering this was a small dataset what if we needed one formular to fix it all: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>=IF(ISNUMBER(A1), TEXT(A1,"mm/dd/yyyy"),
+ IFERROR(TEXT(DATE(RIGHT(A1,4),1,MID(A1,FIND(",",A1)+2,2)),"mm/dd/yyyy"),
+ IFERROR(TEXT(DATE(RIGHT(A1,4),MID(A1,4,2),LEFT(A1,2)),"mm/dd/yyyy"),A1)))  that is the Start Date-fixed-2</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1453,32 +1740,40 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7347,10 +7642,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:U1"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7360,763 +7655,899 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
     </row>
     <row r="2" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
     </row>
     <row r="5" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="3" t="s">
         <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="B2:U4"/>
+    <mergeCell ref="B5:U5"/>
+    <mergeCell ref="B6:U6"/>
+    <mergeCell ref="B20:U20"/>
+    <mergeCell ref="B9:U9"/>
+    <mergeCell ref="B7:U7"/>
+    <mergeCell ref="B8:U8"/>
+    <mergeCell ref="B12:U12"/>
+    <mergeCell ref="B13:U13"/>
+    <mergeCell ref="B14:U14"/>
+    <mergeCell ref="B15:U15"/>
+    <mergeCell ref="B16:U16"/>
+    <mergeCell ref="B17:U17"/>
+    <mergeCell ref="B18:U18"/>
+    <mergeCell ref="B19:U19"/>
     <mergeCell ref="B27:U27"/>
     <mergeCell ref="B28:U28"/>
     <mergeCell ref="B29:U29"/>
@@ -8127,22 +8558,6 @@
     <mergeCell ref="B24:U24"/>
     <mergeCell ref="B25:U25"/>
     <mergeCell ref="B26:U26"/>
-    <mergeCell ref="B15:U15"/>
-    <mergeCell ref="B16:U16"/>
-    <mergeCell ref="B17:U17"/>
-    <mergeCell ref="B18:U18"/>
-    <mergeCell ref="B19:U19"/>
-    <mergeCell ref="B20:U20"/>
-    <mergeCell ref="B9:U9"/>
-    <mergeCell ref="B7:U7"/>
-    <mergeCell ref="B8:U8"/>
-    <mergeCell ref="B12:U12"/>
-    <mergeCell ref="B13:U13"/>
-    <mergeCell ref="B14:U14"/>
-    <mergeCell ref="B1:U1"/>
-    <mergeCell ref="B2:U4"/>
-    <mergeCell ref="B5:U5"/>
-    <mergeCell ref="B6:U6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
@@ -8152,4 +8567,7168 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y86"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:U86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="18.44140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1084</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="str">
+        <f>TRIM(PROPER(B2))</f>
+        <v>Pat</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="str">
+        <f>TRIM(PROPER(D2))</f>
+        <v>Smith</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="str">
+        <f>TRIM(F2)</f>
+        <v>pat.smith@gmail.com</v>
+      </c>
+      <c r="H2" s="16">
+        <v>61</v>
+      </c>
+      <c r="I2" t="s">
+        <v>324</v>
+      </c>
+      <c r="J2" t="s">
+        <v>330</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="str">
+        <f>TRIM(K2)</f>
+        <v>HR</v>
+      </c>
+      <c r="M2" t="str">
+        <f>(TRIM(SUBSTITUTE(SUBSTITUTE(K2, "Directorate", "Director"), "Directr", "Director")))</f>
+        <v>HR</v>
+      </c>
+      <c r="N2" s="14">
+        <v>85000</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="1">
+        <v>40235</v>
+      </c>
+      <c r="T2" s="1">
+        <f>S2</f>
+        <v>40235</v>
+      </c>
+      <c r="U2" s="1" t="str">
+        <f>IF(ISNUMBER(S2), TEXT(S2,"mm/dd/yyyy"),
+ IFERROR(TEXT(DATE(RIGHT(S2,4),1,MID(S2,FIND(",",S2)+2,2)),"mm/dd/yyyy"),
+ IFERROR(TEXT(DATE(RIGHT(S2,4),MID(S2,4,2),LEFT(S2,2)),"mm/dd/yyyy"),S2)))</f>
+        <v>02/26/2010</v>
+      </c>
+      <c r="V2" s="1">
+        <v>43077</v>
+      </c>
+      <c r="W2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1031</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C66" si="0">TRIM(PROPER(B3))</f>
+        <v>Chris</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="1">TRIM(PROPER(D3))</f>
+        <v>Williams</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G66" si="2">TRIM(F3)</f>
+        <v>chris.williams@live.com</v>
+      </c>
+      <c r="H3" s="16">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>324</v>
+      </c>
+      <c r="J3" t="s">
+        <v>331</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L66" si="3">TRIM(K3)</f>
+        <v>Analyst</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M66" si="4">(TRIM(SUBSTITUTE(SUBSTITUTE(K3, "Directorate", "Director"), "Directr", "Director")))</f>
+        <v>Analyst</v>
+      </c>
+      <c r="N3" s="14">
+        <v>87000</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="1" t="str">
+        <f>TEXT(DATE(RIGHT(S3,4), MID(S3,4,2), LEFT(S3,2)), "mm/dd/yyyy")</f>
+        <v>01/18/2000</v>
+      </c>
+      <c r="U3" s="1" t="str">
+        <f t="shared" ref="U3:U66" si="5">IF(ISNUMBER(S3), TEXT(S3,"mm/dd/yyyy"),
+ IFERROR(TEXT(DATE(RIGHT(S3,4),1,MID(S3,FIND(",",S3)+2,2)),"mm/dd/yyyy"),
+ IFERROR(TEXT(DATE(RIGHT(S3,4),MID(S3,4,2),LEFT(S3,2)),"mm/dd/yyyy"),S3)))</f>
+        <v>01/18/2000</v>
+      </c>
+      <c r="V3" s="1">
+        <v>42270</v>
+      </c>
+      <c r="W3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1057</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>Chris</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>Williams</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>chris.williams@hotmail.com</v>
+      </c>
+      <c r="H4" s="16">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>324</v>
+      </c>
+      <c r="J4" t="s">
+        <v>331</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="3"/>
+        <v>Manager</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="4"/>
+        <v>Manager</v>
+      </c>
+      <c r="N4" s="14">
+        <v>145000</v>
+      </c>
+      <c r="O4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" t="s">
+        <v>71</v>
+      </c>
+      <c r="S4" s="1">
+        <v>37402</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" ref="T4:T6" si="6">S4</f>
+        <v>37402</v>
+      </c>
+      <c r="U4" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>05/26/2002</v>
+      </c>
+      <c r="V4" s="1">
+        <v>38777</v>
+      </c>
+      <c r="W4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1025</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>Jordan</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>Wilson</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>jordan.wilson@company.com</v>
+      </c>
+      <c r="H5" s="16">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>325</v>
+      </c>
+      <c r="J5" t="s">
+        <v>332</v>
+      </c>
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="3"/>
+        <v>Engineer</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="4"/>
+        <v>Engineer</v>
+      </c>
+      <c r="N5" s="14">
+        <v>60000</v>
+      </c>
+      <c r="O5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" t="s">
+        <v>106</v>
+      </c>
+      <c r="S5" s="1">
+        <v>43472</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="6"/>
+        <v>43472</v>
+      </c>
+      <c r="U5" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>01/07/2019</v>
+      </c>
+      <c r="V5" t="s">
+        <v>49</v>
+      </c>
+      <c r="W5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1017</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>John</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>Brown</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>john.brown@outlook.com</v>
+      </c>
+      <c r="H6" s="16">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>325</v>
+      </c>
+      <c r="J6" t="s">
+        <v>331</v>
+      </c>
+      <c r="K6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="3"/>
+        <v>Professional</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="4"/>
+        <v>Professional</v>
+      </c>
+      <c r="N6" s="14">
+        <v>147000</v>
+      </c>
+      <c r="O6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="1">
+        <v>37805</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="6"/>
+        <v>37805</v>
+      </c>
+      <c r="U6" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>07/03/2003</v>
+      </c>
+      <c r="V6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W6" t="s">
+        <v>50</v>
+      </c>
+      <c r="X6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1024</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Jane</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>Williams</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>jane.williams@gmail.com</v>
+      </c>
+      <c r="H7" s="16">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>324</v>
+      </c>
+      <c r="J7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="3"/>
+        <v>Salesman</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="4"/>
+        <v>Salesman</v>
+      </c>
+      <c r="N7" s="14">
+        <v>134000</v>
+      </c>
+      <c r="O7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" t="s">
+        <v>106</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T7" s="1" t="str">
+        <f>TEXT(DATE(RIGHT(S7,4), 1, MID(S7,FIND(",",S7)+2,2)),"mm/dd/yyyy")</f>
+        <v>01/08/2011</v>
+      </c>
+      <c r="U7" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>01/08/2011</v>
+      </c>
+      <c r="V7" s="1">
+        <v>41608</v>
+      </c>
+      <c r="W7" t="s">
+        <v>26</v>
+      </c>
+      <c r="X7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1003</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Alex</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>Brown</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>alex.brown@gmail.com</v>
+      </c>
+      <c r="H8" s="16">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>324</v>
+      </c>
+      <c r="J8" t="s">
+        <v>330</v>
+      </c>
+      <c r="K8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="3"/>
+        <v>Director</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="4"/>
+        <v>Director</v>
+      </c>
+      <c r="N8" s="14">
+        <v>72000</v>
+      </c>
+      <c r="O8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" t="s">
+        <v>342</v>
+      </c>
+      <c r="S8" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="T8" s="1" t="str">
+        <f t="shared" ref="T8:T9" si="7">TEXT(DATE(RIGHT(S8,4), MID(S8,4,2), LEFT(S8,2)), "mm/dd/yyyy")</f>
+        <v>03/20/2015</v>
+      </c>
+      <c r="U8" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>03/20/2015</v>
+      </c>
+      <c r="V8" t="s">
+        <v>65</v>
+      </c>
+      <c r="W8" t="s">
+        <v>66</v>
+      </c>
+      <c r="X8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1028</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>Taylor</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>Davis</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>taylor.davis@company.com</v>
+      </c>
+      <c r="H9" s="16">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>324</v>
+      </c>
+      <c r="J9" t="s">
+        <v>333</v>
+      </c>
+      <c r="K9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="3"/>
+        <v>Director</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="4"/>
+        <v>Director</v>
+      </c>
+      <c r="N9" s="14">
+        <v>46000</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" t="s">
+        <v>71</v>
+      </c>
+      <c r="S9" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="T9" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>05/19/2020</v>
+      </c>
+      <c r="U9" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>05/19/2020</v>
+      </c>
+      <c r="V9" s="1">
+        <v>44685</v>
+      </c>
+      <c r="W9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1029</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>Jordan</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>Brown</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>jordan.brown@outlook.com</v>
+      </c>
+      <c r="H10" s="16">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
+        <v>324</v>
+      </c>
+      <c r="J10" t="s">
+        <v>333</v>
+      </c>
+      <c r="K10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="3"/>
+        <v>Analyst</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="4"/>
+        <v>Analyst</v>
+      </c>
+      <c r="N10" s="14">
+        <v>56000</v>
+      </c>
+      <c r="O10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" t="s">
+        <v>106</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T10" s="1" t="str">
+        <f>TEXT(DATE(RIGHT(S10,4), 1, MID(S10,FIND(",",S10)+2,2)),"mm/dd/yyyy")</f>
+        <v>01/05/2010</v>
+      </c>
+      <c r="U10" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>01/05/2010</v>
+      </c>
+      <c r="V10" s="1">
+        <v>44374</v>
+      </c>
+      <c r="W10" t="s">
+        <v>79</v>
+      </c>
+      <c r="X10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1014</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>Alex</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>Miller</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>alex.miller@company.com</v>
+      </c>
+      <c r="H11" s="16">
+        <v>59</v>
+      </c>
+      <c r="I11" t="s">
+        <v>325</v>
+      </c>
+      <c r="J11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K11" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="3"/>
+        <v>Engineer</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="4"/>
+        <v>Engineer</v>
+      </c>
+      <c r="N11" s="14">
+        <v>66000</v>
+      </c>
+      <c r="O11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" t="s">
+        <v>84</v>
+      </c>
+      <c r="S11" s="1">
+        <v>42078</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" ref="T11:T12" si="8">S11</f>
+        <v>42078</v>
+      </c>
+      <c r="U11" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>03/15/2015</v>
+      </c>
+      <c r="W11" t="s">
+        <v>79</v>
+      </c>
+      <c r="X11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1064</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>Jordan</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>Jones</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>jordan.jones@live.com</v>
+      </c>
+      <c r="H12" s="16">
+        <v>33</v>
+      </c>
+      <c r="I12" t="s">
+        <v>325</v>
+      </c>
+      <c r="J12" t="s">
+        <v>333</v>
+      </c>
+      <c r="K12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="3"/>
+        <v>Clerical</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="4"/>
+        <v>Clerical</v>
+      </c>
+      <c r="N12" s="14">
+        <v>128000</v>
+      </c>
+      <c r="O12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" t="s">
+        <v>342</v>
+      </c>
+      <c r="S12" s="1">
+        <v>42199</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="8"/>
+        <v>42199</v>
+      </c>
+      <c r="U12" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>07/14/2015</v>
+      </c>
+      <c r="V12" s="1">
+        <v>42246</v>
+      </c>
+      <c r="W12" t="s">
+        <v>66</v>
+      </c>
+      <c r="X12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1070</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>Morgan</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>Johnson</v>
+      </c>
+      <c r="F13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>morgan.johnson@live.com</v>
+      </c>
+      <c r="H13" s="16">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>325</v>
+      </c>
+      <c r="J13" t="s">
+        <v>333</v>
+      </c>
+      <c r="K13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="3"/>
+        <v>Clerical</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="4"/>
+        <v>Clerical</v>
+      </c>
+      <c r="N13" s="14">
+        <v>112000</v>
+      </c>
+      <c r="O13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" t="s">
+        <v>84</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T13" s="1" t="str">
+        <f t="shared" ref="T13:T14" si="9">TEXT(DATE(RIGHT(S13,4), 1, MID(S13,FIND(",",S13)+2,2)),"mm/dd/yyyy")</f>
+        <v>01/15/2011</v>
+      </c>
+      <c r="U13" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>01/15/2011</v>
+      </c>
+      <c r="V13" t="s">
+        <v>65</v>
+      </c>
+      <c r="W13" t="s">
+        <v>26</v>
+      </c>
+      <c r="X13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1077</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>Morgan</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>Miller</v>
+      </c>
+      <c r="F14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>morgan.miller@outlook.com</v>
+      </c>
+      <c r="H14" s="16">
+        <v>49</v>
+      </c>
+      <c r="I14" t="s">
+        <v>325</v>
+      </c>
+      <c r="J14" t="s">
+        <v>332</v>
+      </c>
+      <c r="K14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="3"/>
+        <v>Receptionist</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="4"/>
+        <v>Receptionist</v>
+      </c>
+      <c r="N14" s="14">
+        <v>41000</v>
+      </c>
+      <c r="O14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" t="s">
+        <v>106</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T14" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>01/23/2015</v>
+      </c>
+      <c r="U14" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>01/23/2015</v>
+      </c>
+      <c r="V14" s="1">
+        <v>44366</v>
+      </c>
+      <c r="W14" t="s">
+        <v>34</v>
+      </c>
+      <c r="X14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1015</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>Taylor</v>
+      </c>
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>Smith</v>
+      </c>
+      <c r="F15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>taylor.smith@gmail.com</v>
+      </c>
+      <c r="H15" s="16">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s">
+        <v>324</v>
+      </c>
+      <c r="J15" t="s">
+        <v>332</v>
+      </c>
+      <c r="K15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="3"/>
+        <v>Directorate</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="4"/>
+        <v>Director</v>
+      </c>
+      <c r="N15" s="14">
+        <v>96000</v>
+      </c>
+      <c r="O15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>40</v>
+      </c>
+      <c r="R15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" s="1">
+        <v>37931</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" ref="T15:T19" si="10">S15</f>
+        <v>37931</v>
+      </c>
+      <c r="U15" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>11/06/2003</v>
+      </c>
+      <c r="V15" t="s">
+        <v>101</v>
+      </c>
+      <c r="W15" t="s">
+        <v>66</v>
+      </c>
+      <c r="X15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1001</v>
+      </c>
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>Casey</v>
+      </c>
+      <c r="D16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>Anderson</v>
+      </c>
+      <c r="F16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>casey.anderson@hotmail.com</v>
+      </c>
+      <c r="H16" s="16">
+        <v>64</v>
+      </c>
+      <c r="I16" t="s">
+        <v>324</v>
+      </c>
+      <c r="J16" t="s">
+        <v>333</v>
+      </c>
+      <c r="K16" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="3"/>
+        <v>Professional</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="4"/>
+        <v>Professional</v>
+      </c>
+      <c r="N16" s="14">
+        <v>66000</v>
+      </c>
+      <c r="O16" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>40</v>
+      </c>
+      <c r="R16" t="s">
+        <v>106</v>
+      </c>
+      <c r="S16" s="1">
+        <v>41748</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="10"/>
+        <v>41748</v>
+      </c>
+      <c r="U16" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>04/19/2014</v>
+      </c>
+      <c r="V16" s="1">
+        <v>43693</v>
+      </c>
+      <c r="W16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1022</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>Morgan</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>Taylor</v>
+      </c>
+      <c r="F17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="2"/>
+        <v>morgan.taylor@company.com</v>
+      </c>
+      <c r="H17" s="16">
+        <v>51</v>
+      </c>
+      <c r="I17" t="s">
+        <v>324</v>
+      </c>
+      <c r="J17" t="s">
+        <v>332</v>
+      </c>
+      <c r="K17" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="3"/>
+        <v>Directr</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="4"/>
+        <v>Director</v>
+      </c>
+      <c r="N17" s="14">
+        <v>105000</v>
+      </c>
+      <c r="O17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>40</v>
+      </c>
+      <c r="R17" t="s">
+        <v>71</v>
+      </c>
+      <c r="S17" s="1">
+        <v>37817</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="10"/>
+        <v>37817</v>
+      </c>
+      <c r="U17" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>07/15/2003</v>
+      </c>
+      <c r="V17" t="s">
+        <v>109</v>
+      </c>
+      <c r="W17" t="s">
+        <v>50</v>
+      </c>
+      <c r="X17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1004</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>Jane</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>Brown</v>
+      </c>
+      <c r="F18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v>jane.brown@outlook.com</v>
+      </c>
+      <c r="H18" s="16">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s">
+        <v>324</v>
+      </c>
+      <c r="J18" t="s">
+        <v>331</v>
+      </c>
+      <c r="K18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="3"/>
+        <v>HR</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="4"/>
+        <v>HR</v>
+      </c>
+      <c r="N18" s="14">
+        <v>121000</v>
+      </c>
+      <c r="O18" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18" t="s">
+        <v>106</v>
+      </c>
+      <c r="S18" s="1">
+        <v>42763</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="10"/>
+        <v>42763</v>
+      </c>
+      <c r="U18" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>01/28/2017</v>
+      </c>
+      <c r="V18" t="s">
+        <v>113</v>
+      </c>
+      <c r="W18" t="s">
+        <v>34</v>
+      </c>
+      <c r="X18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1030</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>Jordan</v>
+      </c>
+      <c r="D19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>Taylor</v>
+      </c>
+      <c r="F19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="2"/>
+        <v>jordan.taylor@company.com</v>
+      </c>
+      <c r="H19" s="16">
+        <v>48</v>
+      </c>
+      <c r="I19" t="s">
+        <v>325</v>
+      </c>
+      <c r="J19" t="s">
+        <v>333</v>
+      </c>
+      <c r="K19" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="3"/>
+        <v>Clerical</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="4"/>
+        <v>Clerical</v>
+      </c>
+      <c r="N19" s="14">
+        <v>60000</v>
+      </c>
+      <c r="O19" t="s">
+        <v>77</v>
+      </c>
+      <c r="P19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>40</v>
+      </c>
+      <c r="R19" t="s">
+        <v>84</v>
+      </c>
+      <c r="S19" s="1">
+        <v>39262</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="10"/>
+        <v>39262</v>
+      </c>
+      <c r="U19" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>06/29/2007</v>
+      </c>
+      <c r="V19" s="1">
+        <v>42717</v>
+      </c>
+      <c r="W19" t="s">
+        <v>79</v>
+      </c>
+      <c r="X19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1062</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>Jordan</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>Brown</v>
+      </c>
+      <c r="F20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>jordan.brown@gmail.com</v>
+      </c>
+      <c r="H20" s="16">
+        <v>53</v>
+      </c>
+      <c r="I20" t="s">
+        <v>325</v>
+      </c>
+      <c r="J20" t="s">
+        <v>331</v>
+      </c>
+      <c r="K20" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="3"/>
+        <v>Analyst</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="4"/>
+        <v>Analyst</v>
+      </c>
+      <c r="N20" s="14">
+        <v>47000</v>
+      </c>
+      <c r="O20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>40</v>
+      </c>
+      <c r="R20" t="s">
+        <v>106</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="T20" s="1" t="str">
+        <f>TEXT(DATE(RIGHT(S20,4), 1, MID(S20,FIND(",",S20)+2,2)),"mm/dd/yyyy")</f>
+        <v>01/02/2000</v>
+      </c>
+      <c r="U20" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>01/02/2000</v>
+      </c>
+      <c r="V20" t="s">
+        <v>119</v>
+      </c>
+      <c r="W20" t="s">
+        <v>66</v>
+      </c>
+      <c r="X20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1080</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>Chris</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>Miller</v>
+      </c>
+      <c r="F21" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>chris.miller@gmail.com</v>
+      </c>
+      <c r="H21" s="16">
+        <v>44</v>
+      </c>
+      <c r="I21" t="s">
+        <v>324</v>
+      </c>
+      <c r="J21" t="s">
+        <v>333</v>
+      </c>
+      <c r="K21" t="s">
+        <v>99</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="3"/>
+        <v>Directorate</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="4"/>
+        <v>Director</v>
+      </c>
+      <c r="N21" s="14">
+        <v>54000</v>
+      </c>
+      <c r="O21" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>40</v>
+      </c>
+      <c r="R21" t="s">
+        <v>71</v>
+      </c>
+      <c r="S21" s="1">
+        <v>43352</v>
+      </c>
+      <c r="T21" s="1">
+        <f>S21</f>
+        <v>43352</v>
+      </c>
+      <c r="U21" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>09/09/2018</v>
+      </c>
+      <c r="V21" s="1">
+        <v>44182</v>
+      </c>
+      <c r="W21" t="s">
+        <v>66</v>
+      </c>
+      <c r="X21" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1036</v>
+      </c>
+      <c r="B22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>Jane</v>
+      </c>
+      <c r="D22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>Jones</v>
+      </c>
+      <c r="F22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>jane.jones@company.com</v>
+      </c>
+      <c r="H22" s="16">
+        <v>55</v>
+      </c>
+      <c r="I22" t="s">
+        <v>325</v>
+      </c>
+      <c r="J22" t="s">
+        <v>330</v>
+      </c>
+      <c r="K22" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="3"/>
+        <v>HR</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="4"/>
+        <v>HR</v>
+      </c>
+      <c r="N22" s="14">
+        <v>96000</v>
+      </c>
+      <c r="O22" t="s">
+        <v>91</v>
+      </c>
+      <c r="P22" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" t="s">
+        <v>84</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T22" s="1" t="str">
+        <f>TEXT(DATE(RIGHT(S22,4), 1, MID(S22,FIND(",",S22)+2,2)),"mm/dd/yyyy")</f>
+        <v>01/08/2011</v>
+      </c>
+      <c r="U22" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>01/08/2011</v>
+      </c>
+      <c r="V22" s="1">
+        <v>43139</v>
+      </c>
+      <c r="W22" t="s">
+        <v>34</v>
+      </c>
+      <c r="X22" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1012</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>Alex</v>
+      </c>
+      <c r="D23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>Smith</v>
+      </c>
+      <c r="F23" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>alex.smith@gmail.com</v>
+      </c>
+      <c r="H23" s="16">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s">
+        <v>324</v>
+      </c>
+      <c r="J23" t="s">
+        <v>330</v>
+      </c>
+      <c r="K23" t="s">
+        <v>62</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="3"/>
+        <v>Director</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="4"/>
+        <v>Director</v>
+      </c>
+      <c r="N23" s="14">
+        <v>142000</v>
+      </c>
+      <c r="O23" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23" t="s">
+        <v>342</v>
+      </c>
+      <c r="S23" s="1">
+        <v>42652</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" ref="T23:T25" si="11">S23</f>
+        <v>42652</v>
+      </c>
+      <c r="U23" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>10/09/2016</v>
+      </c>
+      <c r="V23" s="1">
+        <v>44247</v>
+      </c>
+      <c r="W23" t="s">
+        <v>66</v>
+      </c>
+      <c r="X23" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1085</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>Morgan</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>Miller</v>
+      </c>
+      <c r="F24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>morgan.miller@outlook.com</v>
+      </c>
+      <c r="H24" s="16">
+        <v>65</v>
+      </c>
+      <c r="I24" t="s">
+        <v>325</v>
+      </c>
+      <c r="J24" t="s">
+        <v>331</v>
+      </c>
+      <c r="K24" t="s">
+        <v>127</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="3"/>
+        <v>Directorate</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="4"/>
+        <v>Director</v>
+      </c>
+      <c r="N24" s="14">
+        <v>91000</v>
+      </c>
+      <c r="O24" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>40</v>
+      </c>
+      <c r="R24" t="s">
+        <v>84</v>
+      </c>
+      <c r="S24" s="1">
+        <v>37708</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="11"/>
+        <v>37708</v>
+      </c>
+      <c r="U24" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>03/28/2003</v>
+      </c>
+      <c r="V24" s="1">
+        <v>39675</v>
+      </c>
+      <c r="W24" t="s">
+        <v>79</v>
+      </c>
+      <c r="X24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1045</v>
+      </c>
+      <c r="B25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>Casey</v>
+      </c>
+      <c r="D25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>Williams</v>
+      </c>
+      <c r="F25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>casey.williams@live.com</v>
+      </c>
+      <c r="H25" s="16">
+        <v>43</v>
+      </c>
+      <c r="I25" t="s">
+        <v>324</v>
+      </c>
+      <c r="J25" t="s">
+        <v>333</v>
+      </c>
+      <c r="K25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="3"/>
+        <v>Analyst</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="4"/>
+        <v>Analyst</v>
+      </c>
+      <c r="N25" s="14">
+        <v>115000</v>
+      </c>
+      <c r="O25" t="s">
+        <v>91</v>
+      </c>
+      <c r="P25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>40</v>
+      </c>
+      <c r="R25" t="s">
+        <v>71</v>
+      </c>
+      <c r="S25" s="1">
+        <v>36637</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="11"/>
+        <v>36637</v>
+      </c>
+      <c r="U25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>04/21/2000</v>
+      </c>
+      <c r="V25" s="1">
+        <v>38872</v>
+      </c>
+      <c r="W25" t="s">
+        <v>50</v>
+      </c>
+      <c r="X25" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1074</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>Jordan</v>
+      </c>
+      <c r="D26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>Smith</v>
+      </c>
+      <c r="F26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>jordan.smith@gmail.com</v>
+      </c>
+      <c r="H26" s="16">
+        <v>23</v>
+      </c>
+      <c r="I26" t="s">
+        <v>325</v>
+      </c>
+      <c r="J26" t="s">
+        <v>332</v>
+      </c>
+      <c r="K26" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="3"/>
+        <v>Salesman</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="4"/>
+        <v>Salesman</v>
+      </c>
+      <c r="N26" s="14">
+        <v>66000</v>
+      </c>
+      <c r="O26" t="s">
+        <v>77</v>
+      </c>
+      <c r="P26" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>40</v>
+      </c>
+      <c r="R26" t="s">
+        <v>71</v>
+      </c>
+      <c r="S26" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="T26" s="1" t="str">
+        <f>TEXT(DATE(RIGHT(S26,4), MID(S26,4,2), LEFT(S26,2)), "mm/dd/yyyy")</f>
+        <v>04/15/2004</v>
+      </c>
+      <c r="U26" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>04/15/2004</v>
+      </c>
+      <c r="V26" s="1">
+        <v>39793</v>
+      </c>
+      <c r="W26" t="s">
+        <v>79</v>
+      </c>
+      <c r="X26" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1006</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>Morgan</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>Wilson</v>
+      </c>
+      <c r="F27" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>morgan.wilson@company.com</v>
+      </c>
+      <c r="H27" s="16">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>324</v>
+      </c>
+      <c r="J27" t="s">
+        <v>331</v>
+      </c>
+      <c r="K27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="3"/>
+        <v>HR</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="4"/>
+        <v>HR</v>
+      </c>
+      <c r="N27" s="14">
+        <v>36000</v>
+      </c>
+      <c r="O27" t="s">
+        <v>39</v>
+      </c>
+      <c r="P27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>40</v>
+      </c>
+      <c r="R27" t="s">
+        <v>106</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T27" s="1" t="str">
+        <f>TEXT(DATE(RIGHT(S27,4), 1, MID(S27,FIND(",",S27)+2,2)),"mm/dd/yyyy")</f>
+        <v>01/09/2007</v>
+      </c>
+      <c r="U27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>01/09/2007</v>
+      </c>
+      <c r="V27" t="s">
+        <v>135</v>
+      </c>
+      <c r="W27" t="s">
+        <v>66</v>
+      </c>
+      <c r="X27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1026</v>
+      </c>
+      <c r="B28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>Jane</v>
+      </c>
+      <c r="D28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>Taylor</v>
+      </c>
+      <c r="F28" t="s">
+        <v>138</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>jane.taylor@gmail.com</v>
+      </c>
+      <c r="H28" s="16">
+        <v>63</v>
+      </c>
+      <c r="I28" t="s">
+        <v>325</v>
+      </c>
+      <c r="J28" t="s">
+        <v>330</v>
+      </c>
+      <c r="K28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="3"/>
+        <v>Engineer</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="4"/>
+        <v>Engineer</v>
+      </c>
+      <c r="N28" s="14">
+        <v>73000</v>
+      </c>
+      <c r="O28" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>40</v>
+      </c>
+      <c r="R28" t="s">
+        <v>25</v>
+      </c>
+      <c r="S28" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="T28" s="1" t="str">
+        <f>TEXT(DATE(RIGHT(S28,4), MID(S28,4,2), LEFT(S28,2)), "mm/dd/yyyy")</f>
+        <v>05/30/2011</v>
+      </c>
+      <c r="U28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>05/30/2011</v>
+      </c>
+      <c r="V28" t="s">
+        <v>141</v>
+      </c>
+      <c r="W28" t="s">
+        <v>34</v>
+      </c>
+      <c r="X28" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1078</v>
+      </c>
+      <c r="B29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>Pat</v>
+      </c>
+      <c r="D29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>Jones</v>
+      </c>
+      <c r="F29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>pat.jones@hotmail.com</v>
+      </c>
+      <c r="H29" s="16">
+        <v>41</v>
+      </c>
+      <c r="I29" t="s">
+        <v>324</v>
+      </c>
+      <c r="J29" t="s">
+        <v>331</v>
+      </c>
+      <c r="K29" t="s">
+        <v>144</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="3"/>
+        <v>Skilled Manual</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="4"/>
+        <v>Skilled Manual</v>
+      </c>
+      <c r="N29" s="14">
+        <v>146000</v>
+      </c>
+      <c r="O29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>40</v>
+      </c>
+      <c r="R29" t="s">
+        <v>25</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T29" s="1" t="str">
+        <f>TEXT(DATE(RIGHT(S29,4), 1, MID(S29,FIND(",",S29)+2,2)),"mm/dd/yyyy")</f>
+        <v>01/07/2012</v>
+      </c>
+      <c r="U29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>01/07/2012</v>
+      </c>
+      <c r="V29" s="1">
+        <v>42786</v>
+      </c>
+      <c r="W29" t="s">
+        <v>79</v>
+      </c>
+      <c r="X29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1075</v>
+      </c>
+      <c r="B30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>Taylor</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>Taylor</v>
+      </c>
+      <c r="F30" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>taylor.taylor@live.com</v>
+      </c>
+      <c r="H30" s="16">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>325</v>
+      </c>
+      <c r="J30" t="s">
+        <v>330</v>
+      </c>
+      <c r="K30" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="3"/>
+        <v>Salesman</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="4"/>
+        <v>Salesman</v>
+      </c>
+      <c r="N30" s="14">
+        <v>131000</v>
+      </c>
+      <c r="O30" t="s">
+        <v>77</v>
+      </c>
+      <c r="P30" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>40</v>
+      </c>
+      <c r="R30" t="s">
+        <v>71</v>
+      </c>
+      <c r="S30" s="1">
+        <v>43313</v>
+      </c>
+      <c r="T30" s="1">
+        <f>S30</f>
+        <v>43313</v>
+      </c>
+      <c r="U30" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>08/01/2018</v>
+      </c>
+      <c r="V30" t="s">
+        <v>65</v>
+      </c>
+      <c r="W30" t="s">
+        <v>50</v>
+      </c>
+      <c r="X30" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1063</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>Pat</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>Williams</v>
+      </c>
+      <c r="F31" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>pat.williams@outlook.com</v>
+      </c>
+      <c r="H31" s="16">
+        <v>31</v>
+      </c>
+      <c r="I31" t="s">
+        <v>325</v>
+      </c>
+      <c r="J31" t="s">
+        <v>330</v>
+      </c>
+      <c r="K31" t="s">
+        <v>127</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="3"/>
+        <v>Directorate</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="4"/>
+        <v>Director</v>
+      </c>
+      <c r="N31" s="14">
+        <v>121000</v>
+      </c>
+      <c r="O31" t="s">
+        <v>23</v>
+      </c>
+      <c r="P31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>40</v>
+      </c>
+      <c r="R31" t="s">
+        <v>106</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="T31" s="1" t="str">
+        <f t="shared" ref="T31:T32" si="12">TEXT(DATE(RIGHT(S31,4), 1, MID(S31,FIND(",",S31)+2,2)),"mm/dd/yyyy")</f>
+        <v>01/19/2018</v>
+      </c>
+      <c r="U31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>01/19/2018</v>
+      </c>
+      <c r="V31" s="1">
+        <v>43921</v>
+      </c>
+      <c r="W31" t="s">
+        <v>34</v>
+      </c>
+      <c r="X31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1066</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>Jordan</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v>Wilson</v>
+      </c>
+      <c r="F32" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>jordan.wilson@company.com</v>
+      </c>
+      <c r="H32" s="16">
+        <v>55</v>
+      </c>
+      <c r="I32" t="s">
+        <v>324</v>
+      </c>
+      <c r="J32" t="s">
+        <v>333</v>
+      </c>
+      <c r="K32" t="s">
+        <v>149</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="3"/>
+        <v>Accountant</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="4"/>
+        <v>Accountant</v>
+      </c>
+      <c r="N32" s="14">
+        <v>111000</v>
+      </c>
+      <c r="O32" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>40</v>
+      </c>
+      <c r="R32" t="s">
+        <v>25</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="T32" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>01/10/2005</v>
+      </c>
+      <c r="U32" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>01/10/2005</v>
+      </c>
+      <c r="W32" t="s">
+        <v>66</v>
+      </c>
+      <c r="X32" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1002</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>Casey</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
+        <v>Williams</v>
+      </c>
+      <c r="F33" t="s">
+        <v>151</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v>casey.williams@outlook.com</v>
+      </c>
+      <c r="H33" s="16">
+        <v>38</v>
+      </c>
+      <c r="I33" t="s">
+        <v>324</v>
+      </c>
+      <c r="J33" t="s">
+        <v>330</v>
+      </c>
+      <c r="K33" t="s">
+        <v>152</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="3"/>
+        <v>Accountant</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="4"/>
+        <v>Accountant</v>
+      </c>
+      <c r="N33" s="14">
+        <v>111000</v>
+      </c>
+      <c r="O33" t="s">
+        <v>91</v>
+      </c>
+      <c r="P33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>24</v>
+      </c>
+      <c r="R33" t="s">
+        <v>25</v>
+      </c>
+      <c r="S33" s="1">
+        <v>38246</v>
+      </c>
+      <c r="T33" s="1">
+        <f>S33</f>
+        <v>38246</v>
+      </c>
+      <c r="U33" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>09/16/2004</v>
+      </c>
+      <c r="V33" t="s">
+        <v>113</v>
+      </c>
+      <c r="W33" t="s">
+        <v>50</v>
+      </c>
+      <c r="X33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1019</v>
+      </c>
+      <c r="B34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>Jane</v>
+      </c>
+      <c r="D34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v>Smith</v>
+      </c>
+      <c r="F34" t="s">
+        <v>153</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="2"/>
+        <v>jane.smith@hotmail.com</v>
+      </c>
+      <c r="H34" s="16">
+        <v>31</v>
+      </c>
+      <c r="I34" t="s">
+        <v>325</v>
+      </c>
+      <c r="J34" t="s">
+        <v>333</v>
+      </c>
+      <c r="K34" t="s">
+        <v>154</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="3"/>
+        <v>Salesman</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="4"/>
+        <v>Salesman</v>
+      </c>
+      <c r="N34" s="14">
+        <v>83000</v>
+      </c>
+      <c r="O34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P34" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>24</v>
+      </c>
+      <c r="R34" t="s">
+        <v>25</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T34" s="1" t="str">
+        <f>TEXT(DATE(RIGHT(S34,4), 1, MID(S34,FIND(",",S34)+2,2)),"mm/dd/yyyy")</f>
+        <v>01/24/2007</v>
+      </c>
+      <c r="U34" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>01/24/2007</v>
+      </c>
+      <c r="V34" s="1">
+        <v>40486</v>
+      </c>
+      <c r="W34" t="s">
+        <v>66</v>
+      </c>
+      <c r="X34" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1049</v>
+      </c>
+      <c r="B35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>Jamie</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v>Brown</v>
+      </c>
+      <c r="F35" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="2"/>
+        <v>jamie.brown@hotmail.com</v>
+      </c>
+      <c r="H35" s="16">
+        <v>58</v>
+      </c>
+      <c r="I35" t="s">
+        <v>325</v>
+      </c>
+      <c r="J35" t="s">
+        <v>333</v>
+      </c>
+      <c r="K35" t="s">
+        <v>158</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="3"/>
+        <v>Manager</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="4"/>
+        <v>Manager</v>
+      </c>
+      <c r="N35" s="14">
+        <v>46000</v>
+      </c>
+      <c r="O35" t="s">
+        <v>91</v>
+      </c>
+      <c r="P35" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>40</v>
+      </c>
+      <c r="R35" t="s">
+        <v>71</v>
+      </c>
+      <c r="S35" s="1">
+        <v>38550</v>
+      </c>
+      <c r="T35" s="1">
+        <f t="shared" ref="T35:T36" si="13">S35</f>
+        <v>38550</v>
+      </c>
+      <c r="U35" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>07/17/2005</v>
+      </c>
+      <c r="V35" t="s">
+        <v>159</v>
+      </c>
+      <c r="W35" t="s">
+        <v>34</v>
+      </c>
+      <c r="X35" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1037</v>
+      </c>
+      <c r="B36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>John</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="1"/>
+        <v>Smith</v>
+      </c>
+      <c r="F36" t="s">
+        <v>161</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="2"/>
+        <v>john.smith@outlook.com</v>
+      </c>
+      <c r="H36" s="16">
+        <v>31</v>
+      </c>
+      <c r="I36" t="s">
+        <v>325</v>
+      </c>
+      <c r="J36" t="s">
+        <v>333</v>
+      </c>
+      <c r="K36" t="s">
+        <v>162</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="3"/>
+        <v>Director</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="4"/>
+        <v>Director</v>
+      </c>
+      <c r="N36" s="14">
+        <v>134000</v>
+      </c>
+      <c r="O36" t="s">
+        <v>77</v>
+      </c>
+      <c r="P36" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R36" t="s">
+        <v>71</v>
+      </c>
+      <c r="S36" s="1">
+        <v>39508</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" si="13"/>
+        <v>39508</v>
+      </c>
+      <c r="U36" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>03/01/2008</v>
+      </c>
+      <c r="V36" t="s">
+        <v>163</v>
+      </c>
+      <c r="W36" t="s">
+        <v>50</v>
+      </c>
+      <c r="X36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1079</v>
+      </c>
+      <c r="B37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>Pat</v>
+      </c>
+      <c r="D37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="1"/>
+        <v>Taylor</v>
+      </c>
+      <c r="F37" t="s">
+        <v>165</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="2"/>
+        <v>pat.taylor@hotmail.com</v>
+      </c>
+      <c r="H37" s="16">
+        <v>58</v>
+      </c>
+      <c r="I37" t="s">
+        <v>324</v>
+      </c>
+      <c r="J37" t="s">
+        <v>332</v>
+      </c>
+      <c r="K37" t="s">
+        <v>76</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="3"/>
+        <v>Analyst</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="4"/>
+        <v>Analyst</v>
+      </c>
+      <c r="N37" s="14">
+        <v>46000</v>
+      </c>
+      <c r="O37" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>24</v>
+      </c>
+      <c r="R37" t="s">
+        <v>25</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T37" s="1" t="str">
+        <f>TEXT(DATE(RIGHT(S37,4), 1, MID(S37,FIND(",",S37)+2,2)),"mm/dd/yyyy")</f>
+        <v>01/23/2019</v>
+      </c>
+      <c r="U37" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>01/23/2019</v>
+      </c>
+      <c r="V37" s="1">
+        <v>44442</v>
+      </c>
+      <c r="W37" t="s">
+        <v>26</v>
+      </c>
+      <c r="X37" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1007</v>
+      </c>
+      <c r="B38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>Jamie</v>
+      </c>
+      <c r="D38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="1"/>
+        <v>Miller</v>
+      </c>
+      <c r="F38" t="s">
+        <v>168</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="2"/>
+        <v>jamie.miller@hotmail.com</v>
+      </c>
+      <c r="H38" s="16">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>324</v>
+      </c>
+      <c r="J38" t="s">
+        <v>331</v>
+      </c>
+      <c r="K38" t="s">
+        <v>144</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="3"/>
+        <v>Skilled Manual</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="4"/>
+        <v>Skilled Manual</v>
+      </c>
+      <c r="N38" s="14">
+        <v>94000</v>
+      </c>
+      <c r="O38" t="s">
+        <v>39</v>
+      </c>
+      <c r="P38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>24</v>
+      </c>
+      <c r="R38" t="s">
+        <v>71</v>
+      </c>
+      <c r="S38" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="T38" s="1" t="str">
+        <f>TEXT(DATE(RIGHT(S38,4), MID(S38,4,2), LEFT(S38,2)), "mm/dd/yyyy")</f>
+        <v>03/31/2008</v>
+      </c>
+      <c r="U38" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>03/31/2008</v>
+      </c>
+      <c r="V38" s="1">
+        <v>39763</v>
+      </c>
+      <c r="W38" t="s">
+        <v>50</v>
+      </c>
+      <c r="X38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1059</v>
+      </c>
+      <c r="B39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>Taylor</v>
+      </c>
+      <c r="D39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="1"/>
+        <v>Davis</v>
+      </c>
+      <c r="F39" t="s">
+        <v>170</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="2"/>
+        <v>taylor.davis@live.com</v>
+      </c>
+      <c r="H39" s="16">
+        <v>22</v>
+      </c>
+      <c r="I39" t="s">
+        <v>325</v>
+      </c>
+      <c r="J39" t="s">
+        <v>332</v>
+      </c>
+      <c r="K39" t="s">
+        <v>95</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="3"/>
+        <v>Receptionist</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="4"/>
+        <v>Receptionist</v>
+      </c>
+      <c r="N39" s="14">
+        <v>79000</v>
+      </c>
+      <c r="O39" t="s">
+        <v>77</v>
+      </c>
+      <c r="P39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R39" t="s">
+        <v>84</v>
+      </c>
+      <c r="S39" s="1">
+        <v>42393</v>
+      </c>
+      <c r="T39" s="1">
+        <f>S39</f>
+        <v>42393</v>
+      </c>
+      <c r="U39" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>01/24/2016</v>
+      </c>
+      <c r="V39" t="s">
+        <v>171</v>
+      </c>
+      <c r="W39" t="s">
+        <v>66</v>
+      </c>
+      <c r="X39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1011</v>
+      </c>
+      <c r="B40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>Pat</v>
+      </c>
+      <c r="D40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="1"/>
+        <v>Smith</v>
+      </c>
+      <c r="F40" t="s">
+        <v>172</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="2"/>
+        <v>pat.smith@company.com</v>
+      </c>
+      <c r="H40" s="16">
+        <v>64</v>
+      </c>
+      <c r="I40" t="s">
+        <v>325</v>
+      </c>
+      <c r="J40" t="s">
+        <v>331</v>
+      </c>
+      <c r="K40" t="s">
+        <v>173</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="3"/>
+        <v>Clerical</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="4"/>
+        <v>Clerical</v>
+      </c>
+      <c r="N40" s="14">
+        <v>57000</v>
+      </c>
+      <c r="O40" t="s">
+        <v>91</v>
+      </c>
+      <c r="P40" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R40" t="s">
+        <v>71</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="T40" s="1" t="str">
+        <f>TEXT(DATE(RIGHT(S40,4), 1, MID(S40,FIND(",",S40)+2,2)),"mm/dd/yyyy")</f>
+        <v>01/16/2018</v>
+      </c>
+      <c r="U40" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>01/16/2018</v>
+      </c>
+      <c r="V40" s="1">
+        <v>45275</v>
+      </c>
+      <c r="W40" t="s">
+        <v>66</v>
+      </c>
+      <c r="X40" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1013</v>
+      </c>
+      <c r="B41" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>Jamie</v>
+      </c>
+      <c r="D41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="1"/>
+        <v>Brown</v>
+      </c>
+      <c r="F41" t="s">
+        <v>176</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="2"/>
+        <v>jamie.brown@live.com</v>
+      </c>
+      <c r="H41" s="16">
+        <v>35</v>
+      </c>
+      <c r="I41" t="s">
+        <v>325</v>
+      </c>
+      <c r="J41" t="s">
+        <v>333</v>
+      </c>
+      <c r="K41" t="s">
+        <v>54</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="3"/>
+        <v>Professional</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="4"/>
+        <v>Professional</v>
+      </c>
+      <c r="N41" s="14">
+        <v>80000</v>
+      </c>
+      <c r="O41" t="s">
+        <v>32</v>
+      </c>
+      <c r="P41" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>40</v>
+      </c>
+      <c r="R41" t="s">
+        <v>71</v>
+      </c>
+      <c r="S41" s="1">
+        <v>38221</v>
+      </c>
+      <c r="T41" s="1">
+        <f t="shared" ref="T41:T52" si="14">S41</f>
+        <v>38221</v>
+      </c>
+      <c r="U41" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>08/22/2004</v>
+      </c>
+      <c r="V41" s="1">
+        <v>45175</v>
+      </c>
+      <c r="W41" t="s">
+        <v>66</v>
+      </c>
+      <c r="X41" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1054</v>
+      </c>
+      <c r="B42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>John</v>
+      </c>
+      <c r="D42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="1"/>
+        <v>Johnson</v>
+      </c>
+      <c r="F42" t="s">
+        <v>178</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="2"/>
+        <v>john.johnson@outlook.com</v>
+      </c>
+      <c r="H42" s="16">
+        <v>27</v>
+      </c>
+      <c r="I42" t="s">
+        <v>325</v>
+      </c>
+      <c r="J42" t="s">
+        <v>333</v>
+      </c>
+      <c r="K42" t="s">
+        <v>179</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="3"/>
+        <v>Skilled Manual</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="4"/>
+        <v>Skilled Manual</v>
+      </c>
+      <c r="N42" s="14">
+        <v>142000</v>
+      </c>
+      <c r="O42" t="s">
+        <v>77</v>
+      </c>
+      <c r="P42" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>24</v>
+      </c>
+      <c r="R42" t="s">
+        <v>71</v>
+      </c>
+      <c r="S42" s="1">
+        <v>38654</v>
+      </c>
+      <c r="T42" s="1">
+        <f t="shared" si="14"/>
+        <v>38654</v>
+      </c>
+      <c r="U42" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>10/29/2005</v>
+      </c>
+      <c r="V42" t="s">
+        <v>180</v>
+      </c>
+      <c r="W42" t="s">
+        <v>79</v>
+      </c>
+      <c r="X42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1055</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>Morgan</v>
+      </c>
+      <c r="D43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="1"/>
+        <v>Williams</v>
+      </c>
+      <c r="F43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="2"/>
+        <v>morgan.williams@outlook.com</v>
+      </c>
+      <c r="H43" s="16">
+        <v>33</v>
+      </c>
+      <c r="I43" t="s">
+        <v>325</v>
+      </c>
+      <c r="J43" t="s">
+        <v>330</v>
+      </c>
+      <c r="K43" t="s">
+        <v>112</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="3"/>
+        <v>HR</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="4"/>
+        <v>HR</v>
+      </c>
+      <c r="N43" s="14">
+        <v>89000</v>
+      </c>
+      <c r="O43" t="s">
+        <v>77</v>
+      </c>
+      <c r="P43" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>24</v>
+      </c>
+      <c r="R43" t="s">
+        <v>342</v>
+      </c>
+      <c r="S43" s="1">
+        <v>39239</v>
+      </c>
+      <c r="T43" s="1">
+        <f t="shared" si="14"/>
+        <v>39239</v>
+      </c>
+      <c r="U43" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>06/06/2007</v>
+      </c>
+      <c r="V43" s="1">
+        <v>40883</v>
+      </c>
+      <c r="W43" t="s">
+        <v>26</v>
+      </c>
+      <c r="X43" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1068</v>
+      </c>
+      <c r="B44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>Chris</v>
+      </c>
+      <c r="D44" t="s">
+        <v>183</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="1"/>
+        <v>Miller</v>
+      </c>
+      <c r="F44" t="s">
+        <v>184</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="2"/>
+        <v>chris.miller@outlook.com</v>
+      </c>
+      <c r="H44" s="16">
+        <v>55</v>
+      </c>
+      <c r="I44" t="s">
+        <v>324</v>
+      </c>
+      <c r="J44" t="s">
+        <v>333</v>
+      </c>
+      <c r="K44" t="s">
+        <v>76</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="3"/>
+        <v>Analyst</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="4"/>
+        <v>Analyst</v>
+      </c>
+      <c r="N44" s="14">
+        <v>83000</v>
+      </c>
+      <c r="O44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P44" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>24</v>
+      </c>
+      <c r="R44" t="s">
+        <v>106</v>
+      </c>
+      <c r="S44" s="1">
+        <v>41782</v>
+      </c>
+      <c r="T44" s="1">
+        <f t="shared" si="14"/>
+        <v>41782</v>
+      </c>
+      <c r="U44" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>05/23/2014</v>
+      </c>
+      <c r="V44" t="s">
+        <v>65</v>
+      </c>
+      <c r="W44" t="s">
+        <v>34</v>
+      </c>
+      <c r="X44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1033</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>Chris</v>
+      </c>
+      <c r="D45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="1"/>
+        <v>Johnson</v>
+      </c>
+      <c r="F45" t="s">
+        <v>185</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="2"/>
+        <v>chris.johnson@company.com</v>
+      </c>
+      <c r="H45" s="16">
+        <v>48</v>
+      </c>
+      <c r="I45" t="s">
+        <v>325</v>
+      </c>
+      <c r="J45" t="s">
+        <v>330</v>
+      </c>
+      <c r="K45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="3"/>
+        <v>Clerical</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="4"/>
+        <v>Clerical</v>
+      </c>
+      <c r="N45" s="14">
+        <v>75000</v>
+      </c>
+      <c r="O45" t="s">
+        <v>32</v>
+      </c>
+      <c r="P45" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>24</v>
+      </c>
+      <c r="R45" t="s">
+        <v>25</v>
+      </c>
+      <c r="S45" s="1">
+        <v>42724</v>
+      </c>
+      <c r="T45" s="1">
+        <f t="shared" si="14"/>
+        <v>42724</v>
+      </c>
+      <c r="U45" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>12/20/2016</v>
+      </c>
+      <c r="V45" t="s">
+        <v>186</v>
+      </c>
+      <c r="W45" t="s">
+        <v>50</v>
+      </c>
+      <c r="X45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1020</v>
+      </c>
+      <c r="B46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>Jamie</v>
+      </c>
+      <c r="D46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="1"/>
+        <v>Wilson</v>
+      </c>
+      <c r="F46" t="s">
+        <v>187</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="2"/>
+        <v>jamie.wilson@live.com</v>
+      </c>
+      <c r="H46" s="16">
+        <v>53</v>
+      </c>
+      <c r="I46" t="s">
+        <v>324</v>
+      </c>
+      <c r="J46" t="s">
+        <v>330</v>
+      </c>
+      <c r="K46" t="s">
+        <v>188</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="3"/>
+        <v>Directr</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="4"/>
+        <v>Director</v>
+      </c>
+      <c r="N46" s="14">
+        <v>34000</v>
+      </c>
+      <c r="O46" t="s">
+        <v>23</v>
+      </c>
+      <c r="P46" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>24</v>
+      </c>
+      <c r="R46" t="s">
+        <v>25</v>
+      </c>
+      <c r="S46" s="1">
+        <v>39439</v>
+      </c>
+      <c r="T46" s="1">
+        <f t="shared" si="14"/>
+        <v>39439</v>
+      </c>
+      <c r="U46" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>12/23/2007</v>
+      </c>
+      <c r="V46" s="1">
+        <v>44081</v>
+      </c>
+      <c r="W46" t="s">
+        <v>50</v>
+      </c>
+      <c r="X46" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1027</v>
+      </c>
+      <c r="B47" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>Morgan</v>
+      </c>
+      <c r="D47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="1"/>
+        <v>Brown</v>
+      </c>
+      <c r="F47" t="s">
+        <v>190</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="2"/>
+        <v>morgan.brown@gmail.com</v>
+      </c>
+      <c r="H47" s="16">
+        <v>57</v>
+      </c>
+      <c r="I47" t="s">
+        <v>325</v>
+      </c>
+      <c r="J47" t="s">
+        <v>331</v>
+      </c>
+      <c r="K47" t="s">
+        <v>31</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="3"/>
+        <v>Analyst</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="4"/>
+        <v>Analyst</v>
+      </c>
+      <c r="N47" s="14">
+        <v>115000</v>
+      </c>
+      <c r="O47" t="s">
+        <v>91</v>
+      </c>
+      <c r="P47" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>24</v>
+      </c>
+      <c r="R47" t="s">
+        <v>106</v>
+      </c>
+      <c r="S47" s="1">
+        <v>36598</v>
+      </c>
+      <c r="T47" s="1">
+        <f t="shared" si="14"/>
+        <v>36598</v>
+      </c>
+      <c r="U47" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>03/13/2000</v>
+      </c>
+      <c r="V47" s="1">
+        <v>42654</v>
+      </c>
+      <c r="W47" t="s">
+        <v>66</v>
+      </c>
+      <c r="X47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1061</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>Jordan</v>
+      </c>
+      <c r="D48" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="1"/>
+        <v>Wilson</v>
+      </c>
+      <c r="F48" t="s">
+        <v>192</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="2"/>
+        <v>jordan.wilson@hotmail.com</v>
+      </c>
+      <c r="H48" s="16">
+        <v>45</v>
+      </c>
+      <c r="I48" t="s">
+        <v>325</v>
+      </c>
+      <c r="J48" t="s">
+        <v>333</v>
+      </c>
+      <c r="K48" t="s">
+        <v>173</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="3"/>
+        <v>Clerical</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="4"/>
+        <v>Clerical</v>
+      </c>
+      <c r="N48" s="14">
+        <v>117000</v>
+      </c>
+      <c r="O48" t="s">
+        <v>91</v>
+      </c>
+      <c r="P48" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>40</v>
+      </c>
+      <c r="R48" t="s">
+        <v>106</v>
+      </c>
+      <c r="S48" s="1">
+        <v>41890</v>
+      </c>
+      <c r="T48" s="1">
+        <f t="shared" si="14"/>
+        <v>41890</v>
+      </c>
+      <c r="U48" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>09/08/2014</v>
+      </c>
+      <c r="V48" s="1">
+        <v>42002</v>
+      </c>
+      <c r="W48" t="s">
+        <v>79</v>
+      </c>
+      <c r="X48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1056</v>
+      </c>
+      <c r="B49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>Taylor</v>
+      </c>
+      <c r="D49" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="1"/>
+        <v>Wilson</v>
+      </c>
+      <c r="F49" t="s">
+        <v>193</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="2"/>
+        <v>taylor.wilson@gmail.com</v>
+      </c>
+      <c r="H49" s="16">
+        <v>55</v>
+      </c>
+      <c r="I49" t="s">
+        <v>324</v>
+      </c>
+      <c r="J49" t="s">
+        <v>333</v>
+      </c>
+      <c r="K49" t="s">
+        <v>173</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="3"/>
+        <v>Clerical</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="4"/>
+        <v>Clerical</v>
+      </c>
+      <c r="N49" s="14">
+        <v>117000</v>
+      </c>
+      <c r="O49" t="s">
+        <v>39</v>
+      </c>
+      <c r="P49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>40</v>
+      </c>
+      <c r="R49" t="s">
+        <v>71</v>
+      </c>
+      <c r="S49" s="1">
+        <v>37378</v>
+      </c>
+      <c r="T49" s="1">
+        <f t="shared" si="14"/>
+        <v>37378</v>
+      </c>
+      <c r="U49" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>05/02/2002</v>
+      </c>
+      <c r="V49" t="s">
+        <v>194</v>
+      </c>
+      <c r="W49" t="s">
+        <v>66</v>
+      </c>
+      <c r="X49" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1010</v>
+      </c>
+      <c r="B50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>Pat</v>
+      </c>
+      <c r="D50" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="1"/>
+        <v>Williams</v>
+      </c>
+      <c r="F50" t="s">
+        <v>195</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="2"/>
+        <v>pat.williams@company.com</v>
+      </c>
+      <c r="H50" s="16">
+        <v>52</v>
+      </c>
+      <c r="I50" t="s">
+        <v>325</v>
+      </c>
+      <c r="J50" t="s">
+        <v>331</v>
+      </c>
+      <c r="K50" t="s">
+        <v>87</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="3"/>
+        <v>Clerical</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="4"/>
+        <v>Clerical</v>
+      </c>
+      <c r="N50" s="14">
+        <v>66000</v>
+      </c>
+      <c r="O50" t="s">
+        <v>23</v>
+      </c>
+      <c r="P50" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>24</v>
+      </c>
+      <c r="R50" t="s">
+        <v>84</v>
+      </c>
+      <c r="S50" s="1">
+        <v>38030</v>
+      </c>
+      <c r="T50" s="1">
+        <f t="shared" si="14"/>
+        <v>38030</v>
+      </c>
+      <c r="U50" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>02/13/2004</v>
+      </c>
+      <c r="V50" s="1">
+        <v>41446</v>
+      </c>
+      <c r="W50" t="s">
+        <v>26</v>
+      </c>
+      <c r="X50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1018</v>
+      </c>
+      <c r="B51" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>Jamie</v>
+      </c>
+      <c r="D51" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="1"/>
+        <v>Taylor</v>
+      </c>
+      <c r="F51" t="s">
+        <v>196</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="2"/>
+        <v>jamie.taylor@company.com</v>
+      </c>
+      <c r="H51" s="16">
+        <v>42</v>
+      </c>
+      <c r="I51" t="s">
+        <v>324</v>
+      </c>
+      <c r="J51" t="s">
+        <v>333</v>
+      </c>
+      <c r="K51" t="s">
+        <v>154</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="3"/>
+        <v>Salesman</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="4"/>
+        <v>Salesman</v>
+      </c>
+      <c r="N51" s="14">
+        <v>39000</v>
+      </c>
+      <c r="O51" t="s">
+        <v>32</v>
+      </c>
+      <c r="P51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>40</v>
+      </c>
+      <c r="R51" t="s">
+        <v>25</v>
+      </c>
+      <c r="S51" s="1">
+        <v>40306</v>
+      </c>
+      <c r="T51" s="1">
+        <f t="shared" si="14"/>
+        <v>40306</v>
+      </c>
+      <c r="U51" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>05/08/2010</v>
+      </c>
+      <c r="V51" s="1">
+        <v>44357</v>
+      </c>
+      <c r="W51" t="s">
+        <v>66</v>
+      </c>
+      <c r="X51" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1060</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>Casey</v>
+      </c>
+      <c r="D52" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="1"/>
+        <v>Taylor</v>
+      </c>
+      <c r="F52" t="s">
+        <v>197</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="2"/>
+        <v>casey.taylor@company.com</v>
+      </c>
+      <c r="H52" s="16">
+        <v>45</v>
+      </c>
+      <c r="I52" t="s">
+        <v>325</v>
+      </c>
+      <c r="J52" t="s">
+        <v>331</v>
+      </c>
+      <c r="K52" t="s">
+        <v>158</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="3"/>
+        <v>Manager</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="4"/>
+        <v>Manager</v>
+      </c>
+      <c r="N52" s="14">
+        <v>142000</v>
+      </c>
+      <c r="O52" t="s">
+        <v>32</v>
+      </c>
+      <c r="P52" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>24</v>
+      </c>
+      <c r="R52" t="s">
+        <v>106</v>
+      </c>
+      <c r="S52" s="1">
+        <v>38865</v>
+      </c>
+      <c r="T52" s="1">
+        <f t="shared" si="14"/>
+        <v>38865</v>
+      </c>
+      <c r="U52" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>05/28/2006</v>
+      </c>
+      <c r="V52" s="1">
+        <v>44356</v>
+      </c>
+      <c r="W52" t="s">
+        <v>66</v>
+      </c>
+      <c r="X52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1058</v>
+      </c>
+      <c r="B53" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>Casey</v>
+      </c>
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="1"/>
+        <v>Smith</v>
+      </c>
+      <c r="F53" t="s">
+        <v>199</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="2"/>
+        <v>casey.smith@hotmail.com</v>
+      </c>
+      <c r="H53" s="16">
+        <v>55</v>
+      </c>
+      <c r="I53" t="s">
+        <v>324</v>
+      </c>
+      <c r="J53" t="s">
+        <v>333</v>
+      </c>
+      <c r="K53" t="s">
+        <v>58</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="3"/>
+        <v>Salesman</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="4"/>
+        <v>Salesman</v>
+      </c>
+      <c r="N53" s="14">
+        <v>87000</v>
+      </c>
+      <c r="O53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P53" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>40</v>
+      </c>
+      <c r="R53" t="s">
+        <v>106</v>
+      </c>
+      <c r="S53" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="T53" s="1" t="str">
+        <f>TEXT(DATE(RIGHT(S53,4), MID(S53,4,2), LEFT(S53,2)), "mm/dd/yyyy")</f>
+        <v>07/14/2017</v>
+      </c>
+      <c r="U53" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>07/14/2017</v>
+      </c>
+      <c r="V53" s="1">
+        <v>44653</v>
+      </c>
+      <c r="W53" t="s">
+        <v>50</v>
+      </c>
+      <c r="X53" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1042</v>
+      </c>
+      <c r="B54" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>Alex</v>
+      </c>
+      <c r="D54" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="1"/>
+        <v>Miller</v>
+      </c>
+      <c r="F54" t="s">
+        <v>202</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="2"/>
+        <v>alex.miller@gmail.com</v>
+      </c>
+      <c r="H54" s="16">
+        <v>21</v>
+      </c>
+      <c r="I54" t="s">
+        <v>324</v>
+      </c>
+      <c r="J54" t="s">
+        <v>333</v>
+      </c>
+      <c r="K54" t="s">
+        <v>108</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="3"/>
+        <v>Directr</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" si="4"/>
+        <v>Director</v>
+      </c>
+      <c r="N54" s="14">
+        <v>123000</v>
+      </c>
+      <c r="O54" t="s">
+        <v>91</v>
+      </c>
+      <c r="P54" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>40</v>
+      </c>
+      <c r="R54" t="s">
+        <v>106</v>
+      </c>
+      <c r="S54" s="1">
+        <v>43834</v>
+      </c>
+      <c r="T54" s="1">
+        <f>S54</f>
+        <v>43834</v>
+      </c>
+      <c r="U54" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>01/04/2020</v>
+      </c>
+      <c r="V54" s="1">
+        <v>44594</v>
+      </c>
+      <c r="W54" t="s">
+        <v>34</v>
+      </c>
+      <c r="X54" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1065</v>
+      </c>
+      <c r="B55" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>Chris</v>
+      </c>
+      <c r="D55" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="1"/>
+        <v>Williams</v>
+      </c>
+      <c r="F55" t="s">
+        <v>203</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="2"/>
+        <v>chris.williams@company.com</v>
+      </c>
+      <c r="H55" s="16">
+        <v>56</v>
+      </c>
+      <c r="I55" t="s">
+        <v>325</v>
+      </c>
+      <c r="J55" t="s">
+        <v>333</v>
+      </c>
+      <c r="K55" t="s">
+        <v>204</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="3"/>
+        <v>HR</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" si="4"/>
+        <v>HR</v>
+      </c>
+      <c r="N55" s="14">
+        <v>108000</v>
+      </c>
+      <c r="O55" t="s">
+        <v>23</v>
+      </c>
+      <c r="P55" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>24</v>
+      </c>
+      <c r="R55" t="s">
+        <v>25</v>
+      </c>
+      <c r="S55" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="T55" s="1" t="str">
+        <f>TEXT(DATE(RIGHT(S55,4), MID(S55,4,2), LEFT(S55,2)), "mm/dd/yyyy")</f>
+        <v>12/20/2003</v>
+      </c>
+      <c r="U55" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>12/20/2003</v>
+      </c>
+      <c r="V55" t="s">
+        <v>206</v>
+      </c>
+      <c r="W55" t="s">
+        <v>34</v>
+      </c>
+      <c r="X55" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1046</v>
+      </c>
+      <c r="B56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>Jordan</v>
+      </c>
+      <c r="D56" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="1"/>
+        <v>Taylor</v>
+      </c>
+      <c r="F56" t="s">
+        <v>207</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="2"/>
+        <v>jordan.taylor@live.com</v>
+      </c>
+      <c r="H56" s="16">
+        <v>58</v>
+      </c>
+      <c r="I56" t="s">
+        <v>325</v>
+      </c>
+      <c r="J56" t="s">
+        <v>331</v>
+      </c>
+      <c r="K56" t="s">
+        <v>149</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="3"/>
+        <v>Accountant</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" si="4"/>
+        <v>Accountant</v>
+      </c>
+      <c r="N56" s="14">
+        <v>70000</v>
+      </c>
+      <c r="O56" t="s">
+        <v>77</v>
+      </c>
+      <c r="P56" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>40</v>
+      </c>
+      <c r="R56" t="s">
+        <v>342</v>
+      </c>
+      <c r="S56" s="1">
+        <v>42646</v>
+      </c>
+      <c r="T56" s="1">
+        <f>S56</f>
+        <v>42646</v>
+      </c>
+      <c r="U56" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>10/03/2016</v>
+      </c>
+      <c r="V56" t="s">
+        <v>208</v>
+      </c>
+      <c r="W56" t="s">
+        <v>50</v>
+      </c>
+      <c r="X56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1009</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>Jordan</v>
+      </c>
+      <c r="D57" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="1"/>
+        <v>Williams</v>
+      </c>
+      <c r="F57" t="s">
+        <v>209</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="2"/>
+        <v>jordan.williams@outlook.com</v>
+      </c>
+      <c r="H57" s="16">
+        <v>29</v>
+      </c>
+      <c r="I57" t="s">
+        <v>324</v>
+      </c>
+      <c r="J57" t="s">
+        <v>331</v>
+      </c>
+      <c r="K57" t="s">
+        <v>210</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="3"/>
+        <v>Receptionist</v>
+      </c>
+      <c r="M57" t="str">
+        <f t="shared" si="4"/>
+        <v>Receptionist</v>
+      </c>
+      <c r="N57" s="14">
+        <v>81000</v>
+      </c>
+      <c r="O57" t="s">
+        <v>91</v>
+      </c>
+      <c r="P57" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>24</v>
+      </c>
+      <c r="R57" t="s">
+        <v>84</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="T57" s="1" t="str">
+        <f>TEXT(DATE(RIGHT(S57,4), 1, MID(S57,FIND(",",S57)+2,2)),"mm/dd/yyyy")</f>
+        <v>01/26/2017</v>
+      </c>
+      <c r="U57" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>01/26/2017</v>
+      </c>
+      <c r="V57" t="s">
+        <v>212</v>
+      </c>
+      <c r="W57" t="s">
+        <v>34</v>
+      </c>
+      <c r="X57" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1072</v>
+      </c>
+      <c r="B58" t="s">
+        <v>213</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>Jordan</v>
+      </c>
+      <c r="D58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="1"/>
+        <v>Williams</v>
+      </c>
+      <c r="F58" t="s">
+        <v>209</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="2"/>
+        <v>jordan.williams@outlook.com</v>
+      </c>
+      <c r="H58" s="16">
+        <v>27</v>
+      </c>
+      <c r="I58" t="s">
+        <v>325</v>
+      </c>
+      <c r="J58" t="s">
+        <v>333</v>
+      </c>
+      <c r="K58" t="s">
+        <v>117</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="3"/>
+        <v>Analyst</v>
+      </c>
+      <c r="M58" t="str">
+        <f t="shared" si="4"/>
+        <v>Analyst</v>
+      </c>
+      <c r="N58" s="14">
+        <v>80000</v>
+      </c>
+      <c r="O58" t="s">
+        <v>39</v>
+      </c>
+      <c r="P58" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>24</v>
+      </c>
+      <c r="R58" t="s">
+        <v>25</v>
+      </c>
+      <c r="S58" s="1">
+        <v>41954</v>
+      </c>
+      <c r="T58" s="1">
+        <f t="shared" ref="T58:T59" si="15">S58</f>
+        <v>41954</v>
+      </c>
+      <c r="U58" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>11/11/2014</v>
+      </c>
+      <c r="V58" t="s">
+        <v>214</v>
+      </c>
+      <c r="W58" t="s">
+        <v>50</v>
+      </c>
+      <c r="X58" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1081</v>
+      </c>
+      <c r="B59" t="s">
+        <v>215</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>John</v>
+      </c>
+      <c r="D59" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="1"/>
+        <v>Jones</v>
+      </c>
+      <c r="F59" t="s">
+        <v>216</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="2"/>
+        <v>john.jones@outlook.com</v>
+      </c>
+      <c r="H59" s="16">
+        <v>27</v>
+      </c>
+      <c r="I59" t="s">
+        <v>325</v>
+      </c>
+      <c r="J59" t="s">
+        <v>331</v>
+      </c>
+      <c r="K59" t="s">
+        <v>144</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="3"/>
+        <v>Skilled Manual</v>
+      </c>
+      <c r="M59" t="str">
+        <f t="shared" si="4"/>
+        <v>Skilled Manual</v>
+      </c>
+      <c r="N59" s="14">
+        <v>120000</v>
+      </c>
+      <c r="O59" t="s">
+        <v>39</v>
+      </c>
+      <c r="P59" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>40</v>
+      </c>
+      <c r="R59" t="s">
+        <v>106</v>
+      </c>
+      <c r="S59" s="1">
+        <v>42991</v>
+      </c>
+      <c r="T59" s="1">
+        <f t="shared" si="15"/>
+        <v>42991</v>
+      </c>
+      <c r="U59" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>09/13/2017</v>
+      </c>
+      <c r="V59" s="1">
+        <v>44931</v>
+      </c>
+      <c r="W59" t="s">
+        <v>79</v>
+      </c>
+      <c r="X59" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1067</v>
+      </c>
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>Taylor</v>
+      </c>
+      <c r="D60" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="1"/>
+        <v>Smith</v>
+      </c>
+      <c r="F60" t="s">
+        <v>217</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="2"/>
+        <v>taylor.smith@gmail.com</v>
+      </c>
+      <c r="H60" s="16">
+        <v>60</v>
+      </c>
+      <c r="I60" t="s">
+        <v>325</v>
+      </c>
+      <c r="J60" t="s">
+        <v>330</v>
+      </c>
+      <c r="K60" t="s">
+        <v>127</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="3"/>
+        <v>Directorate</v>
+      </c>
+      <c r="M60" t="str">
+        <f t="shared" si="4"/>
+        <v>Director</v>
+      </c>
+      <c r="N60" s="14">
+        <v>130000</v>
+      </c>
+      <c r="O60" t="s">
+        <v>23</v>
+      </c>
+      <c r="P60" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>24</v>
+      </c>
+      <c r="R60" t="s">
+        <v>71</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="T60" s="1" t="str">
+        <f>TEXT(DATE(RIGHT(S60,4), 1, MID(S60,FIND(",",S60)+2,2)),"mm/dd/yyyy")</f>
+        <v>01/20/2019</v>
+      </c>
+      <c r="U60" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>01/20/2019</v>
+      </c>
+      <c r="V60" s="1">
+        <v>43855</v>
+      </c>
+      <c r="W60" t="s">
+        <v>34</v>
+      </c>
+      <c r="X60" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1051</v>
+      </c>
+      <c r="B61" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>Jamie</v>
+      </c>
+      <c r="D61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="1"/>
+        <v>Williams</v>
+      </c>
+      <c r="F61" t="s">
+        <v>219</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="2"/>
+        <v>jamie.williams@hotmail.com</v>
+      </c>
+      <c r="H61" s="16">
+        <v>23</v>
+      </c>
+      <c r="I61" t="s">
+        <v>324</v>
+      </c>
+      <c r="J61" t="s">
+        <v>331</v>
+      </c>
+      <c r="K61" t="s">
+        <v>149</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="3"/>
+        <v>Accountant</v>
+      </c>
+      <c r="M61" t="str">
+        <f t="shared" si="4"/>
+        <v>Accountant</v>
+      </c>
+      <c r="N61" s="14">
+        <v>73000</v>
+      </c>
+      <c r="O61" t="s">
+        <v>77</v>
+      </c>
+      <c r="P61" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>40</v>
+      </c>
+      <c r="R61" t="s">
+        <v>25</v>
+      </c>
+      <c r="S61" s="1">
+        <v>36545</v>
+      </c>
+      <c r="T61" s="1">
+        <f t="shared" ref="T61:T66" si="16">S61</f>
+        <v>36545</v>
+      </c>
+      <c r="U61" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>01/20/2000</v>
+      </c>
+      <c r="V61" s="1">
+        <v>42013</v>
+      </c>
+      <c r="W61" t="s">
+        <v>26</v>
+      </c>
+      <c r="X61" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1053</v>
+      </c>
+      <c r="B62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>Jane</v>
+      </c>
+      <c r="D62" t="s">
+        <v>220</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="1"/>
+        <v>Anderson</v>
+      </c>
+      <c r="F62" t="s">
+        <v>221</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="2"/>
+        <v>jane.anderson@hotmail.com</v>
+      </c>
+      <c r="H62" s="16">
+        <v>27</v>
+      </c>
+      <c r="I62" t="s">
+        <v>324</v>
+      </c>
+      <c r="J62" t="s">
+        <v>333</v>
+      </c>
+      <c r="K62" t="s">
+        <v>222</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="3"/>
+        <v>Salesman</v>
+      </c>
+      <c r="M62" t="str">
+        <f t="shared" si="4"/>
+        <v>Salesman</v>
+      </c>
+      <c r="N62" s="14">
+        <v>146000</v>
+      </c>
+      <c r="O62" t="s">
+        <v>23</v>
+      </c>
+      <c r="P62" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>40</v>
+      </c>
+      <c r="R62" t="s">
+        <v>71</v>
+      </c>
+      <c r="S62" s="1">
+        <v>41849</v>
+      </c>
+      <c r="T62" s="1">
+        <f t="shared" si="16"/>
+        <v>41849</v>
+      </c>
+      <c r="U62" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>07/29/2014</v>
+      </c>
+      <c r="V62" t="s">
+        <v>223</v>
+      </c>
+      <c r="W62" t="s">
+        <v>26</v>
+      </c>
+      <c r="X62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1041</v>
+      </c>
+      <c r="B63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>Alex</v>
+      </c>
+      <c r="D63" t="s">
+        <v>120</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="1"/>
+        <v>Miller</v>
+      </c>
+      <c r="F63" t="s">
+        <v>224</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="2"/>
+        <v>alex.miller@hotmail.com</v>
+      </c>
+      <c r="H63" s="16">
+        <v>37</v>
+      </c>
+      <c r="I63" t="s">
+        <v>325</v>
+      </c>
+      <c r="J63" t="s">
+        <v>331</v>
+      </c>
+      <c r="K63" t="s">
+        <v>139</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="3"/>
+        <v>Engineer</v>
+      </c>
+      <c r="M63" t="str">
+        <f t="shared" si="4"/>
+        <v>Engineer</v>
+      </c>
+      <c r="N63" s="14">
+        <v>51000</v>
+      </c>
+      <c r="O63" t="s">
+        <v>39</v>
+      </c>
+      <c r="P63" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>24</v>
+      </c>
+      <c r="R63" t="s">
+        <v>25</v>
+      </c>
+      <c r="S63" s="1">
+        <v>43623</v>
+      </c>
+      <c r="T63" s="1">
+        <f t="shared" si="16"/>
+        <v>43623</v>
+      </c>
+      <c r="U63" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>06/07/2019</v>
+      </c>
+      <c r="V63" t="s">
+        <v>225</v>
+      </c>
+      <c r="W63" t="s">
+        <v>50</v>
+      </c>
+      <c r="X63" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1071</v>
+      </c>
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>Jordan</v>
+      </c>
+      <c r="D64" t="s">
+        <v>103</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="1"/>
+        <v>Anderson</v>
+      </c>
+      <c r="F64" t="s">
+        <v>226</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="2"/>
+        <v>jordan.anderson@company.com</v>
+      </c>
+      <c r="H64" s="16">
+        <v>65</v>
+      </c>
+      <c r="I64" t="s">
+        <v>324</v>
+      </c>
+      <c r="J64" t="s">
+        <v>331</v>
+      </c>
+      <c r="K64" t="s">
+        <v>99</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="3"/>
+        <v>Directorate</v>
+      </c>
+      <c r="M64" t="str">
+        <f t="shared" si="4"/>
+        <v>Director</v>
+      </c>
+      <c r="N64" s="14">
+        <v>56000</v>
+      </c>
+      <c r="O64" t="s">
+        <v>23</v>
+      </c>
+      <c r="P64" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>40</v>
+      </c>
+      <c r="R64" t="s">
+        <v>342</v>
+      </c>
+      <c r="S64" s="1">
+        <v>38232</v>
+      </c>
+      <c r="T64" s="1">
+        <f t="shared" si="16"/>
+        <v>38232</v>
+      </c>
+      <c r="U64" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>09/02/2004</v>
+      </c>
+      <c r="V64" s="1">
+        <v>38339</v>
+      </c>
+      <c r="W64" t="s">
+        <v>34</v>
+      </c>
+      <c r="X64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>1047</v>
+      </c>
+      <c r="B65" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>Jamie</v>
+      </c>
+      <c r="D65" t="s">
+        <v>227</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="1"/>
+        <v>Johnson</v>
+      </c>
+      <c r="F65" t="s">
+        <v>228</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="2"/>
+        <v>jamie.johnson@gmail.com</v>
+      </c>
+      <c r="H65" s="16">
+        <v>49</v>
+      </c>
+      <c r="I65" t="s">
+        <v>325</v>
+      </c>
+      <c r="J65" t="s">
+        <v>332</v>
+      </c>
+      <c r="K65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" si="3"/>
+        <v>HR</v>
+      </c>
+      <c r="M65" t="str">
+        <f t="shared" si="4"/>
+        <v>HR</v>
+      </c>
+      <c r="N65" s="14">
+        <v>68000</v>
+      </c>
+      <c r="O65" t="s">
+        <v>39</v>
+      </c>
+      <c r="P65" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>40</v>
+      </c>
+      <c r="R65" t="s">
+        <v>342</v>
+      </c>
+      <c r="S65" s="1">
+        <v>37487</v>
+      </c>
+      <c r="T65" s="1">
+        <f t="shared" si="16"/>
+        <v>37487</v>
+      </c>
+      <c r="U65" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>08/19/2002</v>
+      </c>
+      <c r="V65" s="1">
+        <v>40350</v>
+      </c>
+      <c r="W65" t="s">
+        <v>79</v>
+      </c>
+      <c r="X65" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1069</v>
+      </c>
+      <c r="B66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v>Morgan</v>
+      </c>
+      <c r="D66" t="s">
+        <v>227</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="1"/>
+        <v>Johnson</v>
+      </c>
+      <c r="F66" t="s">
+        <v>229</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="2"/>
+        <v>morgan.johnson@hotmail.com</v>
+      </c>
+      <c r="H66" s="16">
+        <v>24</v>
+      </c>
+      <c r="I66" t="s">
+        <v>324</v>
+      </c>
+      <c r="J66" t="s">
+        <v>333</v>
+      </c>
+      <c r="K66" t="s">
+        <v>179</v>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" si="3"/>
+        <v>Skilled Manual</v>
+      </c>
+      <c r="M66" t="str">
+        <f t="shared" si="4"/>
+        <v>Skilled Manual</v>
+      </c>
+      <c r="N66" s="14">
+        <v>126000</v>
+      </c>
+      <c r="O66" t="s">
+        <v>39</v>
+      </c>
+      <c r="P66" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>40</v>
+      </c>
+      <c r="R66" t="s">
+        <v>71</v>
+      </c>
+      <c r="S66" s="1">
+        <v>38450</v>
+      </c>
+      <c r="T66" s="1">
+        <f t="shared" si="16"/>
+        <v>38450</v>
+      </c>
+      <c r="U66" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>04/08/2005</v>
+      </c>
+      <c r="V66" s="1">
+        <v>42394</v>
+      </c>
+      <c r="W66" t="s">
+        <v>26</v>
+      </c>
+      <c r="X66" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1082</v>
+      </c>
+      <c r="B67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C86" si="17">TRIM(PROPER(B67))</f>
+        <v>Alex</v>
+      </c>
+      <c r="D67" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E86" si="18">TRIM(PROPER(D67))</f>
+        <v>Davis</v>
+      </c>
+      <c r="F67" t="s">
+        <v>230</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G86" si="19">TRIM(F67)</f>
+        <v>alex.davis@company.com</v>
+      </c>
+      <c r="H67" s="16">
+        <v>64</v>
+      </c>
+      <c r="I67" t="s">
+        <v>325</v>
+      </c>
+      <c r="J67" t="s">
+        <v>330</v>
+      </c>
+      <c r="K67" t="s">
+        <v>31</v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" ref="L67:L86" si="20">TRIM(K67)</f>
+        <v>Analyst</v>
+      </c>
+      <c r="M67" t="str">
+        <f t="shared" ref="M67:M86" si="21">(TRIM(SUBSTITUTE(SUBSTITUTE(K67, "Directorate", "Director"), "Directr", "Director")))</f>
+        <v>Analyst</v>
+      </c>
+      <c r="N67" s="14">
+        <v>116000</v>
+      </c>
+      <c r="O67" t="s">
+        <v>39</v>
+      </c>
+      <c r="P67" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>40</v>
+      </c>
+      <c r="R67" t="s">
+        <v>106</v>
+      </c>
+      <c r="S67" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="T67" s="1" t="str">
+        <f>TEXT(DATE(RIGHT(S67,4), MID(S67,4,2), LEFT(S67,2)), "mm/dd/yyyy")</f>
+        <v>03/15/2002</v>
+      </c>
+      <c r="U67" s="1" t="str">
+        <f t="shared" ref="U67:U86" si="22">IF(ISNUMBER(S67), TEXT(S67,"mm/dd/yyyy"),
+ IFERROR(TEXT(DATE(RIGHT(S67,4),1,MID(S67,FIND(",",S67)+2,2)),"mm/dd/yyyy"),
+ IFERROR(TEXT(DATE(RIGHT(S67,4),MID(S67,4,2),LEFT(S67,2)),"mm/dd/yyyy"),S67)))</f>
+        <v>03/15/2002</v>
+      </c>
+      <c r="V67" s="1">
+        <v>43196</v>
+      </c>
+      <c r="W67" t="s">
+        <v>50</v>
+      </c>
+      <c r="X67" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1034</v>
+      </c>
+      <c r="B68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="17"/>
+        <v>John</v>
+      </c>
+      <c r="D68" t="s">
+        <v>177</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="18"/>
+        <v>Johnson</v>
+      </c>
+      <c r="F68" t="s">
+        <v>232</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="19"/>
+        <v>john.johnson@gmail.com</v>
+      </c>
+      <c r="H68" s="16">
+        <v>60</v>
+      </c>
+      <c r="I68" t="s">
+        <v>324</v>
+      </c>
+      <c r="J68" t="s">
+        <v>333</v>
+      </c>
+      <c r="K68" t="s">
+        <v>233</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="20"/>
+        <v>Directorate</v>
+      </c>
+      <c r="M68" t="str">
+        <f t="shared" si="21"/>
+        <v>Director</v>
+      </c>
+      <c r="N68" s="14">
+        <v>135000</v>
+      </c>
+      <c r="O68" t="s">
+        <v>32</v>
+      </c>
+      <c r="P68" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>40</v>
+      </c>
+      <c r="R68" t="s">
+        <v>71</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="T68" s="1" t="str">
+        <f t="shared" ref="T68:T70" si="23">TEXT(DATE(RIGHT(S68,4), 1, MID(S68,FIND(",",S68)+2,2)),"mm/dd/yyyy")</f>
+        <v>01/02/2006</v>
+      </c>
+      <c r="U68" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>01/02/2006</v>
+      </c>
+      <c r="V68" s="1">
+        <v>40688</v>
+      </c>
+      <c r="W68" t="s">
+        <v>66</v>
+      </c>
+      <c r="X68" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1039</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="17"/>
+        <v>Pat</v>
+      </c>
+      <c r="D69" t="s">
+        <v>129</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="18"/>
+        <v>Williams</v>
+      </c>
+      <c r="F69" t="s">
+        <v>235</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="19"/>
+        <v>pat.williams@hotmail.com</v>
+      </c>
+      <c r="H69" s="16">
+        <v>24</v>
+      </c>
+      <c r="I69" t="s">
+        <v>325</v>
+      </c>
+      <c r="J69" t="s">
+        <v>333</v>
+      </c>
+      <c r="K69" t="s">
+        <v>204</v>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" si="20"/>
+        <v>HR</v>
+      </c>
+      <c r="M69" t="str">
+        <f t="shared" si="21"/>
+        <v>HR</v>
+      </c>
+      <c r="N69" s="14">
+        <v>144000</v>
+      </c>
+      <c r="O69" t="s">
+        <v>23</v>
+      </c>
+      <c r="P69" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>40</v>
+      </c>
+      <c r="R69" t="s">
+        <v>342</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="T69" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>01/18/2017</v>
+      </c>
+      <c r="U69" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>01/18/2017</v>
+      </c>
+      <c r="V69" s="1">
+        <v>43412</v>
+      </c>
+      <c r="W69" t="s">
+        <v>50</v>
+      </c>
+      <c r="X69" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1052</v>
+      </c>
+      <c r="B70" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="17"/>
+        <v>Alex</v>
+      </c>
+      <c r="D70" t="s">
+        <v>67</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="18"/>
+        <v>Taylor</v>
+      </c>
+      <c r="F70" t="s">
+        <v>237</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="19"/>
+        <v>alex.taylor@hotmail.com</v>
+      </c>
+      <c r="H70" s="16">
+        <v>65</v>
+      </c>
+      <c r="I70" t="s">
+        <v>325</v>
+      </c>
+      <c r="J70" t="s">
+        <v>331</v>
+      </c>
+      <c r="K70" t="s">
+        <v>99</v>
+      </c>
+      <c r="L70" t="str">
+        <f t="shared" si="20"/>
+        <v>Directorate</v>
+      </c>
+      <c r="M70" t="str">
+        <f t="shared" si="21"/>
+        <v>Director</v>
+      </c>
+      <c r="N70" s="14">
+        <v>65000</v>
+      </c>
+      <c r="O70" t="s">
+        <v>23</v>
+      </c>
+      <c r="P70" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>40</v>
+      </c>
+      <c r="R70" t="s">
+        <v>84</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="T70" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>01/30/2017</v>
+      </c>
+      <c r="U70" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>01/30/2017</v>
+      </c>
+      <c r="W70" t="s">
+        <v>26</v>
+      </c>
+      <c r="X70" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1043</v>
+      </c>
+      <c r="B71" t="s">
+        <v>201</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="17"/>
+        <v>Alex</v>
+      </c>
+      <c r="D71" t="s">
+        <v>43</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="18"/>
+        <v>Wilson</v>
+      </c>
+      <c r="F71" t="s">
+        <v>239</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="19"/>
+        <v>alex.wilson@gmail.com</v>
+      </c>
+      <c r="H71" s="16">
+        <v>63</v>
+      </c>
+      <c r="I71" t="s">
+        <v>325</v>
+      </c>
+      <c r="J71" t="s">
+        <v>330</v>
+      </c>
+      <c r="K71" t="s">
+        <v>117</v>
+      </c>
+      <c r="L71" t="str">
+        <f t="shared" si="20"/>
+        <v>Analyst</v>
+      </c>
+      <c r="M71" t="str">
+        <f t="shared" si="21"/>
+        <v>Analyst</v>
+      </c>
+      <c r="N71" s="14">
+        <v>106000</v>
+      </c>
+      <c r="O71" t="s">
+        <v>77</v>
+      </c>
+      <c r="P71" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>40</v>
+      </c>
+      <c r="R71" t="s">
+        <v>106</v>
+      </c>
+      <c r="S71" s="1">
+        <v>36943</v>
+      </c>
+      <c r="T71" s="1">
+        <f>S71</f>
+        <v>36943</v>
+      </c>
+      <c r="U71" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>02/21/2001</v>
+      </c>
+      <c r="V71" t="s">
+        <v>65</v>
+      </c>
+      <c r="W71" t="s">
+        <v>66</v>
+      </c>
+      <c r="X71" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1005</v>
+      </c>
+      <c r="B72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="17"/>
+        <v>Taylor</v>
+      </c>
+      <c r="D72" t="s">
+        <v>120</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="18"/>
+        <v>Miller</v>
+      </c>
+      <c r="F72" t="s">
+        <v>240</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="19"/>
+        <v>taylor.miller@live.com</v>
+      </c>
+      <c r="H72" s="16">
+        <v>25</v>
+      </c>
+      <c r="I72" t="s">
+        <v>324</v>
+      </c>
+      <c r="J72" t="s">
+        <v>333</v>
+      </c>
+      <c r="K72" t="s">
+        <v>241</v>
+      </c>
+      <c r="L72" t="str">
+        <f t="shared" si="20"/>
+        <v>Directr</v>
+      </c>
+      <c r="M72" t="str">
+        <f t="shared" si="21"/>
+        <v>Director</v>
+      </c>
+      <c r="N72" s="14">
+        <v>89000</v>
+      </c>
+      <c r="O72" t="s">
+        <v>32</v>
+      </c>
+      <c r="P72" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>24</v>
+      </c>
+      <c r="R72" t="s">
+        <v>106</v>
+      </c>
+      <c r="S72" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="T72" s="1" t="str">
+        <f>TEXT(DATE(RIGHT(S72,4), MID(S72,4,2), LEFT(S72,2)), "mm/dd/yyyy")</f>
+        <v>10/24/2003</v>
+      </c>
+      <c r="U72" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>10/24/2003</v>
+      </c>
+      <c r="V72" s="1">
+        <v>40397</v>
+      </c>
+      <c r="W72" t="s">
+        <v>66</v>
+      </c>
+      <c r="X72" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1040</v>
+      </c>
+      <c r="B73" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="17"/>
+        <v>Pat</v>
+      </c>
+      <c r="D73" t="s">
+        <v>67</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="18"/>
+        <v>Taylor</v>
+      </c>
+      <c r="F73" t="s">
+        <v>243</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="19"/>
+        <v>pat.taylor@company.com</v>
+      </c>
+      <c r="H73" s="16">
+        <v>61</v>
+      </c>
+      <c r="I73" t="s">
+        <v>324</v>
+      </c>
+      <c r="J73" t="s">
+        <v>333</v>
+      </c>
+      <c r="K73" t="s">
+        <v>139</v>
+      </c>
+      <c r="L73" t="str">
+        <f t="shared" si="20"/>
+        <v>Engineer</v>
+      </c>
+      <c r="M73" t="str">
+        <f t="shared" si="21"/>
+        <v>Engineer</v>
+      </c>
+      <c r="N73" s="14">
+        <v>91000</v>
+      </c>
+      <c r="O73" t="s">
+        <v>23</v>
+      </c>
+      <c r="P73" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>40</v>
+      </c>
+      <c r="R73" t="s">
+        <v>25</v>
+      </c>
+      <c r="S73" s="1">
+        <v>38820</v>
+      </c>
+      <c r="T73" s="1">
+        <f t="shared" ref="T73:T74" si="24">S73</f>
+        <v>38820</v>
+      </c>
+      <c r="U73" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>04/13/2006</v>
+      </c>
+      <c r="V73" t="s">
+        <v>244</v>
+      </c>
+      <c r="W73" t="s">
+        <v>26</v>
+      </c>
+      <c r="X73" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1038</v>
+      </c>
+      <c r="B74" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="17"/>
+        <v>Chris</v>
+      </c>
+      <c r="D74" t="s">
+        <v>114</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="18"/>
+        <v>Taylor</v>
+      </c>
+      <c r="F74" t="s">
+        <v>245</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="19"/>
+        <v>chris.taylor@live.com</v>
+      </c>
+      <c r="H74" s="16">
+        <v>52</v>
+      </c>
+      <c r="I74" t="s">
+        <v>325</v>
+      </c>
+      <c r="J74" t="s">
+        <v>332</v>
+      </c>
+      <c r="K74" t="s">
+        <v>31</v>
+      </c>
+      <c r="L74" t="str">
+        <f t="shared" si="20"/>
+        <v>Analyst</v>
+      </c>
+      <c r="M74" t="str">
+        <f t="shared" si="21"/>
+        <v>Analyst</v>
+      </c>
+      <c r="N74" s="14">
+        <v>118000</v>
+      </c>
+      <c r="O74" t="s">
+        <v>77</v>
+      </c>
+      <c r="P74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>40</v>
+      </c>
+      <c r="R74" t="s">
+        <v>71</v>
+      </c>
+      <c r="S74" s="1">
+        <v>42889</v>
+      </c>
+      <c r="T74" s="1">
+        <f t="shared" si="24"/>
+        <v>42889</v>
+      </c>
+      <c r="U74" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>06/03/2017</v>
+      </c>
+      <c r="V74" t="s">
+        <v>246</v>
+      </c>
+      <c r="W74" t="s">
+        <v>50</v>
+      </c>
+      <c r="X74" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1021</v>
+      </c>
+      <c r="B75" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="17"/>
+        <v>Alex</v>
+      </c>
+      <c r="D75" t="s">
+        <v>52</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="18"/>
+        <v>Brown</v>
+      </c>
+      <c r="F75" t="s">
+        <v>247</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="19"/>
+        <v>alex.brown@gmail.com</v>
+      </c>
+      <c r="H75" s="16">
+        <v>34</v>
+      </c>
+      <c r="I75" t="s">
+        <v>325</v>
+      </c>
+      <c r="J75" t="s">
+        <v>330</v>
+      </c>
+      <c r="K75" t="s">
+        <v>248</v>
+      </c>
+      <c r="L75" t="str">
+        <f t="shared" si="20"/>
+        <v>Skilled Manual</v>
+      </c>
+      <c r="M75" t="str">
+        <f t="shared" si="21"/>
+        <v>Skilled Manual</v>
+      </c>
+      <c r="N75" s="14">
+        <v>148000</v>
+      </c>
+      <c r="O75" t="s">
+        <v>39</v>
+      </c>
+      <c r="P75" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>24</v>
+      </c>
+      <c r="R75" t="s">
+        <v>25</v>
+      </c>
+      <c r="S75" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="T75" s="1" t="str">
+        <f>TEXT(DATE(RIGHT(S75,4), MID(S75,4,2), LEFT(S75,2)), "mm/dd/yyyy")</f>
+        <v>03/30/2012</v>
+      </c>
+      <c r="U75" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>03/30/2012</v>
+      </c>
+      <c r="V75" s="1">
+        <v>44638</v>
+      </c>
+      <c r="W75" t="s">
+        <v>66</v>
+      </c>
+      <c r="X75" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>1032</v>
+      </c>
+      <c r="B76" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="17"/>
+        <v>Casey</v>
+      </c>
+      <c r="D76" t="s">
+        <v>250</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="18"/>
+        <v>Brown</v>
+      </c>
+      <c r="F76" t="s">
+        <v>251</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="19"/>
+        <v>casey.brown@outlook.com</v>
+      </c>
+      <c r="H76" s="16">
+        <v>25</v>
+      </c>
+      <c r="I76" t="s">
+        <v>325</v>
+      </c>
+      <c r="J76" t="s">
+        <v>330</v>
+      </c>
+      <c r="K76" t="s">
+        <v>158</v>
+      </c>
+      <c r="L76" t="str">
+        <f t="shared" si="20"/>
+        <v>Manager</v>
+      </c>
+      <c r="M76" t="str">
+        <f t="shared" si="21"/>
+        <v>Manager</v>
+      </c>
+      <c r="N76" s="14">
+        <v>148000</v>
+      </c>
+      <c r="O76" t="s">
+        <v>91</v>
+      </c>
+      <c r="P76" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>24</v>
+      </c>
+      <c r="R76" t="s">
+        <v>71</v>
+      </c>
+      <c r="S76" s="1">
+        <v>41734</v>
+      </c>
+      <c r="T76" s="1">
+        <f t="shared" ref="T76:T84" si="25">S76</f>
+        <v>41734</v>
+      </c>
+      <c r="U76" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>04/05/2014</v>
+      </c>
+      <c r="V76" t="s">
+        <v>252</v>
+      </c>
+      <c r="W76" t="s">
+        <v>50</v>
+      </c>
+      <c r="X76" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1048</v>
+      </c>
+      <c r="B77" t="s">
+        <v>201</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="17"/>
+        <v>Alex</v>
+      </c>
+      <c r="D77" t="s">
+        <v>191</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="18"/>
+        <v>Wilson</v>
+      </c>
+      <c r="F77" t="s">
+        <v>253</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="19"/>
+        <v>alex.wilson@gmail.com</v>
+      </c>
+      <c r="H77" s="16">
+        <v>64</v>
+      </c>
+      <c r="I77" t="s">
+        <v>325</v>
+      </c>
+      <c r="J77" t="s">
+        <v>333</v>
+      </c>
+      <c r="K77" t="s">
+        <v>254</v>
+      </c>
+      <c r="L77" t="str">
+        <f t="shared" si="20"/>
+        <v>Director</v>
+      </c>
+      <c r="M77" t="str">
+        <f t="shared" si="21"/>
+        <v>Director</v>
+      </c>
+      <c r="N77" s="14">
+        <v>109000</v>
+      </c>
+      <c r="O77" t="s">
+        <v>39</v>
+      </c>
+      <c r="P77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>24</v>
+      </c>
+      <c r="R77" t="s">
+        <v>25</v>
+      </c>
+      <c r="S77" s="1">
+        <v>39628</v>
+      </c>
+      <c r="T77" s="1">
+        <f t="shared" si="25"/>
+        <v>39628</v>
+      </c>
+      <c r="U77" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>06/29/2008</v>
+      </c>
+      <c r="V77" s="1">
+        <v>43120</v>
+      </c>
+      <c r="W77" t="s">
+        <v>66</v>
+      </c>
+      <c r="X77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1050</v>
+      </c>
+      <c r="B78" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="17"/>
+        <v>John</v>
+      </c>
+      <c r="D78" t="s">
+        <v>81</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="18"/>
+        <v>Miller</v>
+      </c>
+      <c r="F78" t="s">
+        <v>255</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="19"/>
+        <v>john.miller@hotmail.com</v>
+      </c>
+      <c r="H78" s="16">
+        <v>48</v>
+      </c>
+      <c r="I78" t="s">
+        <v>324</v>
+      </c>
+      <c r="J78" t="s">
+        <v>333</v>
+      </c>
+      <c r="K78" t="s">
+        <v>241</v>
+      </c>
+      <c r="L78" t="str">
+        <f t="shared" si="20"/>
+        <v>Directr</v>
+      </c>
+      <c r="M78" t="str">
+        <f t="shared" si="21"/>
+        <v>Director</v>
+      </c>
+      <c r="N78" s="14">
+        <v>52000</v>
+      </c>
+      <c r="O78" t="s">
+        <v>39</v>
+      </c>
+      <c r="P78" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>24</v>
+      </c>
+      <c r="R78" t="s">
+        <v>71</v>
+      </c>
+      <c r="S78" s="1">
+        <v>43140</v>
+      </c>
+      <c r="T78" s="1">
+        <f t="shared" si="25"/>
+        <v>43140</v>
+      </c>
+      <c r="U78" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>02/09/2018</v>
+      </c>
+      <c r="V78" t="s">
+        <v>256</v>
+      </c>
+      <c r="W78" t="s">
+        <v>34</v>
+      </c>
+      <c r="X78" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>1035</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="17"/>
+        <v>Alex</v>
+      </c>
+      <c r="D79" t="s">
+        <v>257</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="18"/>
+        <v>Davis</v>
+      </c>
+      <c r="F79" t="s">
+        <v>258</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="19"/>
+        <v>alex.davis@company.com</v>
+      </c>
+      <c r="H79" s="16">
+        <v>61</v>
+      </c>
+      <c r="I79" t="s">
+        <v>325</v>
+      </c>
+      <c r="J79" t="s">
+        <v>332</v>
+      </c>
+      <c r="K79" t="s">
+        <v>112</v>
+      </c>
+      <c r="L79" t="str">
+        <f t="shared" si="20"/>
+        <v>HR</v>
+      </c>
+      <c r="M79" t="str">
+        <f t="shared" si="21"/>
+        <v>HR</v>
+      </c>
+      <c r="N79" s="14">
+        <v>139000</v>
+      </c>
+      <c r="O79" t="s">
+        <v>91</v>
+      </c>
+      <c r="P79" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>24</v>
+      </c>
+      <c r="R79" t="s">
+        <v>25</v>
+      </c>
+      <c r="S79" s="1">
+        <v>37455</v>
+      </c>
+      <c r="T79" s="1">
+        <f t="shared" si="25"/>
+        <v>37455</v>
+      </c>
+      <c r="U79" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>07/18/2002</v>
+      </c>
+      <c r="V79" s="1">
+        <v>38503</v>
+      </c>
+      <c r="W79" t="s">
+        <v>26</v>
+      </c>
+      <c r="X79" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>1008</v>
+      </c>
+      <c r="B80" t="s">
+        <v>213</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="17"/>
+        <v>Jordan</v>
+      </c>
+      <c r="D80" t="s">
+        <v>68</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="18"/>
+        <v>Davis</v>
+      </c>
+      <c r="F80" t="s">
+        <v>259</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="19"/>
+        <v>jordan.davis@live.com</v>
+      </c>
+      <c r="H80" s="16">
+        <v>27</v>
+      </c>
+      <c r="I80" t="s">
+        <v>324</v>
+      </c>
+      <c r="J80" t="s">
+        <v>331</v>
+      </c>
+      <c r="K80" t="s">
+        <v>22</v>
+      </c>
+      <c r="L80" t="str">
+        <f t="shared" si="20"/>
+        <v>HR</v>
+      </c>
+      <c r="M80" t="str">
+        <f t="shared" si="21"/>
+        <v>HR</v>
+      </c>
+      <c r="N80" s="14">
+        <v>106000</v>
+      </c>
+      <c r="O80" t="s">
+        <v>91</v>
+      </c>
+      <c r="P80" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>40</v>
+      </c>
+      <c r="R80" t="s">
+        <v>25</v>
+      </c>
+      <c r="S80" s="1">
+        <v>43944</v>
+      </c>
+      <c r="T80" s="1">
+        <f t="shared" si="25"/>
+        <v>43944</v>
+      </c>
+      <c r="U80" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>04/23/2020</v>
+      </c>
+      <c r="V80" s="1">
+        <v>45179</v>
+      </c>
+      <c r="W80" t="s">
+        <v>50</v>
+      </c>
+      <c r="X80" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>1076</v>
+      </c>
+      <c r="B81" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="17"/>
+        <v>Chris</v>
+      </c>
+      <c r="D81" t="s">
+        <v>122</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="18"/>
+        <v>Jones</v>
+      </c>
+      <c r="F81" t="s">
+        <v>260</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="19"/>
+        <v>chris.jones@company.com</v>
+      </c>
+      <c r="H81" s="16">
+        <v>57</v>
+      </c>
+      <c r="I81" t="s">
+        <v>324</v>
+      </c>
+      <c r="J81" t="s">
+        <v>332</v>
+      </c>
+      <c r="K81" t="s">
+        <v>154</v>
+      </c>
+      <c r="L81" t="str">
+        <f t="shared" si="20"/>
+        <v>Salesman</v>
+      </c>
+      <c r="M81" t="str">
+        <f t="shared" si="21"/>
+        <v>Salesman</v>
+      </c>
+      <c r="N81" s="14">
+        <v>128000</v>
+      </c>
+      <c r="O81" t="s">
+        <v>32</v>
+      </c>
+      <c r="P81" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>40</v>
+      </c>
+      <c r="R81" t="s">
+        <v>25</v>
+      </c>
+      <c r="S81" s="1">
+        <v>41089</v>
+      </c>
+      <c r="T81" s="1">
+        <f t="shared" si="25"/>
+        <v>41089</v>
+      </c>
+      <c r="U81" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>06/29/2012</v>
+      </c>
+      <c r="V81" t="s">
+        <v>261</v>
+      </c>
+      <c r="W81" t="s">
+        <v>79</v>
+      </c>
+      <c r="X81" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>1083</v>
+      </c>
+      <c r="B82" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="17"/>
+        <v>Taylor</v>
+      </c>
+      <c r="D82" t="s">
+        <v>122</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="18"/>
+        <v>Jones</v>
+      </c>
+      <c r="F82" t="s">
+        <v>262</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="19"/>
+        <v>taylor.jones@outlook.com</v>
+      </c>
+      <c r="H82" s="16">
+        <v>42</v>
+      </c>
+      <c r="I82" t="s">
+        <v>325</v>
+      </c>
+      <c r="J82" t="s">
+        <v>331</v>
+      </c>
+      <c r="K82" t="s">
+        <v>76</v>
+      </c>
+      <c r="L82" t="str">
+        <f t="shared" si="20"/>
+        <v>Analyst</v>
+      </c>
+      <c r="M82" t="str">
+        <f t="shared" si="21"/>
+        <v>Analyst</v>
+      </c>
+      <c r="N82" s="14">
+        <v>30000</v>
+      </c>
+      <c r="O82" t="s">
+        <v>23</v>
+      </c>
+      <c r="P82" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>24</v>
+      </c>
+      <c r="R82" t="s">
+        <v>106</v>
+      </c>
+      <c r="S82" s="1">
+        <v>38675</v>
+      </c>
+      <c r="T82" s="1">
+        <f t="shared" si="25"/>
+        <v>38675</v>
+      </c>
+      <c r="U82" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>11/19/2005</v>
+      </c>
+      <c r="W82" t="s">
+        <v>66</v>
+      </c>
+      <c r="X82" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>1044</v>
+      </c>
+      <c r="B83" t="s">
+        <v>142</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="17"/>
+        <v>Pat</v>
+      </c>
+      <c r="D83" t="s">
+        <v>81</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="18"/>
+        <v>Miller</v>
+      </c>
+      <c r="F83" t="s">
+        <v>263</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="19"/>
+        <v>pat.miller@hotmail.com</v>
+      </c>
+      <c r="H83" s="16">
+        <v>35</v>
+      </c>
+      <c r="I83" t="s">
+        <v>324</v>
+      </c>
+      <c r="J83" t="s">
+        <v>332</v>
+      </c>
+      <c r="K83" t="s">
+        <v>99</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="20"/>
+        <v>Directorate</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="21"/>
+        <v>Director</v>
+      </c>
+      <c r="N83" s="14">
+        <v>65000</v>
+      </c>
+      <c r="O83" t="s">
+        <v>77</v>
+      </c>
+      <c r="P83" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>24</v>
+      </c>
+      <c r="R83" t="s">
+        <v>106</v>
+      </c>
+      <c r="S83" s="1">
+        <v>42360</v>
+      </c>
+      <c r="T83" s="1">
+        <f t="shared" si="25"/>
+        <v>42360</v>
+      </c>
+      <c r="U83" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>12/22/2015</v>
+      </c>
+      <c r="W83" t="s">
+        <v>34</v>
+      </c>
+      <c r="X83" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>1023</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="17"/>
+        <v>Jamie</v>
+      </c>
+      <c r="D84" t="s">
+        <v>264</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="18"/>
+        <v>Wilson</v>
+      </c>
+      <c r="F84" t="s">
+        <v>265</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="19"/>
+        <v>jamie.wilson@outlook.com</v>
+      </c>
+      <c r="H84" s="16">
+        <v>36</v>
+      </c>
+      <c r="I84" t="s">
+        <v>324</v>
+      </c>
+      <c r="J84" t="s">
+        <v>332</v>
+      </c>
+      <c r="K84" t="s">
+        <v>241</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="20"/>
+        <v>Directr</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="21"/>
+        <v>Director</v>
+      </c>
+      <c r="N84" s="14">
+        <v>95000</v>
+      </c>
+      <c r="O84" t="s">
+        <v>23</v>
+      </c>
+      <c r="P84" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>40</v>
+      </c>
+      <c r="R84" t="s">
+        <v>25</v>
+      </c>
+      <c r="S84" s="1">
+        <v>42476</v>
+      </c>
+      <c r="T84" s="1">
+        <f t="shared" si="25"/>
+        <v>42476</v>
+      </c>
+      <c r="U84" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>04/16/2016</v>
+      </c>
+      <c r="V84" s="1">
+        <v>42619</v>
+      </c>
+      <c r="W84" t="s">
+        <v>50</v>
+      </c>
+      <c r="X84" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>1073</v>
+      </c>
+      <c r="B85" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="17"/>
+        <v>Pat</v>
+      </c>
+      <c r="D85" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="18"/>
+        <v>Williams</v>
+      </c>
+      <c r="F85" t="s">
+        <v>266</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="19"/>
+        <v>pat.williams@hotmail.com</v>
+      </c>
+      <c r="H85" s="16">
+        <v>27</v>
+      </c>
+      <c r="I85" t="s">
+        <v>325</v>
+      </c>
+      <c r="J85" t="s">
+        <v>333</v>
+      </c>
+      <c r="K85" t="s">
+        <v>62</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="20"/>
+        <v>Director</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="21"/>
+        <v>Director</v>
+      </c>
+      <c r="N85" s="14">
+        <v>42000</v>
+      </c>
+      <c r="O85" t="s">
+        <v>23</v>
+      </c>
+      <c r="P85" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>24</v>
+      </c>
+      <c r="R85" t="s">
+        <v>106</v>
+      </c>
+      <c r="S85" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="T85" s="1" t="str">
+        <f>TEXT(DATE(RIGHT(S85,4), 1, MID(S85,FIND(",",S85)+2,2)),"mm/dd/yyyy")</f>
+        <v>01/29/2013</v>
+      </c>
+      <c r="U85" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>01/29/2013</v>
+      </c>
+      <c r="V85" s="1">
+        <v>43317</v>
+      </c>
+      <c r="W85" t="s">
+        <v>66</v>
+      </c>
+      <c r="X85" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1016</v>
+      </c>
+      <c r="B86" t="s">
+        <v>142</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="17"/>
+        <v>Pat</v>
+      </c>
+      <c r="D86" t="s">
+        <v>227</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="18"/>
+        <v>Johnson</v>
+      </c>
+      <c r="F86" t="s">
+        <v>268</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="19"/>
+        <v>pat.johnson@company.com</v>
+      </c>
+      <c r="H86" s="16">
+        <v>22</v>
+      </c>
+      <c r="I86" t="s">
+        <v>324</v>
+      </c>
+      <c r="J86" t="s">
+        <v>332</v>
+      </c>
+      <c r="K86" t="s">
+        <v>83</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="20"/>
+        <v>Engineer</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="21"/>
+        <v>Engineer</v>
+      </c>
+      <c r="N86" s="14">
+        <v>68000</v>
+      </c>
+      <c r="O86" t="s">
+        <v>77</v>
+      </c>
+      <c r="P86" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>24</v>
+      </c>
+      <c r="R86" t="s">
+        <v>25</v>
+      </c>
+      <c r="S86" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="T86" s="1" t="str">
+        <f>TEXT(DATE(RIGHT(S86,4), MID(S86,4,2), LEFT(S86,2)), "mm/dd/yyyy")</f>
+        <v>06/17/2019</v>
+      </c>
+      <c r="U86" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>06/17/2019</v>
+      </c>
+      <c r="V86" s="1">
+        <v>44650</v>
+      </c>
+      <c r="W86" t="s">
+        <v>34</v>
+      </c>
+      <c r="X86" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Y86"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="T3" formula="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/questions_and_analysis/employee_dataset.xlsx
+++ b/questions_and_analysis/employee_dataset.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8327" windowHeight="9203" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8327" windowHeight="9203" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="employee_dataset" sheetId="1" r:id="rId1"/>
@@ -17,17 +17,21 @@
     <sheet name="employee_dataset_copy" sheetId="3" r:id="rId3"/>
     <sheet name="clean_dataset" sheetId="4" r:id="rId4"/>
     <sheet name="Logic&amp;C.Formatting" sheetId="5" r:id="rId5"/>
+    <sheet name="Pivot_Tables" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">employee_dataset_copy!$A$1:$Z$86</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Logic&amp;C.Formatting'!$E$1:$R$86</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="27" r:id="rId7"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4990" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5071" uniqueCount="614">
   <si>
     <t>Employee ID</t>
   </si>
@@ -2213,11 +2217,226 @@
         IF(H2="Salesman", "Raise dependent on Sales", "")</t>
     </r>
   </si>
+  <si>
+    <t>3. Summaries &amp; Aggregations with PivotTables</t>
+  </si>
+  <si>
+    <t>Q1: Count total employees per Region, per Job Title, per Home Owner status.</t>
+  </si>
+  <si>
+    <t>Q2: Sum of Salary by Region / Education Level.</t>
+  </si>
+  <si>
+    <t>Q3: Compare Bike Purchase (Y/N) rates across Region.</t>
+  </si>
+  <si>
+    <t>Q4: Average Bike Satisfaction by Marital Status.</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Employee ID</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Count by Job Title</t>
+  </si>
+  <si>
+    <t>Count by Home Status</t>
+  </si>
+  <si>
+    <t>Count by Region</t>
+  </si>
+  <si>
+    <t>Sum of Salary</t>
+  </si>
+  <si>
+    <t>Salary Sum by Education Level</t>
+  </si>
+  <si>
+    <t>Salary Sum by Region</t>
+  </si>
+  <si>
+    <t>Count of Bike Purchase</t>
+  </si>
+  <si>
+    <t>Average of Bike Satisfaction</t>
+  </si>
+  <si>
+    <t>Bike Purchase (Y/N) rates across Region.</t>
+  </si>
+  <si>
+    <t>Average Bike Satisfaction by Marital Status.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Answer: by Region:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Africa 11, Americas 24, Asia 21, Europe 16, Pacific 13
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Answer:  by Home Status:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> N 34, Y 51</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Answer: by Job Title:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Accountant 4, Analyst 12, Clerical 8, Director 21, Engineer 6, HR 10, Manager 4, Professional 3, Receptionist 3, Salesman 8, Skilled Manual 6
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Answer: by Education Level:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Bachelors  $1,674,000.00 , High School  $1,390,000.00 , Masters  $1,472,000.00 , Partial College  $1,549,000.00 , PhD  $1,833,000.00 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Answer: by Region:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Africa  $1,060,000.00 , Americas  $2,103,000.00 , Asia  $2,087,000.00 , Europe  $1,351,000.00 , Pacific  $1,317,000.00 
+  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Answer: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Africa 54.55% 45.45%, Americas 66.67% 33.33%, Asia 47.62% 52.38%, Europe 37.50% 62.50%, Pacific 61.54% 38.46%</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Answer:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Divorced 2.13, Married 2.31, Single 2.24, Widowed 2.00</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2382,7 +2601,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2562,6 +2781,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2724,7 +2949,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2759,6 +2984,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2807,43 +3047,9 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="7">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <fill>
@@ -2873,192 +3079,13 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3114,6 +3141,2356 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dumisani Maxwell Mukuchura" refreshedDate="45771.943088657405" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="85">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:R86" sheet="clean_dataset"/>
+  </cacheSource>
+  <cacheFields count="18">
+    <cacheField name="Employee ID" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1001" maxValue="1085"/>
+    </cacheField>
+    <cacheField name="First Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Last Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Personal Email" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Age" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="21" maxValue="65"/>
+    </cacheField>
+    <cacheField name="Gender" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Marital Status" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Married"/>
+        <s v="Widowed"/>
+        <s v="Divorced"/>
+        <s v="Single"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Job Title" numFmtId="0">
+      <sharedItems count="11">
+        <s v="HR"/>
+        <s v="Analyst"/>
+        <s v="Manager"/>
+        <s v="Engineer"/>
+        <s v="Professional"/>
+        <s v="Salesman"/>
+        <s v="Director"/>
+        <s v="Clerical"/>
+        <s v="Receptionist"/>
+        <s v="Skilled Manual"/>
+        <s v="Accountant"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Salary" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="30000" maxValue="148000"/>
+    </cacheField>
+    <cacheField name="Education Level" numFmtId="0">
+      <sharedItems count="5">
+        <s v="PhD"/>
+        <s v="High School"/>
+        <s v="Bachelors"/>
+        <s v="Masters"/>
+        <s v="Partial College"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Home Owner" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Y"/>
+        <s v="N"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Car Owner" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Commute Distance" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Start Date" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="End Date fixed" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Region" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Pacific"/>
+        <s v="Europe"/>
+        <s v="Asia"/>
+        <s v="Americas"/>
+        <s v="Africa"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Bike Purchase" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Y"/>
+        <s v="N"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Bike Satisfaction" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="5"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="85">
+  <r>
+    <n v="1084"/>
+    <s v="Pat"/>
+    <s v="Smith"/>
+    <s v="pat.smith@gmail.com"/>
+    <n v="61"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="85000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Y"/>
+    <s v="1-2 Miles"/>
+    <s v="02/26/2010"/>
+    <s v="12/08/2017"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="1031"/>
+    <s v="Chris"/>
+    <s v="Williams"/>
+    <s v="chris.williams@live.com"/>
+    <n v="42"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="87000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Y"/>
+    <s v="1-2 Miles"/>
+    <s v="01/18/2000"/>
+    <s v="09/23/2015"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="1057"/>
+    <s v="Chris"/>
+    <s v="Williams"/>
+    <s v="chris.williams@hotmail.com"/>
+    <n v="50"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="145000"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="Y"/>
+    <s v="0-1 Miles"/>
+    <s v="05/26/2002"/>
+    <s v="03/01/2006"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="1025"/>
+    <s v="Jordan"/>
+    <s v="Wilson"/>
+    <s v="jordan.wilson@company.com"/>
+    <n v="49"/>
+    <s v="Female"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="60000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="N"/>
+    <s v="2-5 Miles"/>
+    <s v="01/07/2019"/>
+    <s v="01/24/2023"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1017"/>
+    <s v="John"/>
+    <s v="Brown"/>
+    <s v="john.brown@outlook.com"/>
+    <n v="27"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="147000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="1-2 Miles"/>
+    <s v="07/03/2003"/>
+    <s v="01/11/2023"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="1024"/>
+    <s v="Jane"/>
+    <s v="Williams"/>
+    <s v="jane.williams@gmail.com"/>
+    <n v="48"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="134000"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="N"/>
+    <s v="2-5 Miles"/>
+    <s v="01/08/2011"/>
+    <s v="11/30/2013"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1003"/>
+    <s v="Alex"/>
+    <s v="Brown"/>
+    <s v="alex.brown@gmail.com"/>
+    <n v="45"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="72000"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Y"/>
+    <s v="Over 10 Miles"/>
+    <s v="03/20/2015"/>
+    <s v="Present"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="1028"/>
+    <s v="Taylor"/>
+    <s v="Davis"/>
+    <s v="taylor.davis@company.com"/>
+    <n v="63"/>
+    <s v="Male"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="46000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="0-1 Miles"/>
+    <s v="05/19/2020"/>
+    <s v="05/04/2022"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="1029"/>
+    <s v="Jordan"/>
+    <s v="Brown"/>
+    <s v="jordan.brown@outlook.com"/>
+    <n v="41"/>
+    <s v="Male"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="56000"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="N"/>
+    <s v="2-5 Miles"/>
+    <s v="01/05/2010"/>
+    <s v="06/27/2021"/>
+    <x v="4"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1014"/>
+    <s v="Alex"/>
+    <s v="Miller"/>
+    <s v="alex.miller@company.com"/>
+    <n v="59"/>
+    <s v="Female"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="66000"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="N"/>
+    <s v="5-10 Miles"/>
+    <s v="03/15/2015"/>
+    <s v=""/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="1064"/>
+    <s v="Jordan"/>
+    <s v="Jones"/>
+    <s v="jordan.jones@live.com"/>
+    <n v="33"/>
+    <s v="Female"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="128000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="Over 10 Miles"/>
+    <s v="07/14/2015"/>
+    <s v="08/30/2015"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="1070"/>
+    <s v="Morgan"/>
+    <s v="Johnson"/>
+    <s v="morgan.johnson@live.com"/>
+    <n v="30"/>
+    <s v="Female"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="112000"/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="5-10 Miles"/>
+    <s v="01/15/2011"/>
+    <s v="Present"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1077"/>
+    <s v="Morgan"/>
+    <s v="Miller"/>
+    <s v="morgan.miller@outlook.com"/>
+    <n v="49"/>
+    <s v="Female"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="41000"/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="Y"/>
+    <s v="2-5 Miles"/>
+    <s v="01/23/2015"/>
+    <s v="06/19/2021"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="1015"/>
+    <s v="Taylor"/>
+    <s v="Smith"/>
+    <s v="taylor.smith@gmail.com"/>
+    <n v="37"/>
+    <s v="Male"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="96000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="1-2 Miles"/>
+    <s v="11/06/2003"/>
+    <s v="01/03/2014"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="1001"/>
+    <s v="Casey"/>
+    <s v="Anderson"/>
+    <s v="casey.anderson@hotmail.com"/>
+    <n v="64"/>
+    <s v="Male"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="66000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="2-5 Miles"/>
+    <s v="04/19/2014"/>
+    <s v="08/16/2019"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="1022"/>
+    <s v="Morgan"/>
+    <s v="Taylor"/>
+    <s v="morgan.taylor@company.com"/>
+    <n v="51"/>
+    <s v="Male"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="105000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="N"/>
+    <s v="0-1 Miles"/>
+    <s v="07/15/2003"/>
+    <s v="03/16/2018"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="1004"/>
+    <s v="Jane"/>
+    <s v="Brown"/>
+    <s v="jane.brown@outlook.com"/>
+    <n v="41"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="121000"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Y"/>
+    <s v="2-5 Miles"/>
+    <s v="01/28/2017"/>
+    <s v="01/26/2020"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="1030"/>
+    <s v="Jordan"/>
+    <s v="Taylor"/>
+    <s v="jordan.taylor@company.com"/>
+    <n v="48"/>
+    <s v="Female"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="60000"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="N"/>
+    <s v="5-10 Miles"/>
+    <s v="06/29/2007"/>
+    <s v="12/13/2016"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="1062"/>
+    <s v="Jordan"/>
+    <s v="Brown"/>
+    <s v="jordan.brown@gmail.com"/>
+    <n v="53"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="47000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="2-5 Miles"/>
+    <s v="01/02/2000"/>
+    <s v="01/10/2002"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="1080"/>
+    <s v="Chris"/>
+    <s v="Miller"/>
+    <s v="chris.miller@gmail.com"/>
+    <n v="44"/>
+    <s v="Male"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="54000"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="N"/>
+    <s v="0-1 Miles"/>
+    <s v="09/09/2018"/>
+    <s v="12/17/2020"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="1036"/>
+    <s v="Jane"/>
+    <s v="Jones"/>
+    <s v="jane.jones@company.com"/>
+    <n v="55"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="96000"/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="Y"/>
+    <s v="5-10 Miles"/>
+    <s v="01/08/2011"/>
+    <s v="02/08/2018"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="1012"/>
+    <s v="Alex"/>
+    <s v="Smith"/>
+    <s v="alex.smith@gmail.com"/>
+    <n v="37"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="142000"/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="Y"/>
+    <s v="Over 10 Miles"/>
+    <s v="10/09/2016"/>
+    <s v="02/20/2021"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="1085"/>
+    <s v="Morgan"/>
+    <s v="Miller"/>
+    <s v="morgan.miller@outlook.com"/>
+    <n v="65"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="91000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="N"/>
+    <s v="5-10 Miles"/>
+    <s v="03/28/2003"/>
+    <s v="08/15/2008"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="1045"/>
+    <s v="Casey"/>
+    <s v="Williams"/>
+    <s v="casey.williams@live.com"/>
+    <n v="43"/>
+    <s v="Male"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="115000"/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="0-1 Miles"/>
+    <s v="04/21/2000"/>
+    <s v="06/04/2006"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="1074"/>
+    <s v="Jordan"/>
+    <s v="Smith"/>
+    <s v="jordan.smith@gmail.com"/>
+    <n v="23"/>
+    <s v="Female"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="66000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="0-1 Miles"/>
+    <s v="04/15/2004"/>
+    <s v="12/11/2008"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="1006"/>
+    <s v="Morgan"/>
+    <s v="Wilson"/>
+    <s v="morgan.wilson@company.com"/>
+    <n v="47"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="36000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="2-5 Miles"/>
+    <s v="01/09/2007"/>
+    <s v="01/01/2022"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="1026"/>
+    <s v="Jane"/>
+    <s v="Taylor"/>
+    <s v="jane.taylor@gmail.com"/>
+    <n v="63"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="73000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="1-2 Miles"/>
+    <s v="05/30/2011"/>
+    <s v="01/25/2016"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="1078"/>
+    <s v="Pat"/>
+    <s v="Jones"/>
+    <s v="pat.jones@hotmail.com"/>
+    <n v="41"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="146000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="1-2 Miles"/>
+    <s v="01/07/2012"/>
+    <s v="02/20/2017"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="1075"/>
+    <s v="Taylor"/>
+    <s v="Taylor"/>
+    <s v="taylor.taylor@live.com"/>
+    <n v="28"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="131000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="0-1 Miles"/>
+    <s v="08/01/2018"/>
+    <s v="Present"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="1063"/>
+    <s v="Pat"/>
+    <s v="Williams"/>
+    <s v="pat.williams@outlook.com"/>
+    <n v="31"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="121000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="2-5 Miles"/>
+    <s v="01/19/2018"/>
+    <s v="03/31/2020"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="1066"/>
+    <s v="Jordan"/>
+    <s v="Wilson"/>
+    <s v="jordan.wilson@company.com"/>
+    <n v="55"/>
+    <s v="Male"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="111000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="1-2 Miles"/>
+    <s v="01/10/2005"/>
+    <s v=""/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="1002"/>
+    <s v="Casey"/>
+    <s v="Williams"/>
+    <s v="casey.williams@outlook.com"/>
+    <n v="38"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="111000"/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="Y"/>
+    <s v="1-2 Miles"/>
+    <s v="09/16/2004"/>
+    <s v="01/26/2020"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="1019"/>
+    <s v="Jane"/>
+    <s v="Smith"/>
+    <s v="jane.smith@hotmail.com"/>
+    <n v="31"/>
+    <s v="Female"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="83000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Y"/>
+    <s v="1-2 Miles"/>
+    <s v="01/24/2007"/>
+    <s v="11/04/2010"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="1049"/>
+    <s v="Jamie"/>
+    <s v="Brown"/>
+    <s v="jamie.brown@hotmail.com"/>
+    <n v="58"/>
+    <s v="Female"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="46000"/>
+    <x v="4"/>
+    <x v="1"/>
+    <s v="N"/>
+    <s v="0-1 Miles"/>
+    <s v="07/17/2005"/>
+    <s v="01/02/2023"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="1037"/>
+    <s v="John"/>
+    <s v="Smith"/>
+    <s v="john.smith@outlook.com"/>
+    <n v="31"/>
+    <s v="Female"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="134000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="0-1 Miles"/>
+    <s v="03/01/2008"/>
+    <s v="01/04/2019"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="1079"/>
+    <s v="Pat"/>
+    <s v="Taylor"/>
+    <s v="pat.taylor@hotmail.com"/>
+    <n v="58"/>
+    <s v="Male"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="46000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Y"/>
+    <s v="1-2 Miles"/>
+    <s v="01/23/2019"/>
+    <s v="09/03/2021"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="1007"/>
+    <s v="Jamie"/>
+    <s v="Miller"/>
+    <s v="jamie.miller@hotmail.com"/>
+    <n v="46"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="94000"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="Y"/>
+    <s v="0-1 Miles"/>
+    <s v="03/31/2008"/>
+    <s v="11/11/2008"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1059"/>
+    <s v="Taylor"/>
+    <s v="Davis"/>
+    <s v="taylor.davis@live.com"/>
+    <n v="22"/>
+    <s v="Female"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="79000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="Y"/>
+    <s v="5-10 Miles"/>
+    <s v="01/24/2016"/>
+    <s v="01/24/2021"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1011"/>
+    <s v="Pat"/>
+    <s v="Smith"/>
+    <s v="pat.smith@company.com"/>
+    <n v="64"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="57000"/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="0-1 Miles"/>
+    <s v="01/16/2018"/>
+    <s v="12/15/2023"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="1013"/>
+    <s v="Jamie"/>
+    <s v="Brown"/>
+    <s v="jamie.brown@live.com"/>
+    <n v="35"/>
+    <s v="Female"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="80000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="0-1 Miles"/>
+    <s v="08/22/2004"/>
+    <s v="09/06/2023"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="1054"/>
+    <s v="John"/>
+    <s v="Johnson"/>
+    <s v="john.johnson@outlook.com"/>
+    <n v="27"/>
+    <s v="Female"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="142000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="Y"/>
+    <s v="0-1 Miles"/>
+    <s v="10/29/2005"/>
+    <s v="01/15/2019"/>
+    <x v="4"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1055"/>
+    <s v="Morgan"/>
+    <s v="Williams"/>
+    <s v="morgan.williams@outlook.com"/>
+    <n v="33"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="89000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="Y"/>
+    <s v="Over 10 Miles"/>
+    <s v="06/06/2007"/>
+    <s v="12/06/2011"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="1068"/>
+    <s v="Chris"/>
+    <s v="Miller"/>
+    <s v="chris.miller@outlook.com"/>
+    <n v="55"/>
+    <s v="Male"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="83000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Y"/>
+    <s v="2-5 Miles"/>
+    <s v="05/23/2014"/>
+    <s v="Present"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1033"/>
+    <s v="Chris"/>
+    <s v="Johnson"/>
+    <s v="chris.johnson@company.com"/>
+    <n v="48"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="75000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Y"/>
+    <s v="1-2 Miles"/>
+    <s v="12/20/2016"/>
+    <s v="01/15/2021"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1020"/>
+    <s v="Jamie"/>
+    <s v="Wilson"/>
+    <s v="jamie.wilson@live.com"/>
+    <n v="53"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="34000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Y"/>
+    <s v="1-2 Miles"/>
+    <s v="12/23/2007"/>
+    <s v="09/07/2020"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="1027"/>
+    <s v="Morgan"/>
+    <s v="Brown"/>
+    <s v="morgan.brown@gmail.com"/>
+    <n v="57"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="115000"/>
+    <x v="4"/>
+    <x v="1"/>
+    <s v="Y"/>
+    <s v="2-5 Miles"/>
+    <s v="03/13/2000"/>
+    <s v="10/11/2016"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1061"/>
+    <s v="Jordan"/>
+    <s v="Wilson"/>
+    <s v="jordan.wilson@hotmail.com"/>
+    <n v="45"/>
+    <s v="Female"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="117000"/>
+    <x v="4"/>
+    <x v="1"/>
+    <s v="N"/>
+    <s v="2-5 Miles"/>
+    <s v="09/08/2014"/>
+    <s v="12/29/2014"/>
+    <x v="4"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1056"/>
+    <s v="Taylor"/>
+    <s v="Wilson"/>
+    <s v="taylor.wilson@gmail.com"/>
+    <n v="55"/>
+    <s v="Male"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="117000"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="N"/>
+    <s v="0-1 Miles"/>
+    <s v="05/02/2002"/>
+    <s v="01/13/2018"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="1010"/>
+    <s v="Pat"/>
+    <s v="Williams"/>
+    <s v="pat.williams@company.com"/>
+    <n v="52"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="66000"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Y"/>
+    <s v="5-10 Miles"/>
+    <s v="02/13/2004"/>
+    <s v="06/21/2013"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1018"/>
+    <s v="Jamie"/>
+    <s v="Taylor"/>
+    <s v="jamie.taylor@company.com"/>
+    <n v="42"/>
+    <s v="Male"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="39000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="N"/>
+    <s v="1-2 Miles"/>
+    <s v="05/08/2010"/>
+    <s v="06/10/2021"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="1060"/>
+    <s v="Casey"/>
+    <s v="Taylor"/>
+    <s v="casey.taylor@company.com"/>
+    <n v="45"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="142000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Y"/>
+    <s v="2-5 Miles"/>
+    <s v="05/28/2006"/>
+    <s v="06/09/2021"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1058"/>
+    <s v="Casey"/>
+    <s v="Smith"/>
+    <s v="casey.smith@hotmail.com"/>
+    <n v="55"/>
+    <s v="Male"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="87000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="2-5 Miles"/>
+    <s v="07/14/2017"/>
+    <s v="04/02/2022"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="1042"/>
+    <s v="Alex"/>
+    <s v="Miller"/>
+    <s v="alex.miller@gmail.com"/>
+    <n v="21"/>
+    <s v="Male"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="123000"/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="2-5 Miles"/>
+    <s v="01/04/2020"/>
+    <s v="02/02/2022"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="1065"/>
+    <s v="Chris"/>
+    <s v="Williams"/>
+    <s v="chris.williams@company.com"/>
+    <n v="56"/>
+    <s v="Female"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="108000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Y"/>
+    <s v="1-2 Miles"/>
+    <s v="12/20/2003"/>
+    <s v="01/19/2006"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="1046"/>
+    <s v="Jordan"/>
+    <s v="Taylor"/>
+    <s v="jordan.taylor@live.com"/>
+    <n v="58"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="70000"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="N"/>
+    <s v="Over 10 Miles"/>
+    <s v="10/03/2016"/>
+    <s v="01/23/2021"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1009"/>
+    <s v="Jordan"/>
+    <s v="Williams"/>
+    <s v="jordan.williams@outlook.com"/>
+    <n v="29"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="81000"/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="Y"/>
+    <s v="5-10 Miles"/>
+    <s v="01/26/2017"/>
+    <s v="01/08/2023"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="1072"/>
+    <s v="Jordan"/>
+    <s v="Williams"/>
+    <s v="jordan.williams@outlook.com"/>
+    <n v="27"/>
+    <s v="Female"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="80000"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="Y"/>
+    <s v="1-2 Miles"/>
+    <s v="11/11/2014"/>
+    <s v="09/17/2017"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="1081"/>
+    <s v="John"/>
+    <s v="Jones"/>
+    <s v="john.jones@outlook.com"/>
+    <n v="27"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="120000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="2-5 Miles"/>
+    <s v="09/13/2017"/>
+    <s v="01/05/2023"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="1067"/>
+    <s v="Taylor"/>
+    <s v="Smith"/>
+    <s v="taylor.smith@gmail.com"/>
+    <n v="60"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="130000"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Y"/>
+    <s v="0-1 Miles"/>
+    <s v="01/20/2019"/>
+    <s v="01/25/2020"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1051"/>
+    <s v="Jamie"/>
+    <s v="Williams"/>
+    <s v="jamie.williams@hotmail.com"/>
+    <n v="23"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="73000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="1-2 Miles"/>
+    <s v="01/20/2000"/>
+    <s v="01/09/2015"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="1053"/>
+    <s v="Jane"/>
+    <s v="Anderson"/>
+    <s v="jane.anderson@hotmail.com"/>
+    <n v="27"/>
+    <s v="Male"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="146000"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="N"/>
+    <s v="0-1 Miles"/>
+    <s v="07/29/2014"/>
+    <s v="11/27/2020"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1041"/>
+    <s v="Alex"/>
+    <s v="Miller"/>
+    <s v="alex.miller@hotmail.com"/>
+    <n v="37"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="51000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Y"/>
+    <s v="1-2 Miles"/>
+    <s v="06/07/2019"/>
+    <s v="01/04/2020"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1071"/>
+    <s v="Jordan"/>
+    <s v="Anderson"/>
+    <s v="jordan.anderson@company.com"/>
+    <n v="65"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="56000"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="N"/>
+    <s v="Over 10 Miles"/>
+    <s v="09/02/2004"/>
+    <s v="12/18/2004"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1047"/>
+    <s v="Jamie"/>
+    <s v="Johnson"/>
+    <s v="jamie.johnson@gmail.com"/>
+    <n v="49"/>
+    <s v="Female"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="68000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="Over 10 Miles"/>
+    <s v="08/19/2002"/>
+    <s v="06/21/2010"/>
+    <x v="4"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1069"/>
+    <s v="Morgan"/>
+    <s v="Johnson"/>
+    <s v="morgan.johnson@hotmail.com"/>
+    <n v="24"/>
+    <s v="Male"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="126000"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="N"/>
+    <s v="0-1 Miles"/>
+    <s v="04/08/2005"/>
+    <s v="01/25/2016"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1082"/>
+    <s v="Alex"/>
+    <s v="Davis"/>
+    <s v="alex.davis@company.com"/>
+    <n v="64"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="116000"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="N"/>
+    <s v="2-5 Miles"/>
+    <s v="03/15/2002"/>
+    <s v="04/06/2018"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="1034"/>
+    <s v="John"/>
+    <s v="Johnson"/>
+    <s v="john.johnson@gmail.com"/>
+    <n v="60"/>
+    <s v="Male"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="135000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="N"/>
+    <s v="0-1 Miles"/>
+    <s v="01/02/2006"/>
+    <s v="05/25/2011"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1039"/>
+    <s v="Pat"/>
+    <s v="Williams"/>
+    <s v="pat.williams@hotmail.com"/>
+    <n v="24"/>
+    <s v="Female"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="144000"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="N"/>
+    <s v="Over 10 Miles"/>
+    <s v="01/18/2017"/>
+    <s v="11/08/2018"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1052"/>
+    <s v="Alex"/>
+    <s v="Taylor"/>
+    <s v="alex.taylor@hotmail.com"/>
+    <n v="65"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="65000"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="N"/>
+    <s v="5-10 Miles"/>
+    <s v="01/30/2017"/>
+    <s v=""/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="1043"/>
+    <s v="Alex"/>
+    <s v="Wilson"/>
+    <s v="alex.wilson@gmail.com"/>
+    <n v="63"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="106000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="2-5 Miles"/>
+    <s v="02/21/2001"/>
+    <s v="Present"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="1005"/>
+    <s v="Taylor"/>
+    <s v="Miller"/>
+    <s v="taylor.miller@live.com"/>
+    <n v="25"/>
+    <s v="Male"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="89000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Y"/>
+    <s v="2-5 Miles"/>
+    <s v="10/24/2003"/>
+    <s v="08/07/2010"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1040"/>
+    <s v="Pat"/>
+    <s v="Taylor"/>
+    <s v="pat.taylor@company.com"/>
+    <n v="61"/>
+    <s v="Male"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="91000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="1-2 Miles"/>
+    <s v="04/13/2006"/>
+    <s v="01/31/2019"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="1038"/>
+    <s v="Chris"/>
+    <s v="Taylor"/>
+    <s v="chris.taylor@live.com"/>
+    <n v="52"/>
+    <s v="Female"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="118000"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="0-1 Miles"/>
+    <s v="06/03/2017"/>
+    <s v="01/25/2021"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="1021"/>
+    <s v="Alex"/>
+    <s v="Brown"/>
+    <s v="alex.brown@gmail.com"/>
+    <n v="34"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="148000"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="Y"/>
+    <s v="1-2 Miles"/>
+    <s v="03/30/2012"/>
+    <s v="03/18/2022"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1032"/>
+    <s v="Casey"/>
+    <s v="Brown"/>
+    <s v="casey.brown@outlook.com"/>
+    <n v="25"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="148000"/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="Y"/>
+    <s v="0-1 Miles"/>
+    <s v="04/05/2014"/>
+    <s v="03/29/2015"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="1048"/>
+    <s v="Alex"/>
+    <s v="Wilson"/>
+    <s v="alex.wilson@gmail.com"/>
+    <n v="64"/>
+    <s v="Female"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="109000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Y"/>
+    <s v="1-2 Miles"/>
+    <s v="06/29/2008"/>
+    <s v="01/20/2018"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="1050"/>
+    <s v="John"/>
+    <s v="Miller"/>
+    <s v="john.miller@hotmail.com"/>
+    <n v="48"/>
+    <s v="Male"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="52000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Y"/>
+    <s v="0-1 Miles"/>
+    <s v="02/09/2018"/>
+    <s v="01/23/2022"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1035"/>
+    <s v="Alex"/>
+    <s v="Davis"/>
+    <s v="alex.davis@company.com"/>
+    <n v="61"/>
+    <s v="Female"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="139000"/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="Y"/>
+    <s v="1-2 Miles"/>
+    <s v="07/18/2002"/>
+    <s v="05/31/2005"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1008"/>
+    <s v="Jordan"/>
+    <s v="Davis"/>
+    <s v="jordan.davis@live.com"/>
+    <n v="27"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="106000"/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="1-2 Miles"/>
+    <s v="04/23/2020"/>
+    <s v="09/10/2023"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1076"/>
+    <s v="Chris"/>
+    <s v="Jones"/>
+    <s v="chris.jones@company.com"/>
+    <n v="57"/>
+    <s v="Male"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="128000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="1-2 Miles"/>
+    <s v="06/29/2012"/>
+    <s v="01/16/2014"/>
+    <x v="4"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1083"/>
+    <s v="Taylor"/>
+    <s v="Jones"/>
+    <s v="taylor.jones@outlook.com"/>
+    <n v="42"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="30000"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Y"/>
+    <s v="2-5 Miles"/>
+    <s v="11/19/2005"/>
+    <s v=""/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1044"/>
+    <s v="Pat"/>
+    <s v="Miller"/>
+    <s v="pat.miller@hotmail.com"/>
+    <n v="35"/>
+    <s v="Male"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="65000"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="Y"/>
+    <s v="2-5 Miles"/>
+    <s v="12/22/2015"/>
+    <s v=""/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="N/A"/>
+  </r>
+  <r>
+    <n v="1023"/>
+    <s v="Jamie"/>
+    <s v="Wilson"/>
+    <s v="jamie.wilson@outlook.com"/>
+    <n v="36"/>
+    <s v="Male"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="95000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="N"/>
+    <s v="1-2 Miles"/>
+    <s v="04/16/2016"/>
+    <s v="09/06/2016"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="1073"/>
+    <s v="Pat"/>
+    <s v="Williams"/>
+    <s v="pat.williams@hotmail.com"/>
+    <n v="27"/>
+    <s v="Female"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="42000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Y"/>
+    <s v="2-5 Miles"/>
+    <s v="01/29/2013"/>
+    <s v="08/05/2018"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="1016"/>
+    <s v="Pat"/>
+    <s v="Johnson"/>
+    <s v="pat.johnson@company.com"/>
+    <n v="22"/>
+    <s v="Male"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="68000"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="Y"/>
+    <s v="1-2 Miles"/>
+    <s v="06/17/2019"/>
+    <s v="03/30/2022"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H29:I34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Bike Satisfaction" fld="17" subtotal="average" baseField="6" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A29:D36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="15"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="16"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Bike Purchase" fld="16" subtotal="count" showDataAs="percentOfRow" baseField="15" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E19:F25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="15"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Salary" fld="8" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A19:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Salary" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="6">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="9" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I3:J9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="15"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Employee ID" fld="0" subtotal="count" baseField="15" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E3:F6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Employee ID" fld="0" subtotal="count" baseField="0" baseItem="1171936"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item sd="0" x="10"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Employee ID" fld="0" subtotal="count" baseField="0" baseItem="1171936"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8933,10 +11310,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:U71"/>
+  <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9940,6 +12317,72 @@
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>587</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="19" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="19" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="19"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="19" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="19" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="19"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="28" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="28" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -17852,8 +20295,8 @@
   </sheetPr>
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -17919,7 +20362,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>349</v>
+        <v>13</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>351</v>
@@ -17931,7 +20374,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>354</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -22707,7 +25150,7 @@
   </sheetPr>
   <dimension ref="A1:AD87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="AG24" sqref="AG24"/>
     </sheetView>
   </sheetViews>
@@ -28285,10 +30728,10 @@
   </sheetData>
   <autoFilter ref="E1:R86"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="top10" dxfId="6" priority="8" rank="10"/>
+    <cfRule type="top10" dxfId="3" priority="8" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="top10" dxfId="5" priority="7" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="2" priority="7" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
     <cfRule type="dataBar" priority="2">
@@ -28305,7 +30748,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>YEAR(N2) &gt;= 2015</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28330,4 +30773,482 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A2:J36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30:I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="3.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" customWidth="1"/>
+    <col min="11" max="15" width="5.77734375" customWidth="1"/>
+    <col min="16" max="16" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="E2" s="23" t="s">
+        <v>598</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="I2" s="23" t="s">
+        <v>599</v>
+      </c>
+      <c r="J2" s="24"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="F3" t="s">
+        <v>595</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="J3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="B4" s="22">
+        <v>4</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="22">
+        <v>34</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="22">
+        <v>12</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="22">
+        <v>51</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="22">
+        <v>8</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="F6" s="22">
+        <v>85</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="22">
+        <v>21</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="22">
+        <v>6</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="22">
+        <v>10</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="J9" s="22">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B14" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="B15" s="22">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
+        <v>601</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="E18" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="B19" t="s">
+        <v>600</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="F19" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="27">
+        <v>1674000</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="27">
+        <v>1060000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="27">
+        <v>1390000</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="27">
+        <v>2103000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="27">
+        <v>1472000</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="27">
+        <v>2087000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="27">
+        <v>1549000</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="27">
+        <v>1351000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="27">
+        <v>1833000</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="27">
+        <v>1317000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="B25" s="27">
+        <v>7918000</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="F25" s="27">
+        <v>7918000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="23" t="s">
+        <v>605</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="H28" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="I29" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>594</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="I30" s="7">
+        <v>2.125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="26">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="C31" s="26">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="D31" s="26">
+        <v>1</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2.3076923076923075</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="26">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C32" s="26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D32" s="26">
+        <v>1</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2.2380952380952381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="26">
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="C33" s="26">
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="D33" s="26">
+        <v>1</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="I33" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="C34" s="26">
+        <v>0.625</v>
+      </c>
+      <c r="D34" s="26">
+        <v>1</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="I34" s="22">
+        <v>2.1818181818181817</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="26">
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="C35" s="26">
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="D35" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="B36" s="26">
+        <v>0.54117647058823526</v>
+      </c>
+      <c r="C36" s="26">
+        <v>0.45882352941176469</v>
+      </c>
+      <c r="D36" s="26">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/questions_and_analysis/employee_dataset.xlsx
+++ b/questions_and_analysis/employee_dataset.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8327" windowHeight="9203" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8327" windowHeight="9203" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="employee_dataset" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="clean_dataset" sheetId="4" r:id="rId4"/>
     <sheet name="Logic&amp;C.Formatting" sheetId="5" r:id="rId5"/>
     <sheet name="Pivot_Tables" sheetId="6" r:id="rId6"/>
+    <sheet name="Formulars&amp;Functions" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">employee_dataset_copy!$A$1:$Z$86</definedName>
@@ -25,13 +26,13 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="27" r:id="rId7"/>
+    <pivotCache cacheId="27" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5071" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6382" uniqueCount="660">
   <si>
     <t>Employee ID</t>
   </si>
@@ -2429,13 +2430,342 @@
       <t xml:space="preserve"> Divorced 2.13, Married 2.31, Single 2.24, Widowed 2.00</t>
     </r>
   </si>
+  <si>
+    <t>4. Formulas &amp; Functions</t>
+  </si>
+  <si>
+    <t>Q1: Statistical: MAX, MIN, AVERAGE, MEDIAN on Age, Salary, Satisfaction.</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>MEDIAN</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>Satisfaction</t>
+  </si>
+  <si>
+    <t>Q2: Counting: COUNT, COUNTA, COUNTIF, COUNTIFS for genders, regions, bike purchasers.</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>COUNTA</t>
+  </si>
+  <si>
+    <t>Bike Purchases</t>
+  </si>
+  <si>
+    <t>How many female employees purchased bikes?</t>
+  </si>
+  <si>
+    <t>How many male employees do not own a car?</t>
+  </si>
+  <si>
+    <t>How many married employees live in the Africa region?</t>
+  </si>
+  <si>
+    <t>How many employees who own a home also own a bike?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Answer: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, used </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">=COUNTIFS(F2:F100, "Female", Q2:Q100, "Y") </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Answer:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 24, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>used</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> =COUNTIFS(F2:F86, "Male", L2:L86, "N")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Answer: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, used </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>=COUNTIFS(G2:G86, "Married", P2:P86, "Africa")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Answer: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, used </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>=COUNTIFS(K2:K86, "Y", Q2:Q86, "Y")</t>
+    </r>
+  </si>
+  <si>
+    <t>Total Salary of All Employees</t>
+  </si>
+  <si>
+    <t>Total Salary of Female Employees</t>
+  </si>
+  <si>
+    <t>Total Salary of Employees Who Own Both a House and a Car</t>
+  </si>
+  <si>
+    <t>Total Salary of Single Male Employees</t>
+  </si>
+  <si>
+    <t>Used = SUM(I2:I86)</t>
+  </si>
+  <si>
+    <t>Used = SUMIF(F2:F86, "Female", I2:I86)</t>
+  </si>
+  <si>
+    <t>Used =COUNT()</t>
+  </si>
+  <si>
+    <t>Used = COUNTA()</t>
+  </si>
+  <si>
+    <t>Used = SUMIFS(I2:I86, G2:G86, "Single", F2:F86, "Male")</t>
+  </si>
+  <si>
+    <t>Used = SUMIFS(I2:I86, K2:K86, "Y", L2:L86, "Y")</t>
+  </si>
+  <si>
+    <t>Task 2: Create a Work Email Account using Firest Name + . + Last Name + @ + cyclesillicon.com</t>
+  </si>
+  <si>
+    <t>Task 1: Create a new column with Full Name = First Name + Last Name</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Work Email</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Used </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>=CONCATENATE(B2, " ", C2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Used </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>=LOWER(CONCATENATE(B2,".",C2, "@cyclesillicon.com"))</t>
+    </r>
+  </si>
+  <si>
+    <t>Q3: Math &amp; Aggregation: SUM, SUMIF, SUMIFS for salaries by criteria. CONCATENATE (or &amp;) to combine First Name + Last Name into Full Name.</t>
+  </si>
+  <si>
+    <t>NETWORKDAYS to compute tenure days between Start Date and End Date.</t>
+  </si>
+  <si>
+    <t>Q4: Text &amp; Date Helpers:</t>
+  </si>
+  <si>
+    <t>LEN of work email username, LEFT/RIGHT to extract domain.</t>
+  </si>
+  <si>
+    <t>Length of Work Email Username</t>
+  </si>
+  <si>
+    <t>Total Number of Days inclusive of weekends</t>
+  </si>
+  <si>
+    <t>Total Number of Work Days excluding Weekends + Holidays</t>
+  </si>
+  <si>
+    <t>WORKING DAYS between Start and End Date including Weekends + Holidays</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Used: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>=IF(OR(O2="", ISBLANK(O2)), "Missing End Date", IF(UPPER(O2)="PRESENT", TODAY()-N2, O2-N2))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Used:  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>=IF(OR(O2="", ISBLANK(O2)), "Missing End Date", IF(UPPER(O2)="PRESENT", NETWORKDAYS(N2, TODAY()), NETWORKDAYS(N2, O2)))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Used: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>=LEN(T2)-(LEN(RIGHT(T2,17)))</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -2904,7 +3234,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2948,8 +3278,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3001,8 +3332,14 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -3030,6 +3367,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="43" builtinId="4"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -3048,9 +3386,6 @@
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3077,6 +3412,9 @@
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -5010,7 +5348,7 @@
     <dataField name="Average of Bike Satisfaction" fld="17" subtotal="average" baseField="6" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
@@ -11310,16 +11648,19 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:U87"/>
+  <dimension ref="A1:U138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="F161" sqref="F161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.77734375" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -12357,32 +12698,328 @@
         <v>610</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="28" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="28" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>613</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B92" s="31">
+        <v>65</v>
+      </c>
+      <c r="C92" s="29">
+        <v>148000</v>
+      </c>
+      <c r="D92" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B93" s="31">
+        <v>44.329411764705881</v>
+      </c>
+      <c r="C93" s="29">
+        <v>93152.941176470587</v>
+      </c>
+      <c r="D93" s="30">
+        <v>2.1818181818181817</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B94" s="31">
+        <v>45</v>
+      </c>
+      <c r="C94" s="29">
+        <v>91000</v>
+      </c>
+      <c r="D94" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B95" s="31">
+        <v>21</v>
+      </c>
+      <c r="C95" s="29">
+        <v>30000</v>
+      </c>
+      <c r="D95" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0</v>
+      </c>
+      <c r="C99" s="2">
+        <v>0</v>
+      </c>
+      <c r="D99" s="2">
+        <v>0</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B100" s="2">
+        <v>85</v>
+      </c>
+      <c r="C100" s="2">
+        <v>85</v>
+      </c>
+      <c r="D100" s="2">
+        <v>85</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="29">
+        <v>7918000</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="29"/>
+      <c r="B113" s="3"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="29">
+        <v>4256000</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="29"/>
+      <c r="B116" s="3"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="29">
+        <v>1536000</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="29"/>
+      <c r="B119" s="3"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="29">
+        <v>1982000</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="29"/>
+      <c r="B122" s="3"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="19" t="s">
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -30728,10 +31365,10 @@
   </sheetData>
   <autoFilter ref="E1:R86"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="top10" dxfId="3" priority="8" rank="10"/>
+    <cfRule type="top10" dxfId="2" priority="8" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="top10" dxfId="2" priority="7" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="1" priority="7" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
     <cfRule type="dataBar" priority="2">
@@ -30748,7 +31385,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>YEAR(N2) &gt;= 2015</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31251,4 +31888,6835 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:AG86"/>
+  <sheetViews>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Y24" sqref="Y24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.44140625" customWidth="1"/>
+    <col min="22" max="22" width="23.33203125" customWidth="1"/>
+    <col min="23" max="24" width="32.6640625" customWidth="1"/>
+    <col min="25" max="25" width="15.5546875" customWidth="1"/>
+    <col min="27" max="27" width="15.88671875" customWidth="1"/>
+    <col min="28" max="28" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" s="4" customFormat="1" ht="27.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="U1" s="32" t="s">
+        <v>653</v>
+      </c>
+      <c r="V1" s="32" t="s">
+        <v>654</v>
+      </c>
+      <c r="W1" s="32" t="s">
+        <v>655</v>
+      </c>
+      <c r="X1" s="32"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1084</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2">
+        <v>85000</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>404</v>
+      </c>
+      <c r="O2" t="s">
+        <v>488</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2" t="str">
+        <f>CONCATENATE(B2, " ", C2)</f>
+        <v>Pat Smith</v>
+      </c>
+      <c r="T2" t="str">
+        <f>LOWER(CONCATENATE(B2,".",C2, "@cyclesillicon.com"))</f>
+        <v>pat.smith@cyclesillicon.com</v>
+      </c>
+      <c r="U2">
+        <f>LEN(T2)-(LEN(RIGHT(T2,17)))</f>
+        <v>10</v>
+      </c>
+      <c r="V2">
+        <f ca="1">IF(OR(O2="", ISBLANK(O2)), "Missing End Date",
+ IF(UPPER(O2)="PRESENT", TODAY()-N2, O2-N2))</f>
+        <v>2842</v>
+      </c>
+      <c r="W2">
+        <f ca="1">IF(OR(O2="", ISBLANK(O2)), "Missing End Date",
+ IF(UPPER(O2)="PRESENT", NETWORKDAYS(N2, TODAY()), NETWORKDAYS(N2, O2)))</f>
+        <v>2031</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1031</v>
+      </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3">
+        <v>87000</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>405</v>
+      </c>
+      <c r="O3" t="s">
+        <v>489</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3" t="str">
+        <f t="shared" ref="S3:S66" si="0">CONCATENATE(B3, " ", C3)</f>
+        <v>Chris Williams</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" ref="T3:T66" si="1">LOWER(CONCATENATE(B3,".",C3, "@cyclesillicon.com"))</f>
+        <v>chris.williams@cyclesillicon.com</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U66" si="2">LEN(T3)-(LEN(RIGHT(T3,17)))</f>
+        <v>15</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V66" ca="1" si="3">IF(OR(O3="", ISBLANK(O3)), "Missing End Date",
+ IF(UPPER(O3)="PRESENT", TODAY()-N3, O3-N3))</f>
+        <v>5727</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W66" ca="1" si="4">IF(OR(O3="", ISBLANK(O3)), "Missing End Date",
+ IF(UPPER(O3)="PRESENT", NETWORKDAYS(N3, TODAY()), NETWORKDAYS(N3, O3)))</f>
+        <v>4092</v>
+      </c>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1057</v>
+      </c>
+      <c r="B4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G4" t="s">
+        <v>331</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4">
+        <v>145000</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" t="s">
+        <v>406</v>
+      </c>
+      <c r="O4" t="s">
+        <v>490</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" si="0"/>
+        <v>Chris Williams</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" si="1"/>
+        <v>chris.williams@cyclesillicon.com</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1375</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ca="1" si="4"/>
+        <v>983</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="Z4" s="31">
+        <f>MAX('Formulars&amp;Functions'!E2:E86)</f>
+        <v>65</v>
+      </c>
+      <c r="AA4" s="29">
+        <f>MAX('Formulars&amp;Functions'!I2:I86)</f>
+        <v>148000</v>
+      </c>
+      <c r="AB4" s="31">
+        <f>MAX('Formulars&amp;Functions'!R2:R86)</f>
+        <v>5</v>
+      </c>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1025</v>
+      </c>
+      <c r="B5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E5">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G5" t="s">
+        <v>332</v>
+      </c>
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5">
+        <v>60000</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N5" t="s">
+        <v>407</v>
+      </c>
+      <c r="O5" t="s">
+        <v>491</v>
+      </c>
+      <c r="P5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" t="s">
+        <v>561</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="0"/>
+        <v>Jordan Wilson</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="1"/>
+        <v>jordan.wilson@cyclesillicon.com</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ca="1" si="3"/>
+        <v>1478</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ca="1" si="4"/>
+        <v>1057</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="Z5" s="31">
+        <f>AVERAGE('Formulars&amp;Functions'!E2:E86)</f>
+        <v>44.329411764705881</v>
+      </c>
+      <c r="AA5" s="29">
+        <f>AVERAGE('Formulars&amp;Functions'!I2:I86)</f>
+        <v>93152.941176470587</v>
+      </c>
+      <c r="AB5" s="31">
+        <f>AVERAGE('Formulars&amp;Functions'!R2:R86)</f>
+        <v>2.1818181818181817</v>
+      </c>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1017</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G6" t="s">
+        <v>331</v>
+      </c>
+      <c r="H6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6">
+        <v>147000</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>408</v>
+      </c>
+      <c r="O6" t="s">
+        <v>492</v>
+      </c>
+      <c r="P6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="0"/>
+        <v>John Brown</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="1"/>
+        <v>john.brown@cyclesillicon.com</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ca="1" si="3"/>
+        <v>7132</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ca="1" si="4"/>
+        <v>5095</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="Z6" s="31">
+        <f>MEDIAN('Formulars&amp;Functions'!E2:E86)</f>
+        <v>45</v>
+      </c>
+      <c r="AA6" s="29">
+        <f>MEDIAN('Formulars&amp;Functions'!I2:I86)</f>
+        <v>91000</v>
+      </c>
+      <c r="AB6" s="31">
+        <f>MEDIAN('Formulars&amp;Functions'!R2:R86)</f>
+        <v>2</v>
+      </c>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1024</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7">
+        <v>134000</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" t="s">
+        <v>106</v>
+      </c>
+      <c r="N7" t="s">
+        <v>409</v>
+      </c>
+      <c r="O7" t="s">
+        <v>493</v>
+      </c>
+      <c r="P7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" t="s">
+        <v>561</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="0"/>
+        <v>Jane Williams</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="1"/>
+        <v>jane.williams@cyclesillicon.com</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="V7">
+        <f t="shared" ca="1" si="3"/>
+        <v>1057</v>
+      </c>
+      <c r="W7">
+        <f t="shared" ca="1" si="4"/>
+        <v>755</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="Z7" s="31">
+        <f>MIN('Formulars&amp;Functions'!E2:E86)</f>
+        <v>21</v>
+      </c>
+      <c r="AA7" s="29">
+        <f>MIN('Formulars&amp;Functions'!I2:I86)</f>
+        <v>30000</v>
+      </c>
+      <c r="AB7" s="31">
+        <f>MIN('Formulars&amp;Functions'!R2:R86)</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1003</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G8" t="s">
+        <v>330</v>
+      </c>
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8">
+        <v>72000</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" t="s">
+        <v>342</v>
+      </c>
+      <c r="N8" t="s">
+        <v>410</v>
+      </c>
+      <c r="O8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="0"/>
+        <v>Alex Brown</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="1"/>
+        <v>alex.brown@cyclesillicon.com</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="V8">
+        <f t="shared" ca="1" si="3"/>
+        <v>3689</v>
+      </c>
+      <c r="W8">
+        <f t="shared" ca="1" si="4"/>
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1028</v>
+      </c>
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>360</v>
+      </c>
+      <c r="E9">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>324</v>
+      </c>
+      <c r="G9" t="s">
+        <v>333</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9">
+        <v>46000</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" t="s">
+        <v>411</v>
+      </c>
+      <c r="O9" t="s">
+        <v>494</v>
+      </c>
+      <c r="P9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="0"/>
+        <v>Taylor Davis</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="1"/>
+        <v>taylor.davis@cyclesillicon.com</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="V9">
+        <f t="shared" ca="1" si="3"/>
+        <v>715</v>
+      </c>
+      <c r="W9">
+        <f t="shared" ca="1" si="4"/>
+        <v>512</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1029</v>
+      </c>
+      <c r="B10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>324</v>
+      </c>
+      <c r="G10" t="s">
+        <v>333</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10">
+        <v>56000</v>
+      </c>
+      <c r="J10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N10" t="s">
+        <v>412</v>
+      </c>
+      <c r="O10" t="s">
+        <v>495</v>
+      </c>
+      <c r="P10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" t="s">
+        <v>561</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="0"/>
+        <v>Jordan Brown</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="1"/>
+        <v>jordan.brown@cyclesillicon.com</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="V10">
+        <f t="shared" ca="1" si="3"/>
+        <v>4191</v>
+      </c>
+      <c r="W10">
+        <f t="shared" ca="1" si="4"/>
+        <v>2994</v>
+      </c>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1014</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E11">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G11" t="s">
+        <v>333</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11">
+        <v>66000</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" t="s">
+        <v>413</v>
+      </c>
+      <c r="O11" t="s">
+        <v>496</v>
+      </c>
+      <c r="P11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="0"/>
+        <v>Alex Miller</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="1"/>
+        <v>alex.miller@cyclesillicon.com</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Missing End Date</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Missing End Date</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="Z11" s="2">
+        <f>COUNT(F2:F86)</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2">
+        <f>COUNT(P2:P86)</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2">
+        <f>COUNT(Q2:Q86)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1064</v>
+      </c>
+      <c r="B12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" t="s">
+        <v>362</v>
+      </c>
+      <c r="E12">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>325</v>
+      </c>
+      <c r="G12" t="s">
+        <v>333</v>
+      </c>
+      <c r="H12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12">
+        <v>128000</v>
+      </c>
+      <c r="J12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" t="s">
+        <v>342</v>
+      </c>
+      <c r="N12" t="s">
+        <v>414</v>
+      </c>
+      <c r="O12" t="s">
+        <v>497</v>
+      </c>
+      <c r="P12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="0"/>
+        <v>Jordan Jones</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="1"/>
+        <v>jordan.jones@cyclesillicon.com</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="V12">
+        <f t="shared" ca="1" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="W12">
+        <f t="shared" ca="1" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="Z12" s="2">
+        <f>COUNTA(F2:F86)</f>
+        <v>85</v>
+      </c>
+      <c r="AA12" s="2">
+        <f>COUNTA(P2:P86)</f>
+        <v>85</v>
+      </c>
+      <c r="AB12" s="2">
+        <f>COUNTA(Q2:Q86)</f>
+        <v>85</v>
+      </c>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1070</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>325</v>
+      </c>
+      <c r="G13" t="s">
+        <v>333</v>
+      </c>
+      <c r="H13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13">
+        <v>112000</v>
+      </c>
+      <c r="J13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" t="s">
+        <v>415</v>
+      </c>
+      <c r="O13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" t="s">
+        <v>561</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="0"/>
+        <v>Morgan Johnson</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="1"/>
+        <v>morgan.johnson@cyclesillicon.com</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="V13">
+        <f t="shared" ca="1" si="3"/>
+        <v>5214</v>
+      </c>
+      <c r="W13">
+        <f t="shared" ca="1" si="4"/>
+        <v>3725</v>
+      </c>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1077</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" t="s">
+        <v>363</v>
+      </c>
+      <c r="E14">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G14" t="s">
+        <v>332</v>
+      </c>
+      <c r="H14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14">
+        <v>41000</v>
+      </c>
+      <c r="J14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" t="s">
+        <v>106</v>
+      </c>
+      <c r="N14" t="s">
+        <v>416</v>
+      </c>
+      <c r="O14" t="s">
+        <v>498</v>
+      </c>
+      <c r="P14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="0"/>
+        <v>Morgan Miller</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="1"/>
+        <v>morgan.miller@cyclesillicon.com</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="V14">
+        <f t="shared" ca="1" si="3"/>
+        <v>2339</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ca="1" si="4"/>
+        <v>1671</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1015</v>
+      </c>
+      <c r="B15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>324</v>
+      </c>
+      <c r="G15" t="s">
+        <v>332</v>
+      </c>
+      <c r="H15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15">
+        <v>96000</v>
+      </c>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" t="s">
+        <v>417</v>
+      </c>
+      <c r="O15" t="s">
+        <v>499</v>
+      </c>
+      <c r="P15" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>40</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="0"/>
+        <v>Taylor Smith</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="1"/>
+        <v>taylor.smith@cyclesillicon.com</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="V15">
+        <f t="shared" ca="1" si="3"/>
+        <v>3711</v>
+      </c>
+      <c r="W15">
+        <f t="shared" ca="1" si="4"/>
+        <v>2652</v>
+      </c>
+      <c r="Y15" s="3">
+        <f>COUNTIFS(F2:F100, "Female", Q2:Q100, "Y")</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1001</v>
+      </c>
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16">
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
+        <v>324</v>
+      </c>
+      <c r="G16" t="s">
+        <v>333</v>
+      </c>
+      <c r="H16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16">
+        <v>66000</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" t="s">
+        <v>106</v>
+      </c>
+      <c r="N16" t="s">
+        <v>418</v>
+      </c>
+      <c r="O16" t="s">
+        <v>500</v>
+      </c>
+      <c r="P16" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="0"/>
+        <v>Casey Anderson</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="1"/>
+        <v>casey.anderson@cyclesillicon.com</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="V16">
+        <f t="shared" ca="1" si="3"/>
+        <v>1945</v>
+      </c>
+      <c r="W16">
+        <f t="shared" ca="1" si="4"/>
+        <v>1390</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1022</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" t="s">
+        <v>364</v>
+      </c>
+      <c r="E17">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>324</v>
+      </c>
+      <c r="G17" t="s">
+        <v>332</v>
+      </c>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17">
+        <v>105000</v>
+      </c>
+      <c r="J17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17" t="s">
+        <v>419</v>
+      </c>
+      <c r="O17" t="s">
+        <v>501</v>
+      </c>
+      <c r="P17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="0"/>
+        <v>Morgan Taylor</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="1"/>
+        <v>morgan.taylor@cyclesillicon.com</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="V17">
+        <f t="shared" ca="1" si="3"/>
+        <v>5358</v>
+      </c>
+      <c r="W17">
+        <f t="shared" ca="1" si="4"/>
+        <v>3829</v>
+      </c>
+      <c r="Y17" s="3">
+        <f>COUNTIFS(F2:F86, "Male", L2:L86, "N")</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1004</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>324</v>
+      </c>
+      <c r="G18" t="s">
+        <v>331</v>
+      </c>
+      <c r="H18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18">
+        <v>121000</v>
+      </c>
+      <c r="J18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18" t="s">
+        <v>420</v>
+      </c>
+      <c r="O18" t="s">
+        <v>502</v>
+      </c>
+      <c r="P18" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="0"/>
+        <v>Jane Brown</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="1"/>
+        <v>jane.brown@cyclesillicon.com</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="V18">
+        <f t="shared" ca="1" si="3"/>
+        <v>1093</v>
+      </c>
+      <c r="W18">
+        <f t="shared" ca="1" si="4"/>
+        <v>780</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1030</v>
+      </c>
+      <c r="B19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>325</v>
+      </c>
+      <c r="G19" t="s">
+        <v>333</v>
+      </c>
+      <c r="H19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19">
+        <v>60000</v>
+      </c>
+      <c r="J19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" t="s">
+        <v>84</v>
+      </c>
+      <c r="N19" t="s">
+        <v>421</v>
+      </c>
+      <c r="O19" t="s">
+        <v>503</v>
+      </c>
+      <c r="P19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="0"/>
+        <v>Jordan Taylor</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="1"/>
+        <v>jordan.taylor@cyclesillicon.com</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="V19">
+        <f t="shared" ca="1" si="3"/>
+        <v>3455</v>
+      </c>
+      <c r="W19">
+        <f t="shared" ca="1" si="4"/>
+        <v>2468</v>
+      </c>
+      <c r="Y19" s="3">
+        <f>COUNTIFS(G2:G86, "Married", P2:P86, "Africa")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1062</v>
+      </c>
+      <c r="B20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G20" t="s">
+        <v>331</v>
+      </c>
+      <c r="H20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20">
+        <v>47000</v>
+      </c>
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" t="s">
+        <v>106</v>
+      </c>
+      <c r="N20" t="s">
+        <v>422</v>
+      </c>
+      <c r="O20" t="s">
+        <v>504</v>
+      </c>
+      <c r="P20" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="0"/>
+        <v>Jordan Brown</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="1"/>
+        <v>jordan.brown@cyclesillicon.com</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="V20">
+        <f t="shared" ca="1" si="3"/>
+        <v>739</v>
+      </c>
+      <c r="W20">
+        <f t="shared" ca="1" si="4"/>
+        <v>529</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1080</v>
+      </c>
+      <c r="B21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" t="s">
+        <v>365</v>
+      </c>
+      <c r="E21">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>324</v>
+      </c>
+      <c r="G21" t="s">
+        <v>333</v>
+      </c>
+      <c r="H21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21">
+        <v>54000</v>
+      </c>
+      <c r="J21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" t="s">
+        <v>71</v>
+      </c>
+      <c r="N21" t="s">
+        <v>423</v>
+      </c>
+      <c r="O21" t="s">
+        <v>505</v>
+      </c>
+      <c r="P21" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>40</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="0"/>
+        <v>Chris Miller</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="1"/>
+        <v>chris.miller@cyclesillicon.com</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="V21">
+        <f t="shared" ca="1" si="3"/>
+        <v>830</v>
+      </c>
+      <c r="W21">
+        <f t="shared" ca="1" si="4"/>
+        <v>594</v>
+      </c>
+      <c r="Y21" s="3">
+        <f>COUNTIFS(K2:K86, "Y", Q2:Q86, "Y")</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1036</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22">
+        <v>55</v>
+      </c>
+      <c r="F22" t="s">
+        <v>325</v>
+      </c>
+      <c r="G22" t="s">
+        <v>330</v>
+      </c>
+      <c r="H22" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22">
+        <v>96000</v>
+      </c>
+      <c r="J22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" t="s">
+        <v>84</v>
+      </c>
+      <c r="N22" t="s">
+        <v>409</v>
+      </c>
+      <c r="O22" t="s">
+        <v>506</v>
+      </c>
+      <c r="P22" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="0"/>
+        <v>Jane Jones</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="1"/>
+        <v>jane.jones@cyclesillicon.com</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="V22">
+        <f t="shared" ca="1" si="3"/>
+        <v>2588</v>
+      </c>
+      <c r="W22">
+        <f t="shared" ca="1" si="4"/>
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1012</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" t="s">
+        <v>366</v>
+      </c>
+      <c r="E23">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>324</v>
+      </c>
+      <c r="G23" t="s">
+        <v>330</v>
+      </c>
+      <c r="H23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23">
+        <v>142000</v>
+      </c>
+      <c r="J23" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" t="s">
+        <v>342</v>
+      </c>
+      <c r="N23" t="s">
+        <v>424</v>
+      </c>
+      <c r="O23" t="s">
+        <v>507</v>
+      </c>
+      <c r="P23" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>40</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="0"/>
+        <v>Alex Smith</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="1"/>
+        <v>alex.smith@cyclesillicon.com</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="V23">
+        <f t="shared" ca="1" si="3"/>
+        <v>1595</v>
+      </c>
+      <c r="W23">
+        <f t="shared" ca="1" si="4"/>
+        <v>1140</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1085</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" t="s">
+        <v>363</v>
+      </c>
+      <c r="E24">
+        <v>65</v>
+      </c>
+      <c r="F24" t="s">
+        <v>325</v>
+      </c>
+      <c r="G24" t="s">
+        <v>331</v>
+      </c>
+      <c r="H24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24">
+        <v>91000</v>
+      </c>
+      <c r="J24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" t="s">
+        <v>84</v>
+      </c>
+      <c r="N24" t="s">
+        <v>425</v>
+      </c>
+      <c r="O24" t="s">
+        <v>508</v>
+      </c>
+      <c r="P24" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="0"/>
+        <v>Morgan Miller</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="1"/>
+        <v>morgan.miller@cyclesillicon.com</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="V24">
+        <f t="shared" ca="1" si="3"/>
+        <v>1967</v>
+      </c>
+      <c r="W24">
+        <f t="shared" ca="1" si="4"/>
+        <v>1406</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1045</v>
+      </c>
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>367</v>
+      </c>
+      <c r="E25">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>324</v>
+      </c>
+      <c r="G25" t="s">
+        <v>333</v>
+      </c>
+      <c r="H25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25">
+        <v>115000</v>
+      </c>
+      <c r="J25" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" t="s">
+        <v>71</v>
+      </c>
+      <c r="N25" t="s">
+        <v>426</v>
+      </c>
+      <c r="O25" t="s">
+        <v>509</v>
+      </c>
+      <c r="P25" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>40</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" si="0"/>
+        <v>Casey Williams</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="1"/>
+        <v>casey.williams@cyclesillicon.com</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="V25">
+        <f t="shared" ca="1" si="3"/>
+        <v>2235</v>
+      </c>
+      <c r="W25">
+        <f t="shared" ca="1" si="4"/>
+        <v>1596</v>
+      </c>
+      <c r="Y25" s="29">
+        <f>SUM(I2:I86)</f>
+        <v>7918000</v>
+      </c>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1074</v>
+      </c>
+      <c r="B26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" t="s">
+        <v>368</v>
+      </c>
+      <c r="E26">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
+        <v>325</v>
+      </c>
+      <c r="G26" t="s">
+        <v>332</v>
+      </c>
+      <c r="H26" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26">
+        <v>66000</v>
+      </c>
+      <c r="J26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" t="s">
+        <v>71</v>
+      </c>
+      <c r="N26" t="s">
+        <v>427</v>
+      </c>
+      <c r="O26" t="s">
+        <v>510</v>
+      </c>
+      <c r="P26" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26">
+        <v>4</v>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" si="0"/>
+        <v>Jordan Smith</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="1"/>
+        <v>jordan.smith@cyclesillicon.com</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="V26">
+        <f t="shared" ca="1" si="3"/>
+        <v>1701</v>
+      </c>
+      <c r="W26">
+        <f t="shared" ca="1" si="4"/>
+        <v>1216</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1006</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27">
+        <v>47</v>
+      </c>
+      <c r="F27" t="s">
+        <v>324</v>
+      </c>
+      <c r="G27" t="s">
+        <v>331</v>
+      </c>
+      <c r="H27" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27">
+        <v>36000</v>
+      </c>
+      <c r="J27" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" t="s">
+        <v>106</v>
+      </c>
+      <c r="N27" t="s">
+        <v>428</v>
+      </c>
+      <c r="O27" t="s">
+        <v>511</v>
+      </c>
+      <c r="P27" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>40</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" si="0"/>
+        <v>Morgan Wilson</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="1"/>
+        <v>morgan.wilson@cyclesillicon.com</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="V27">
+        <f t="shared" ca="1" si="3"/>
+        <v>5471</v>
+      </c>
+      <c r="W27">
+        <f t="shared" ca="1" si="4"/>
+        <v>3909</v>
+      </c>
+      <c r="Y27" s="29">
+        <f>SUMIF(F2:F86, "Female", I2:I86)</f>
+        <v>4256000</v>
+      </c>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1026</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" t="s">
+        <v>369</v>
+      </c>
+      <c r="E28">
+        <v>63</v>
+      </c>
+      <c r="F28" t="s">
+        <v>325</v>
+      </c>
+      <c r="G28" t="s">
+        <v>330</v>
+      </c>
+      <c r="H28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28">
+        <v>73000</v>
+      </c>
+      <c r="J28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" t="s">
+        <v>429</v>
+      </c>
+      <c r="O28" t="s">
+        <v>512</v>
+      </c>
+      <c r="P28" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>24</v>
+      </c>
+      <c r="R28">
+        <v>3</v>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="0"/>
+        <v>Jane Taylor</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="1"/>
+        <v>jane.taylor@cyclesillicon.com</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="V28">
+        <f t="shared" ca="1" si="3"/>
+        <v>1701</v>
+      </c>
+      <c r="W28">
+        <f t="shared" ca="1" si="4"/>
+        <v>1216</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1078</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29">
+        <v>41</v>
+      </c>
+      <c r="F29" t="s">
+        <v>324</v>
+      </c>
+      <c r="G29" t="s">
+        <v>331</v>
+      </c>
+      <c r="H29" t="s">
+        <v>248</v>
+      </c>
+      <c r="I29">
+        <v>146000</v>
+      </c>
+      <c r="J29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" t="s">
+        <v>430</v>
+      </c>
+      <c r="O29" t="s">
+        <v>513</v>
+      </c>
+      <c r="P29" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="S29" t="str">
+        <f t="shared" si="0"/>
+        <v>Pat Jones</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="1"/>
+        <v>pat.jones@cyclesillicon.com</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="V29">
+        <f t="shared" ca="1" si="3"/>
+        <v>1871</v>
+      </c>
+      <c r="W29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1336</v>
+      </c>
+      <c r="Y29" s="29">
+        <f>SUMIFS(I2:I86, G2:G86, "Single", F2:F86, "Male")</f>
+        <v>1536000</v>
+      </c>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1075</v>
+      </c>
+      <c r="B30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" t="s">
+        <v>370</v>
+      </c>
+      <c r="E30">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s">
+        <v>325</v>
+      </c>
+      <c r="G30" t="s">
+        <v>330</v>
+      </c>
+      <c r="H30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30">
+        <v>131000</v>
+      </c>
+      <c r="J30" t="s">
+        <v>77</v>
+      </c>
+      <c r="K30" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" t="s">
+        <v>71</v>
+      </c>
+      <c r="N30" t="s">
+        <v>431</v>
+      </c>
+      <c r="O30" t="s">
+        <v>65</v>
+      </c>
+      <c r="P30" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>24</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30" t="str">
+        <f t="shared" si="0"/>
+        <v>Taylor Taylor</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="1"/>
+        <v>taylor.taylor@cyclesillicon.com</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="V30">
+        <f t="shared" ca="1" si="3"/>
+        <v>2459</v>
+      </c>
+      <c r="W30">
+        <f t="shared" ca="1" si="4"/>
+        <v>1758</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1063</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31">
+        <v>31</v>
+      </c>
+      <c r="F31" t="s">
+        <v>325</v>
+      </c>
+      <c r="G31" t="s">
+        <v>330</v>
+      </c>
+      <c r="H31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31">
+        <v>121000</v>
+      </c>
+      <c r="J31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" t="s">
+        <v>106</v>
+      </c>
+      <c r="N31" t="s">
+        <v>432</v>
+      </c>
+      <c r="O31" t="s">
+        <v>514</v>
+      </c>
+      <c r="P31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>24</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31" t="str">
+        <f t="shared" si="0"/>
+        <v>Pat Williams</v>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="1"/>
+        <v>pat.williams@cyclesillicon.com</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="V31">
+        <f t="shared" ca="1" si="3"/>
+        <v>802</v>
+      </c>
+      <c r="W31">
+        <f t="shared" ca="1" si="4"/>
+        <v>573</v>
+      </c>
+      <c r="Y31" s="29">
+        <f>SUMIFS(I2:I86, K2:K86, "Y", L2:L86, "Y")</f>
+        <v>1982000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1066</v>
+      </c>
+      <c r="B32" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" t="s">
+        <v>358</v>
+      </c>
+      <c r="E32">
+        <v>55</v>
+      </c>
+      <c r="F32" t="s">
+        <v>324</v>
+      </c>
+      <c r="G32" t="s">
+        <v>333</v>
+      </c>
+      <c r="H32" t="s">
+        <v>403</v>
+      </c>
+      <c r="I32">
+        <v>111000</v>
+      </c>
+      <c r="J32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" t="s">
+        <v>433</v>
+      </c>
+      <c r="O32" t="s">
+        <v>496</v>
+      </c>
+      <c r="P32" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>40</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32" t="str">
+        <f t="shared" si="0"/>
+        <v>Jordan Wilson</v>
+      </c>
+      <c r="T32" t="str">
+        <f t="shared" si="1"/>
+        <v>jordan.wilson@cyclesillicon.com</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="V32" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Missing End Date</v>
+      </c>
+      <c r="W32" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Missing End Date</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1002</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>371</v>
+      </c>
+      <c r="E33">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>324</v>
+      </c>
+      <c r="G33" t="s">
+        <v>330</v>
+      </c>
+      <c r="H33" t="s">
+        <v>403</v>
+      </c>
+      <c r="I33">
+        <v>111000</v>
+      </c>
+      <c r="J33" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" t="s">
+        <v>434</v>
+      </c>
+      <c r="O33" t="s">
+        <v>502</v>
+      </c>
+      <c r="P33" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>24</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33" t="str">
+        <f t="shared" si="0"/>
+        <v>Casey Williams</v>
+      </c>
+      <c r="T33" t="str">
+        <f t="shared" si="1"/>
+        <v>casey.williams@cyclesillicon.com</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="V33">
+        <f t="shared" ca="1" si="3"/>
+        <v>5610</v>
+      </c>
+      <c r="W33">
+        <f t="shared" ca="1" si="4"/>
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1019</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E34">
+        <v>31</v>
+      </c>
+      <c r="F34" t="s">
+        <v>325</v>
+      </c>
+      <c r="G34" t="s">
+        <v>333</v>
+      </c>
+      <c r="H34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34">
+        <v>83000</v>
+      </c>
+      <c r="J34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" t="s">
+        <v>435</v>
+      </c>
+      <c r="O34" t="s">
+        <v>515</v>
+      </c>
+      <c r="P34" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>24</v>
+      </c>
+      <c r="R34">
+        <v>4</v>
+      </c>
+      <c r="S34" t="str">
+        <f t="shared" si="0"/>
+        <v>Jane Smith</v>
+      </c>
+      <c r="T34" t="str">
+        <f t="shared" si="1"/>
+        <v>jane.smith@cyclesillicon.com</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="V34">
+        <f t="shared" ca="1" si="3"/>
+        <v>1380</v>
+      </c>
+      <c r="W34">
+        <f t="shared" ca="1" si="4"/>
+        <v>987</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1049</v>
+      </c>
+      <c r="B35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
+        <v>372</v>
+      </c>
+      <c r="E35">
+        <v>58</v>
+      </c>
+      <c r="F35" t="s">
+        <v>325</v>
+      </c>
+      <c r="G35" t="s">
+        <v>333</v>
+      </c>
+      <c r="H35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35">
+        <v>46000</v>
+      </c>
+      <c r="J35" t="s">
+        <v>91</v>
+      </c>
+      <c r="K35" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" t="s">
+        <v>71</v>
+      </c>
+      <c r="N35" t="s">
+        <v>436</v>
+      </c>
+      <c r="O35" t="s">
+        <v>516</v>
+      </c>
+      <c r="P35" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>24</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35" t="str">
+        <f t="shared" si="0"/>
+        <v>Jamie Brown</v>
+      </c>
+      <c r="T35" t="str">
+        <f t="shared" si="1"/>
+        <v>jamie.brown@cyclesillicon.com</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="V35">
+        <f t="shared" ca="1" si="3"/>
+        <v>6378</v>
+      </c>
+      <c r="W35">
+        <f t="shared" ca="1" si="4"/>
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1037</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36">
+        <v>31</v>
+      </c>
+      <c r="F36" t="s">
+        <v>325</v>
+      </c>
+      <c r="G36" t="s">
+        <v>333</v>
+      </c>
+      <c r="H36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I36">
+        <v>134000</v>
+      </c>
+      <c r="J36" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M36" t="s">
+        <v>71</v>
+      </c>
+      <c r="N36" t="s">
+        <v>437</v>
+      </c>
+      <c r="O36" t="s">
+        <v>517</v>
+      </c>
+      <c r="P36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>40</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36" t="str">
+        <f t="shared" si="0"/>
+        <v>John Smith</v>
+      </c>
+      <c r="T36" t="str">
+        <f t="shared" si="1"/>
+        <v>john.smith@cyclesillicon.com</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="V36">
+        <f t="shared" ca="1" si="3"/>
+        <v>3961</v>
+      </c>
+      <c r="W36">
+        <f t="shared" ca="1" si="4"/>
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1079</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" t="s">
+        <v>373</v>
+      </c>
+      <c r="E37">
+        <v>58</v>
+      </c>
+      <c r="F37" t="s">
+        <v>324</v>
+      </c>
+      <c r="G37" t="s">
+        <v>332</v>
+      </c>
+      <c r="H37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I37">
+        <v>46000</v>
+      </c>
+      <c r="J37" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" t="s">
+        <v>24</v>
+      </c>
+      <c r="M37" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" t="s">
+        <v>438</v>
+      </c>
+      <c r="O37" t="s">
+        <v>518</v>
+      </c>
+      <c r="P37" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>40</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37" t="str">
+        <f t="shared" si="0"/>
+        <v>Pat Taylor</v>
+      </c>
+      <c r="T37" t="str">
+        <f t="shared" si="1"/>
+        <v>pat.taylor@cyclesillicon.com</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="V37">
+        <f t="shared" ca="1" si="3"/>
+        <v>954</v>
+      </c>
+      <c r="W37">
+        <f t="shared" ca="1" si="4"/>
+        <v>683</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1007</v>
+      </c>
+      <c r="B38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" t="s">
+        <v>374</v>
+      </c>
+      <c r="E38">
+        <v>46</v>
+      </c>
+      <c r="F38" t="s">
+        <v>324</v>
+      </c>
+      <c r="G38" t="s">
+        <v>331</v>
+      </c>
+      <c r="H38" t="s">
+        <v>248</v>
+      </c>
+      <c r="I38">
+        <v>94000</v>
+      </c>
+      <c r="J38" t="s">
+        <v>39</v>
+      </c>
+      <c r="K38" t="s">
+        <v>40</v>
+      </c>
+      <c r="L38" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" t="s">
+        <v>71</v>
+      </c>
+      <c r="N38" t="s">
+        <v>439</v>
+      </c>
+      <c r="O38" t="s">
+        <v>519</v>
+      </c>
+      <c r="P38" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R38" t="s">
+        <v>561</v>
+      </c>
+      <c r="S38" t="str">
+        <f t="shared" si="0"/>
+        <v>Jamie Miller</v>
+      </c>
+      <c r="T38" t="str">
+        <f t="shared" si="1"/>
+        <v>jamie.miller@cyclesillicon.com</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="V38">
+        <f t="shared" ca="1" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="W38">
+        <f t="shared" ca="1" si="4"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1059</v>
+      </c>
+      <c r="B39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>375</v>
+      </c>
+      <c r="E39">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>325</v>
+      </c>
+      <c r="G39" t="s">
+        <v>332</v>
+      </c>
+      <c r="H39" t="s">
+        <v>95</v>
+      </c>
+      <c r="I39">
+        <v>79000</v>
+      </c>
+      <c r="J39" t="s">
+        <v>77</v>
+      </c>
+      <c r="K39" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" t="s">
+        <v>84</v>
+      </c>
+      <c r="N39" t="s">
+        <v>440</v>
+      </c>
+      <c r="O39" t="s">
+        <v>520</v>
+      </c>
+      <c r="P39" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>40</v>
+      </c>
+      <c r="R39" t="s">
+        <v>561</v>
+      </c>
+      <c r="S39" t="str">
+        <f t="shared" si="0"/>
+        <v>Taylor Davis</v>
+      </c>
+      <c r="T39" t="str">
+        <f t="shared" si="1"/>
+        <v>taylor.davis@cyclesillicon.com</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="V39">
+        <f t="shared" ca="1" si="3"/>
+        <v>1827</v>
+      </c>
+      <c r="W39">
+        <f t="shared" ca="1" si="4"/>
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1011</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" t="s">
+        <v>172</v>
+      </c>
+      <c r="E40">
+        <v>64</v>
+      </c>
+      <c r="F40" t="s">
+        <v>325</v>
+      </c>
+      <c r="G40" t="s">
+        <v>331</v>
+      </c>
+      <c r="H40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I40">
+        <v>57000</v>
+      </c>
+      <c r="J40" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" t="s">
+        <v>40</v>
+      </c>
+      <c r="M40" t="s">
+        <v>71</v>
+      </c>
+      <c r="N40" t="s">
+        <v>441</v>
+      </c>
+      <c r="O40" t="s">
+        <v>521</v>
+      </c>
+      <c r="P40" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40" t="str">
+        <f t="shared" si="0"/>
+        <v>Pat Smith</v>
+      </c>
+      <c r="T40" t="str">
+        <f t="shared" si="1"/>
+        <v>pat.smith@cyclesillicon.com</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="V40">
+        <f t="shared" ca="1" si="3"/>
+        <v>2159</v>
+      </c>
+      <c r="W40">
+        <f t="shared" ca="1" si="4"/>
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1013</v>
+      </c>
+      <c r="B41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" t="s">
+        <v>376</v>
+      </c>
+      <c r="E41">
+        <v>35</v>
+      </c>
+      <c r="F41" t="s">
+        <v>325</v>
+      </c>
+      <c r="G41" t="s">
+        <v>333</v>
+      </c>
+      <c r="H41" t="s">
+        <v>105</v>
+      </c>
+      <c r="I41">
+        <v>80000</v>
+      </c>
+      <c r="J41" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" t="s">
+        <v>40</v>
+      </c>
+      <c r="M41" t="s">
+        <v>71</v>
+      </c>
+      <c r="N41" t="s">
+        <v>442</v>
+      </c>
+      <c r="O41" t="s">
+        <v>522</v>
+      </c>
+      <c r="P41" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>24</v>
+      </c>
+      <c r="R41">
+        <v>3</v>
+      </c>
+      <c r="S41" t="str">
+        <f t="shared" si="0"/>
+        <v>Jamie Brown</v>
+      </c>
+      <c r="T41" t="str">
+        <f t="shared" si="1"/>
+        <v>jamie.brown@cyclesillicon.com</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="V41">
+        <f t="shared" ca="1" si="3"/>
+        <v>6954</v>
+      </c>
+      <c r="W41">
+        <f t="shared" ca="1" si="4"/>
+        <v>4968</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1054</v>
+      </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" t="s">
+        <v>227</v>
+      </c>
+      <c r="D42" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42">
+        <v>27</v>
+      </c>
+      <c r="F42" t="s">
+        <v>325</v>
+      </c>
+      <c r="G42" t="s">
+        <v>333</v>
+      </c>
+      <c r="H42" t="s">
+        <v>248</v>
+      </c>
+      <c r="I42">
+        <v>142000</v>
+      </c>
+      <c r="J42" t="s">
+        <v>77</v>
+      </c>
+      <c r="K42" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" t="s">
+        <v>24</v>
+      </c>
+      <c r="M42" t="s">
+        <v>71</v>
+      </c>
+      <c r="N42" t="s">
+        <v>443</v>
+      </c>
+      <c r="O42" t="s">
+        <v>523</v>
+      </c>
+      <c r="P42" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>40</v>
+      </c>
+      <c r="R42" t="s">
+        <v>561</v>
+      </c>
+      <c r="S42" t="str">
+        <f t="shared" si="0"/>
+        <v>John Johnson</v>
+      </c>
+      <c r="T42" t="str">
+        <f t="shared" si="1"/>
+        <v>john.johnson@cyclesillicon.com</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="V42">
+        <f t="shared" ca="1" si="3"/>
+        <v>4826</v>
+      </c>
+      <c r="W42">
+        <f t="shared" ca="1" si="4"/>
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1055</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43">
+        <v>33</v>
+      </c>
+      <c r="F43" t="s">
+        <v>325</v>
+      </c>
+      <c r="G43" t="s">
+        <v>330</v>
+      </c>
+      <c r="H43" t="s">
+        <v>112</v>
+      </c>
+      <c r="I43">
+        <v>89000</v>
+      </c>
+      <c r="J43" t="s">
+        <v>77</v>
+      </c>
+      <c r="K43" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" t="s">
+        <v>342</v>
+      </c>
+      <c r="N43" t="s">
+        <v>444</v>
+      </c>
+      <c r="O43" t="s">
+        <v>524</v>
+      </c>
+      <c r="P43" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>40</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43" t="str">
+        <f t="shared" si="0"/>
+        <v>Morgan Williams</v>
+      </c>
+      <c r="T43" t="str">
+        <f t="shared" si="1"/>
+        <v>morgan.williams@cyclesillicon.com</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="V43">
+        <f t="shared" ca="1" si="3"/>
+        <v>1644</v>
+      </c>
+      <c r="W43">
+        <f t="shared" ca="1" si="4"/>
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1068</v>
+      </c>
+      <c r="B44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" t="s">
+        <v>377</v>
+      </c>
+      <c r="E44">
+        <v>55</v>
+      </c>
+      <c r="F44" t="s">
+        <v>324</v>
+      </c>
+      <c r="G44" t="s">
+        <v>333</v>
+      </c>
+      <c r="H44" t="s">
+        <v>76</v>
+      </c>
+      <c r="I44">
+        <v>83000</v>
+      </c>
+      <c r="J44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L44" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" t="s">
+        <v>106</v>
+      </c>
+      <c r="N44" t="s">
+        <v>445</v>
+      </c>
+      <c r="O44" t="s">
+        <v>65</v>
+      </c>
+      <c r="P44" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>40</v>
+      </c>
+      <c r="R44" t="s">
+        <v>561</v>
+      </c>
+      <c r="S44" t="str">
+        <f t="shared" si="0"/>
+        <v>Chris Miller</v>
+      </c>
+      <c r="T44" t="str">
+        <f t="shared" si="1"/>
+        <v>chris.miller@cyclesillicon.com</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="V44">
+        <f t="shared" ca="1" si="3"/>
+        <v>3990</v>
+      </c>
+      <c r="W44">
+        <f t="shared" ca="1" si="4"/>
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1033</v>
+      </c>
+      <c r="B45" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" t="s">
+        <v>227</v>
+      </c>
+      <c r="D45" t="s">
+        <v>378</v>
+      </c>
+      <c r="E45">
+        <v>48</v>
+      </c>
+      <c r="F45" t="s">
+        <v>325</v>
+      </c>
+      <c r="G45" t="s">
+        <v>330</v>
+      </c>
+      <c r="H45" t="s">
+        <v>87</v>
+      </c>
+      <c r="I45">
+        <v>75000</v>
+      </c>
+      <c r="J45" t="s">
+        <v>32</v>
+      </c>
+      <c r="K45" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" t="s">
+        <v>446</v>
+      </c>
+      <c r="O45" t="s">
+        <v>525</v>
+      </c>
+      <c r="P45" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>40</v>
+      </c>
+      <c r="R45" t="s">
+        <v>561</v>
+      </c>
+      <c r="S45" t="str">
+        <f t="shared" si="0"/>
+        <v>Chris Johnson</v>
+      </c>
+      <c r="T45" t="str">
+        <f t="shared" si="1"/>
+        <v>chris.johnson@cyclesillicon.com</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="V45">
+        <f t="shared" ca="1" si="3"/>
+        <v>1487</v>
+      </c>
+      <c r="W45">
+        <f t="shared" ca="1" si="4"/>
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1020</v>
+      </c>
+      <c r="B46" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" t="s">
+        <v>379</v>
+      </c>
+      <c r="E46">
+        <v>53</v>
+      </c>
+      <c r="F46" t="s">
+        <v>324</v>
+      </c>
+      <c r="G46" t="s">
+        <v>330</v>
+      </c>
+      <c r="H46" t="s">
+        <v>62</v>
+      </c>
+      <c r="I46">
+        <v>34000</v>
+      </c>
+      <c r="J46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" t="s">
+        <v>447</v>
+      </c>
+      <c r="O46" t="s">
+        <v>526</v>
+      </c>
+      <c r="P46" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>24</v>
+      </c>
+      <c r="R46">
+        <v>5</v>
+      </c>
+      <c r="S46" t="str">
+        <f t="shared" si="0"/>
+        <v>Jamie Wilson</v>
+      </c>
+      <c r="T46" t="str">
+        <f t="shared" si="1"/>
+        <v>jamie.wilson@cyclesillicon.com</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="V46">
+        <f t="shared" ca="1" si="3"/>
+        <v>4642</v>
+      </c>
+      <c r="W46">
+        <f t="shared" ca="1" si="4"/>
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1027</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" t="s">
+        <v>380</v>
+      </c>
+      <c r="E47">
+        <v>57</v>
+      </c>
+      <c r="F47" t="s">
+        <v>325</v>
+      </c>
+      <c r="G47" t="s">
+        <v>331</v>
+      </c>
+      <c r="H47" t="s">
+        <v>76</v>
+      </c>
+      <c r="I47">
+        <v>115000</v>
+      </c>
+      <c r="J47" t="s">
+        <v>91</v>
+      </c>
+      <c r="K47" t="s">
+        <v>40</v>
+      </c>
+      <c r="L47" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" t="s">
+        <v>106</v>
+      </c>
+      <c r="N47" t="s">
+        <v>448</v>
+      </c>
+      <c r="O47" t="s">
+        <v>527</v>
+      </c>
+      <c r="P47" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>40</v>
+      </c>
+      <c r="R47" t="s">
+        <v>561</v>
+      </c>
+      <c r="S47" t="str">
+        <f t="shared" si="0"/>
+        <v>Morgan Brown</v>
+      </c>
+      <c r="T47" t="str">
+        <f t="shared" si="1"/>
+        <v>morgan.brown@cyclesillicon.com</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="V47">
+        <f t="shared" ca="1" si="3"/>
+        <v>6056</v>
+      </c>
+      <c r="W47">
+        <f t="shared" ca="1" si="4"/>
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1061</v>
+      </c>
+      <c r="B48" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48" t="s">
+        <v>192</v>
+      </c>
+      <c r="E48">
+        <v>45</v>
+      </c>
+      <c r="F48" t="s">
+        <v>325</v>
+      </c>
+      <c r="G48" t="s">
+        <v>333</v>
+      </c>
+      <c r="H48" t="s">
+        <v>87</v>
+      </c>
+      <c r="I48">
+        <v>117000</v>
+      </c>
+      <c r="J48" t="s">
+        <v>91</v>
+      </c>
+      <c r="K48" t="s">
+        <v>40</v>
+      </c>
+      <c r="L48" t="s">
+        <v>40</v>
+      </c>
+      <c r="M48" t="s">
+        <v>106</v>
+      </c>
+      <c r="N48" t="s">
+        <v>449</v>
+      </c>
+      <c r="O48" t="s">
+        <v>528</v>
+      </c>
+      <c r="P48" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>40</v>
+      </c>
+      <c r="R48" t="s">
+        <v>561</v>
+      </c>
+      <c r="S48" t="str">
+        <f t="shared" si="0"/>
+        <v>Jordan Wilson</v>
+      </c>
+      <c r="T48" t="str">
+        <f t="shared" si="1"/>
+        <v>jordan.wilson@cyclesillicon.com</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="V48">
+        <f t="shared" ca="1" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="W48">
+        <f t="shared" ca="1" si="4"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1056</v>
+      </c>
+      <c r="B49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" t="s">
+        <v>193</v>
+      </c>
+      <c r="E49">
+        <v>55</v>
+      </c>
+      <c r="F49" t="s">
+        <v>324</v>
+      </c>
+      <c r="G49" t="s">
+        <v>333</v>
+      </c>
+      <c r="H49" t="s">
+        <v>87</v>
+      </c>
+      <c r="I49">
+        <v>117000</v>
+      </c>
+      <c r="J49" t="s">
+        <v>39</v>
+      </c>
+      <c r="K49" t="s">
+        <v>40</v>
+      </c>
+      <c r="L49" t="s">
+        <v>40</v>
+      </c>
+      <c r="M49" t="s">
+        <v>71</v>
+      </c>
+      <c r="N49" t="s">
+        <v>450</v>
+      </c>
+      <c r="O49" t="s">
+        <v>529</v>
+      </c>
+      <c r="P49" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>24</v>
+      </c>
+      <c r="R49">
+        <v>4</v>
+      </c>
+      <c r="S49" t="str">
+        <f t="shared" si="0"/>
+        <v>Taylor Wilson</v>
+      </c>
+      <c r="T49" t="str">
+        <f t="shared" si="1"/>
+        <v>taylor.wilson@cyclesillicon.com</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="V49">
+        <f t="shared" ca="1" si="3"/>
+        <v>5735</v>
+      </c>
+      <c r="W49">
+        <f t="shared" ca="1" si="4"/>
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1010</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" t="s">
+        <v>381</v>
+      </c>
+      <c r="E50">
+        <v>52</v>
+      </c>
+      <c r="F50" t="s">
+        <v>325</v>
+      </c>
+      <c r="G50" t="s">
+        <v>331</v>
+      </c>
+      <c r="H50" t="s">
+        <v>87</v>
+      </c>
+      <c r="I50">
+        <v>66000</v>
+      </c>
+      <c r="J50" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50" t="s">
+        <v>40</v>
+      </c>
+      <c r="L50" t="s">
+        <v>24</v>
+      </c>
+      <c r="M50" t="s">
+        <v>84</v>
+      </c>
+      <c r="N50" t="s">
+        <v>451</v>
+      </c>
+      <c r="O50" t="s">
+        <v>530</v>
+      </c>
+      <c r="P50" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>40</v>
+      </c>
+      <c r="R50" t="s">
+        <v>561</v>
+      </c>
+      <c r="S50" t="str">
+        <f t="shared" si="0"/>
+        <v>Pat Williams</v>
+      </c>
+      <c r="T50" t="str">
+        <f t="shared" si="1"/>
+        <v>pat.williams@cyclesillicon.com</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="V50">
+        <f t="shared" ca="1" si="3"/>
+        <v>3416</v>
+      </c>
+      <c r="W50">
+        <f t="shared" ca="1" si="4"/>
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1018</v>
+      </c>
+      <c r="B51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" t="s">
+        <v>382</v>
+      </c>
+      <c r="E51">
+        <v>42</v>
+      </c>
+      <c r="F51" t="s">
+        <v>324</v>
+      </c>
+      <c r="G51" t="s">
+        <v>333</v>
+      </c>
+      <c r="H51" t="s">
+        <v>58</v>
+      </c>
+      <c r="I51">
+        <v>39000</v>
+      </c>
+      <c r="J51" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" t="s">
+        <v>40</v>
+      </c>
+      <c r="L51" t="s">
+        <v>40</v>
+      </c>
+      <c r="M51" t="s">
+        <v>25</v>
+      </c>
+      <c r="N51" t="s">
+        <v>452</v>
+      </c>
+      <c r="O51" t="s">
+        <v>531</v>
+      </c>
+      <c r="P51" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>24</v>
+      </c>
+      <c r="R51">
+        <v>4</v>
+      </c>
+      <c r="S51" t="str">
+        <f t="shared" si="0"/>
+        <v>Jamie Taylor</v>
+      </c>
+      <c r="T51" t="str">
+        <f t="shared" si="1"/>
+        <v>jamie.taylor@cyclesillicon.com</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="V51">
+        <f t="shared" ca="1" si="3"/>
+        <v>4051</v>
+      </c>
+      <c r="W51">
+        <f t="shared" ca="1" si="4"/>
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1060</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" t="s">
+        <v>383</v>
+      </c>
+      <c r="E52">
+        <v>45</v>
+      </c>
+      <c r="F52" t="s">
+        <v>325</v>
+      </c>
+      <c r="G52" t="s">
+        <v>331</v>
+      </c>
+      <c r="H52" t="s">
+        <v>38</v>
+      </c>
+      <c r="I52">
+        <v>142000</v>
+      </c>
+      <c r="J52" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" t="s">
+        <v>24</v>
+      </c>
+      <c r="M52" t="s">
+        <v>106</v>
+      </c>
+      <c r="N52" t="s">
+        <v>453</v>
+      </c>
+      <c r="O52" t="s">
+        <v>532</v>
+      </c>
+      <c r="P52" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>40</v>
+      </c>
+      <c r="R52" t="s">
+        <v>561</v>
+      </c>
+      <c r="S52" t="str">
+        <f t="shared" si="0"/>
+        <v>Casey Taylor</v>
+      </c>
+      <c r="T52" t="str">
+        <f t="shared" si="1"/>
+        <v>casey.taylor@cyclesillicon.com</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="V52">
+        <f t="shared" ca="1" si="3"/>
+        <v>5491</v>
+      </c>
+      <c r="W52">
+        <f t="shared" ca="1" si="4"/>
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1058</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" t="s">
+        <v>384</v>
+      </c>
+      <c r="E53">
+        <v>55</v>
+      </c>
+      <c r="F53" t="s">
+        <v>324</v>
+      </c>
+      <c r="G53" t="s">
+        <v>333</v>
+      </c>
+      <c r="H53" t="s">
+        <v>58</v>
+      </c>
+      <c r="I53">
+        <v>87000</v>
+      </c>
+      <c r="J53" t="s">
+        <v>77</v>
+      </c>
+      <c r="K53" t="s">
+        <v>24</v>
+      </c>
+      <c r="L53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M53" t="s">
+        <v>106</v>
+      </c>
+      <c r="N53" t="s">
+        <v>454</v>
+      </c>
+      <c r="O53" t="s">
+        <v>533</v>
+      </c>
+      <c r="P53" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>24</v>
+      </c>
+      <c r="R53">
+        <v>3</v>
+      </c>
+      <c r="S53" t="str">
+        <f t="shared" si="0"/>
+        <v>Casey Smith</v>
+      </c>
+      <c r="T53" t="str">
+        <f t="shared" si="1"/>
+        <v>casey.smith@cyclesillicon.com</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="V53">
+        <f t="shared" ca="1" si="3"/>
+        <v>1723</v>
+      </c>
+      <c r="W53">
+        <f t="shared" ca="1" si="4"/>
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1042</v>
+      </c>
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" t="s">
+        <v>385</v>
+      </c>
+      <c r="E54">
+        <v>21</v>
+      </c>
+      <c r="F54" t="s">
+        <v>324</v>
+      </c>
+      <c r="G54" t="s">
+        <v>333</v>
+      </c>
+      <c r="H54" t="s">
+        <v>62</v>
+      </c>
+      <c r="I54">
+        <v>123000</v>
+      </c>
+      <c r="J54" t="s">
+        <v>91</v>
+      </c>
+      <c r="K54" t="s">
+        <v>24</v>
+      </c>
+      <c r="L54" t="s">
+        <v>40</v>
+      </c>
+      <c r="M54" t="s">
+        <v>106</v>
+      </c>
+      <c r="N54" t="s">
+        <v>455</v>
+      </c>
+      <c r="O54" t="s">
+        <v>534</v>
+      </c>
+      <c r="P54" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>24</v>
+      </c>
+      <c r="R54">
+        <v>5</v>
+      </c>
+      <c r="S54" t="str">
+        <f t="shared" si="0"/>
+        <v>Alex Miller</v>
+      </c>
+      <c r="T54" t="str">
+        <f t="shared" si="1"/>
+        <v>alex.miller@cyclesillicon.com</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="V54">
+        <f t="shared" ca="1" si="3"/>
+        <v>760</v>
+      </c>
+      <c r="W54">
+        <f t="shared" ca="1" si="4"/>
+        <v>543</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1065</v>
+      </c>
+      <c r="B55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" t="s">
+        <v>386</v>
+      </c>
+      <c r="E55">
+        <v>56</v>
+      </c>
+      <c r="F55" t="s">
+        <v>325</v>
+      </c>
+      <c r="G55" t="s">
+        <v>333</v>
+      </c>
+      <c r="H55" t="s">
+        <v>112</v>
+      </c>
+      <c r="I55">
+        <v>108000</v>
+      </c>
+      <c r="J55" t="s">
+        <v>23</v>
+      </c>
+      <c r="K55" t="s">
+        <v>24</v>
+      </c>
+      <c r="L55" t="s">
+        <v>24</v>
+      </c>
+      <c r="M55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N55" t="s">
+        <v>456</v>
+      </c>
+      <c r="O55" t="s">
+        <v>535</v>
+      </c>
+      <c r="P55" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>24</v>
+      </c>
+      <c r="R55">
+        <v>3</v>
+      </c>
+      <c r="S55" t="str">
+        <f t="shared" si="0"/>
+        <v>Chris Williams</v>
+      </c>
+      <c r="T55" t="str">
+        <f t="shared" si="1"/>
+        <v>chris.williams@cyclesillicon.com</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="V55">
+        <f t="shared" ca="1" si="3"/>
+        <v>761</v>
+      </c>
+      <c r="W55">
+        <f t="shared" ca="1" si="4"/>
+        <v>544</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1046</v>
+      </c>
+      <c r="B56" t="s">
+        <v>213</v>
+      </c>
+      <c r="C56" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" t="s">
+        <v>387</v>
+      </c>
+      <c r="E56">
+        <v>58</v>
+      </c>
+      <c r="F56" t="s">
+        <v>325</v>
+      </c>
+      <c r="G56" t="s">
+        <v>331</v>
+      </c>
+      <c r="H56" t="s">
+        <v>403</v>
+      </c>
+      <c r="I56">
+        <v>70000</v>
+      </c>
+      <c r="J56" t="s">
+        <v>77</v>
+      </c>
+      <c r="K56" t="s">
+        <v>40</v>
+      </c>
+      <c r="L56" t="s">
+        <v>40</v>
+      </c>
+      <c r="M56" t="s">
+        <v>342</v>
+      </c>
+      <c r="N56" t="s">
+        <v>457</v>
+      </c>
+      <c r="O56" t="s">
+        <v>536</v>
+      </c>
+      <c r="P56" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>40</v>
+      </c>
+      <c r="R56" t="s">
+        <v>561</v>
+      </c>
+      <c r="S56" t="str">
+        <f t="shared" si="0"/>
+        <v>Jordan Taylor</v>
+      </c>
+      <c r="T56" t="str">
+        <f t="shared" si="1"/>
+        <v>jordan.taylor@cyclesillicon.com</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="V56">
+        <f t="shared" ca="1" si="3"/>
+        <v>1573</v>
+      </c>
+      <c r="W56">
+        <f t="shared" ca="1" si="4"/>
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1009</v>
+      </c>
+      <c r="B57" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" t="s">
+        <v>388</v>
+      </c>
+      <c r="E57">
+        <v>29</v>
+      </c>
+      <c r="F57" t="s">
+        <v>324</v>
+      </c>
+      <c r="G57" t="s">
+        <v>331</v>
+      </c>
+      <c r="H57" t="s">
+        <v>95</v>
+      </c>
+      <c r="I57">
+        <v>81000</v>
+      </c>
+      <c r="J57" t="s">
+        <v>91</v>
+      </c>
+      <c r="K57" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" t="s">
+        <v>24</v>
+      </c>
+      <c r="M57" t="s">
+        <v>84</v>
+      </c>
+      <c r="N57" t="s">
+        <v>458</v>
+      </c>
+      <c r="O57" t="s">
+        <v>537</v>
+      </c>
+      <c r="P57" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>24</v>
+      </c>
+      <c r="R57">
+        <v>3</v>
+      </c>
+      <c r="S57" t="str">
+        <f t="shared" si="0"/>
+        <v>Jordan Williams</v>
+      </c>
+      <c r="T57" t="str">
+        <f t="shared" si="1"/>
+        <v>jordan.williams@cyclesillicon.com</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="V57">
+        <f t="shared" ca="1" si="3"/>
+        <v>2173</v>
+      </c>
+      <c r="W57">
+        <f t="shared" ca="1" si="4"/>
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1072</v>
+      </c>
+      <c r="B58" t="s">
+        <v>213</v>
+      </c>
+      <c r="C58" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" t="s">
+        <v>388</v>
+      </c>
+      <c r="E58">
+        <v>27</v>
+      </c>
+      <c r="F58" t="s">
+        <v>325</v>
+      </c>
+      <c r="G58" t="s">
+        <v>333</v>
+      </c>
+      <c r="H58" t="s">
+        <v>76</v>
+      </c>
+      <c r="I58">
+        <v>80000</v>
+      </c>
+      <c r="J58" t="s">
+        <v>39</v>
+      </c>
+      <c r="K58" t="s">
+        <v>40</v>
+      </c>
+      <c r="L58" t="s">
+        <v>24</v>
+      </c>
+      <c r="M58" t="s">
+        <v>25</v>
+      </c>
+      <c r="N58" t="s">
+        <v>459</v>
+      </c>
+      <c r="O58" t="s">
+        <v>538</v>
+      </c>
+      <c r="P58" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>40</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58" t="str">
+        <f t="shared" si="0"/>
+        <v>Jordan Williams</v>
+      </c>
+      <c r="T58" t="str">
+        <f t="shared" si="1"/>
+        <v>jordan.williams@cyclesillicon.com</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="V58">
+        <f t="shared" ca="1" si="3"/>
+        <v>1041</v>
+      </c>
+      <c r="W58">
+        <f t="shared" ca="1" si="4"/>
+        <v>744</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1081</v>
+      </c>
+      <c r="B59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" t="s">
+        <v>389</v>
+      </c>
+      <c r="E59">
+        <v>27</v>
+      </c>
+      <c r="F59" t="s">
+        <v>325</v>
+      </c>
+      <c r="G59" t="s">
+        <v>331</v>
+      </c>
+      <c r="H59" t="s">
+        <v>248</v>
+      </c>
+      <c r="I59">
+        <v>120000</v>
+      </c>
+      <c r="J59" t="s">
+        <v>39</v>
+      </c>
+      <c r="K59" t="s">
+        <v>24</v>
+      </c>
+      <c r="L59" t="s">
+        <v>40</v>
+      </c>
+      <c r="M59" t="s">
+        <v>106</v>
+      </c>
+      <c r="N59" t="s">
+        <v>460</v>
+      </c>
+      <c r="O59" t="s">
+        <v>539</v>
+      </c>
+      <c r="P59" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>40</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59" t="str">
+        <f t="shared" si="0"/>
+        <v>John Jones</v>
+      </c>
+      <c r="T59" t="str">
+        <f t="shared" si="1"/>
+        <v>john.jones@cyclesillicon.com</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="V59">
+        <f t="shared" ca="1" si="3"/>
+        <v>1940</v>
+      </c>
+      <c r="W59">
+        <f t="shared" ca="1" si="4"/>
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1067</v>
+      </c>
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60">
+        <v>60</v>
+      </c>
+      <c r="F60" t="s">
+        <v>325</v>
+      </c>
+      <c r="G60" t="s">
+        <v>330</v>
+      </c>
+      <c r="H60" t="s">
+        <v>62</v>
+      </c>
+      <c r="I60">
+        <v>130000</v>
+      </c>
+      <c r="J60" t="s">
+        <v>23</v>
+      </c>
+      <c r="K60" t="s">
+        <v>40</v>
+      </c>
+      <c r="L60" t="s">
+        <v>24</v>
+      </c>
+      <c r="M60" t="s">
+        <v>71</v>
+      </c>
+      <c r="N60" t="s">
+        <v>461</v>
+      </c>
+      <c r="O60" t="s">
+        <v>540</v>
+      </c>
+      <c r="P60" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>40</v>
+      </c>
+      <c r="R60" t="s">
+        <v>561</v>
+      </c>
+      <c r="S60" t="str">
+        <f t="shared" si="0"/>
+        <v>Taylor Smith</v>
+      </c>
+      <c r="T60" t="str">
+        <f t="shared" si="1"/>
+        <v>taylor.smith@cyclesillicon.com</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="V60">
+        <f t="shared" ca="1" si="3"/>
+        <v>370</v>
+      </c>
+      <c r="W60">
+        <f t="shared" ca="1" si="4"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1051</v>
+      </c>
+      <c r="B61" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" t="s">
+        <v>390</v>
+      </c>
+      <c r="E61">
+        <v>23</v>
+      </c>
+      <c r="F61" t="s">
+        <v>324</v>
+      </c>
+      <c r="G61" t="s">
+        <v>331</v>
+      </c>
+      <c r="H61" t="s">
+        <v>403</v>
+      </c>
+      <c r="I61">
+        <v>73000</v>
+      </c>
+      <c r="J61" t="s">
+        <v>77</v>
+      </c>
+      <c r="K61" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" t="s">
+        <v>40</v>
+      </c>
+      <c r="M61" t="s">
+        <v>25</v>
+      </c>
+      <c r="N61" t="s">
+        <v>462</v>
+      </c>
+      <c r="O61" t="s">
+        <v>541</v>
+      </c>
+      <c r="P61" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>24</v>
+      </c>
+      <c r="R61">
+        <v>3</v>
+      </c>
+      <c r="S61" t="str">
+        <f t="shared" si="0"/>
+        <v>Jamie Williams</v>
+      </c>
+      <c r="T61" t="str">
+        <f t="shared" si="1"/>
+        <v>jamie.williams@cyclesillicon.com</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="V61">
+        <f t="shared" ca="1" si="3"/>
+        <v>5468</v>
+      </c>
+      <c r="W61">
+        <f t="shared" ca="1" si="4"/>
+        <v>3907</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1053</v>
+      </c>
+      <c r="B62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" t="s">
+        <v>221</v>
+      </c>
+      <c r="E62">
+        <v>27</v>
+      </c>
+      <c r="F62" t="s">
+        <v>324</v>
+      </c>
+      <c r="G62" t="s">
+        <v>333</v>
+      </c>
+      <c r="H62" t="s">
+        <v>58</v>
+      </c>
+      <c r="I62">
+        <v>146000</v>
+      </c>
+      <c r="J62" t="s">
+        <v>23</v>
+      </c>
+      <c r="K62" t="s">
+        <v>40</v>
+      </c>
+      <c r="L62" t="s">
+        <v>40</v>
+      </c>
+      <c r="M62" t="s">
+        <v>71</v>
+      </c>
+      <c r="N62" t="s">
+        <v>463</v>
+      </c>
+      <c r="O62" t="s">
+        <v>542</v>
+      </c>
+      <c r="P62" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>40</v>
+      </c>
+      <c r="R62" t="s">
+        <v>561</v>
+      </c>
+      <c r="S62" t="str">
+        <f t="shared" si="0"/>
+        <v>Jane Anderson</v>
+      </c>
+      <c r="T62" t="str">
+        <f t="shared" si="1"/>
+        <v>jane.anderson@cyclesillicon.com</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="V62">
+        <f t="shared" ca="1" si="3"/>
+        <v>2313</v>
+      </c>
+      <c r="W62">
+        <f t="shared" ca="1" si="4"/>
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1041</v>
+      </c>
+      <c r="B63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" t="s">
+        <v>391</v>
+      </c>
+      <c r="E63">
+        <v>37</v>
+      </c>
+      <c r="F63" t="s">
+        <v>325</v>
+      </c>
+      <c r="G63" t="s">
+        <v>331</v>
+      </c>
+      <c r="H63" t="s">
+        <v>83</v>
+      </c>
+      <c r="I63">
+        <v>51000</v>
+      </c>
+      <c r="J63" t="s">
+        <v>39</v>
+      </c>
+      <c r="K63" t="s">
+        <v>24</v>
+      </c>
+      <c r="L63" t="s">
+        <v>24</v>
+      </c>
+      <c r="M63" t="s">
+        <v>25</v>
+      </c>
+      <c r="N63" t="s">
+        <v>464</v>
+      </c>
+      <c r="O63" t="s">
+        <v>455</v>
+      </c>
+      <c r="P63" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>40</v>
+      </c>
+      <c r="R63" t="s">
+        <v>561</v>
+      </c>
+      <c r="S63" t="str">
+        <f t="shared" si="0"/>
+        <v>Alex Miller</v>
+      </c>
+      <c r="T63" t="str">
+        <f t="shared" si="1"/>
+        <v>alex.miller@cyclesillicon.com</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="V63">
+        <f t="shared" ca="1" si="3"/>
+        <v>211</v>
+      </c>
+      <c r="W63">
+        <f t="shared" ca="1" si="4"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1071</v>
+      </c>
+      <c r="B64" t="s">
+        <v>213</v>
+      </c>
+      <c r="C64" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" t="s">
+        <v>392</v>
+      </c>
+      <c r="E64">
+        <v>65</v>
+      </c>
+      <c r="F64" t="s">
+        <v>324</v>
+      </c>
+      <c r="G64" t="s">
+        <v>331</v>
+      </c>
+      <c r="H64" t="s">
+        <v>62</v>
+      </c>
+      <c r="I64">
+        <v>56000</v>
+      </c>
+      <c r="J64" t="s">
+        <v>23</v>
+      </c>
+      <c r="K64" t="s">
+        <v>40</v>
+      </c>
+      <c r="L64" t="s">
+        <v>40</v>
+      </c>
+      <c r="M64" t="s">
+        <v>342</v>
+      </c>
+      <c r="N64" t="s">
+        <v>465</v>
+      </c>
+      <c r="O64" t="s">
+        <v>543</v>
+      </c>
+      <c r="P64" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>40</v>
+      </c>
+      <c r="R64" t="s">
+        <v>561</v>
+      </c>
+      <c r="S64" t="str">
+        <f t="shared" si="0"/>
+        <v>Jordan Anderson</v>
+      </c>
+      <c r="T64" t="str">
+        <f t="shared" si="1"/>
+        <v>jordan.anderson@cyclesillicon.com</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="V64">
+        <f t="shared" ca="1" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="W64">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>1047</v>
+      </c>
+      <c r="B65" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" t="s">
+        <v>227</v>
+      </c>
+      <c r="D65" t="s">
+        <v>393</v>
+      </c>
+      <c r="E65">
+        <v>49</v>
+      </c>
+      <c r="F65" t="s">
+        <v>325</v>
+      </c>
+      <c r="G65" t="s">
+        <v>332</v>
+      </c>
+      <c r="H65" t="s">
+        <v>112</v>
+      </c>
+      <c r="I65">
+        <v>68000</v>
+      </c>
+      <c r="J65" t="s">
+        <v>39</v>
+      </c>
+      <c r="K65" t="s">
+        <v>24</v>
+      </c>
+      <c r="L65" t="s">
+        <v>40</v>
+      </c>
+      <c r="M65" t="s">
+        <v>342</v>
+      </c>
+      <c r="N65" t="s">
+        <v>466</v>
+      </c>
+      <c r="O65" t="s">
+        <v>544</v>
+      </c>
+      <c r="P65" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>40</v>
+      </c>
+      <c r="R65" t="s">
+        <v>561</v>
+      </c>
+      <c r="S65" t="str">
+        <f t="shared" si="0"/>
+        <v>Jamie Johnson</v>
+      </c>
+      <c r="T65" t="str">
+        <f t="shared" si="1"/>
+        <v>jamie.johnson@cyclesillicon.com</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="V65">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="W65">
+        <f t="shared" ca="1" si="4"/>
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1069</v>
+      </c>
+      <c r="B66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" t="s">
+        <v>227</v>
+      </c>
+      <c r="D66" t="s">
+        <v>229</v>
+      </c>
+      <c r="E66">
+        <v>24</v>
+      </c>
+      <c r="F66" t="s">
+        <v>324</v>
+      </c>
+      <c r="G66" t="s">
+        <v>333</v>
+      </c>
+      <c r="H66" t="s">
+        <v>248</v>
+      </c>
+      <c r="I66">
+        <v>126000</v>
+      </c>
+      <c r="J66" t="s">
+        <v>39</v>
+      </c>
+      <c r="K66" t="s">
+        <v>40</v>
+      </c>
+      <c r="L66" t="s">
+        <v>40</v>
+      </c>
+      <c r="M66" t="s">
+        <v>71</v>
+      </c>
+      <c r="N66" t="s">
+        <v>467</v>
+      </c>
+      <c r="O66" t="s">
+        <v>512</v>
+      </c>
+      <c r="P66" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>40</v>
+      </c>
+      <c r="R66" t="s">
+        <v>561</v>
+      </c>
+      <c r="S66" t="str">
+        <f t="shared" si="0"/>
+        <v>Morgan Johnson</v>
+      </c>
+      <c r="T66" t="str">
+        <f t="shared" si="1"/>
+        <v>morgan.johnson@cyclesillicon.com</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="V66">
+        <f t="shared" ca="1" si="3"/>
+        <v>3944</v>
+      </c>
+      <c r="W66">
+        <f t="shared" ca="1" si="4"/>
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1082</v>
+      </c>
+      <c r="B67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>230</v>
+      </c>
+      <c r="E67">
+        <v>64</v>
+      </c>
+      <c r="F67" t="s">
+        <v>325</v>
+      </c>
+      <c r="G67" t="s">
+        <v>330</v>
+      </c>
+      <c r="H67" t="s">
+        <v>76</v>
+      </c>
+      <c r="I67">
+        <v>116000</v>
+      </c>
+      <c r="J67" t="s">
+        <v>39</v>
+      </c>
+      <c r="K67" t="s">
+        <v>40</v>
+      </c>
+      <c r="L67" t="s">
+        <v>40</v>
+      </c>
+      <c r="M67" t="s">
+        <v>106</v>
+      </c>
+      <c r="N67" t="s">
+        <v>468</v>
+      </c>
+      <c r="O67" t="s">
+        <v>545</v>
+      </c>
+      <c r="P67" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>24</v>
+      </c>
+      <c r="R67">
+        <v>2</v>
+      </c>
+      <c r="S67" t="str">
+        <f t="shared" ref="S67:S86" si="5">CONCATENATE(B67, " ", C67)</f>
+        <v>Alex Davis</v>
+      </c>
+      <c r="T67" t="str">
+        <f t="shared" ref="T67:T86" si="6">LOWER(CONCATENATE(B67,".",C67, "@cyclesillicon.com"))</f>
+        <v>alex.davis@cyclesillicon.com</v>
+      </c>
+      <c r="U67">
+        <f t="shared" ref="U67:U86" si="7">LEN(T67)-(LEN(RIGHT(T67,17)))</f>
+        <v>11</v>
+      </c>
+      <c r="V67">
+        <f t="shared" ref="V67:V86" ca="1" si="8">IF(OR(O67="", ISBLANK(O67)), "Missing End Date",
+ IF(UPPER(O67)="PRESENT", TODAY()-N67, O67-N67))</f>
+        <v>5866</v>
+      </c>
+      <c r="W67">
+        <f t="shared" ref="W67:W86" ca="1" si="9">IF(OR(O67="", ISBLANK(O67)), "Missing End Date",
+ IF(UPPER(O67)="PRESENT", NETWORKDAYS(N67, TODAY()), NETWORKDAYS(N67, O67)))</f>
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1034</v>
+      </c>
+      <c r="B68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" t="s">
+        <v>227</v>
+      </c>
+      <c r="D68" t="s">
+        <v>394</v>
+      </c>
+      <c r="E68">
+        <v>60</v>
+      </c>
+      <c r="F68" t="s">
+        <v>324</v>
+      </c>
+      <c r="G68" t="s">
+        <v>333</v>
+      </c>
+      <c r="H68" t="s">
+        <v>62</v>
+      </c>
+      <c r="I68">
+        <v>135000</v>
+      </c>
+      <c r="J68" t="s">
+        <v>32</v>
+      </c>
+      <c r="K68" t="s">
+        <v>40</v>
+      </c>
+      <c r="L68" t="s">
+        <v>40</v>
+      </c>
+      <c r="M68" t="s">
+        <v>71</v>
+      </c>
+      <c r="N68" t="s">
+        <v>469</v>
+      </c>
+      <c r="O68" t="s">
+        <v>546</v>
+      </c>
+      <c r="P68" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>40</v>
+      </c>
+      <c r="R68" t="s">
+        <v>561</v>
+      </c>
+      <c r="S68" t="str">
+        <f t="shared" si="5"/>
+        <v>John Johnson</v>
+      </c>
+      <c r="T68" t="str">
+        <f t="shared" si="6"/>
+        <v>john.johnson@cyclesillicon.com</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="V68">
+        <f t="shared" ca="1" si="8"/>
+        <v>1969</v>
+      </c>
+      <c r="W68">
+        <f t="shared" ca="1" si="9"/>
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1039</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" t="s">
+        <v>235</v>
+      </c>
+      <c r="E69">
+        <v>24</v>
+      </c>
+      <c r="F69" t="s">
+        <v>325</v>
+      </c>
+      <c r="G69" t="s">
+        <v>333</v>
+      </c>
+      <c r="H69" t="s">
+        <v>112</v>
+      </c>
+      <c r="I69">
+        <v>144000</v>
+      </c>
+      <c r="J69" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69" t="s">
+        <v>40</v>
+      </c>
+      <c r="L69" t="s">
+        <v>40</v>
+      </c>
+      <c r="M69" t="s">
+        <v>342</v>
+      </c>
+      <c r="N69" t="s">
+        <v>470</v>
+      </c>
+      <c r="O69" t="s">
+        <v>547</v>
+      </c>
+      <c r="P69" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>40</v>
+      </c>
+      <c r="R69" t="s">
+        <v>561</v>
+      </c>
+      <c r="S69" t="str">
+        <f t="shared" si="5"/>
+        <v>Pat Williams</v>
+      </c>
+      <c r="T69" t="str">
+        <f t="shared" si="6"/>
+        <v>pat.williams@cyclesillicon.com</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="V69">
+        <f t="shared" ca="1" si="8"/>
+        <v>659</v>
+      </c>
+      <c r="W69">
+        <f t="shared" ca="1" si="9"/>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1052</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" t="s">
+        <v>137</v>
+      </c>
+      <c r="D70" t="s">
+        <v>395</v>
+      </c>
+      <c r="E70">
+        <v>65</v>
+      </c>
+      <c r="F70" t="s">
+        <v>325</v>
+      </c>
+      <c r="G70" t="s">
+        <v>331</v>
+      </c>
+      <c r="H70" t="s">
+        <v>62</v>
+      </c>
+      <c r="I70">
+        <v>65000</v>
+      </c>
+      <c r="J70" t="s">
+        <v>23</v>
+      </c>
+      <c r="K70" t="s">
+        <v>40</v>
+      </c>
+      <c r="L70" t="s">
+        <v>40</v>
+      </c>
+      <c r="M70" t="s">
+        <v>84</v>
+      </c>
+      <c r="N70" t="s">
+        <v>471</v>
+      </c>
+      <c r="O70" t="s">
+        <v>496</v>
+      </c>
+      <c r="P70" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>24</v>
+      </c>
+      <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70" t="str">
+        <f t="shared" si="5"/>
+        <v>Alex Taylor</v>
+      </c>
+      <c r="T70" t="str">
+        <f t="shared" si="6"/>
+        <v>alex.taylor@cyclesillicon.com</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="V70" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Missing End Date</v>
+      </c>
+      <c r="W70" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>Missing End Date</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1043</v>
+      </c>
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" t="s">
+        <v>191</v>
+      </c>
+      <c r="D71" t="s">
+        <v>239</v>
+      </c>
+      <c r="E71">
+        <v>63</v>
+      </c>
+      <c r="F71" t="s">
+        <v>325</v>
+      </c>
+      <c r="G71" t="s">
+        <v>330</v>
+      </c>
+      <c r="H71" t="s">
+        <v>76</v>
+      </c>
+      <c r="I71">
+        <v>106000</v>
+      </c>
+      <c r="J71" t="s">
+        <v>77</v>
+      </c>
+      <c r="K71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L71" t="s">
+        <v>40</v>
+      </c>
+      <c r="M71" t="s">
+        <v>106</v>
+      </c>
+      <c r="N71" t="s">
+        <v>472</v>
+      </c>
+      <c r="O71" t="s">
+        <v>65</v>
+      </c>
+      <c r="P71" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>40</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71" t="str">
+        <f t="shared" si="5"/>
+        <v>Alex Wilson</v>
+      </c>
+      <c r="T71" t="str">
+        <f t="shared" si="6"/>
+        <v>alex.wilson@cyclesillicon.com</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="V71">
+        <f t="shared" ca="1" si="8"/>
+        <v>8829</v>
+      </c>
+      <c r="W71">
+        <f t="shared" ca="1" si="9"/>
+        <v>6308</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1005</v>
+      </c>
+      <c r="B72" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" t="s">
+        <v>120</v>
+      </c>
+      <c r="D72" t="s">
+        <v>396</v>
+      </c>
+      <c r="E72">
+        <v>25</v>
+      </c>
+      <c r="F72" t="s">
+        <v>324</v>
+      </c>
+      <c r="G72" t="s">
+        <v>333</v>
+      </c>
+      <c r="H72" t="s">
+        <v>62</v>
+      </c>
+      <c r="I72">
+        <v>89000</v>
+      </c>
+      <c r="J72" t="s">
+        <v>32</v>
+      </c>
+      <c r="K72" t="s">
+        <v>40</v>
+      </c>
+      <c r="L72" t="s">
+        <v>24</v>
+      </c>
+      <c r="M72" t="s">
+        <v>106</v>
+      </c>
+      <c r="N72" t="s">
+        <v>473</v>
+      </c>
+      <c r="O72" t="s">
+        <v>548</v>
+      </c>
+      <c r="P72" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>40</v>
+      </c>
+      <c r="R72" t="s">
+        <v>561</v>
+      </c>
+      <c r="S72" t="str">
+        <f t="shared" si="5"/>
+        <v>Taylor Miller</v>
+      </c>
+      <c r="T72" t="str">
+        <f t="shared" si="6"/>
+        <v>taylor.miller@cyclesillicon.com</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="V72">
+        <f t="shared" ca="1" si="8"/>
+        <v>2479</v>
+      </c>
+      <c r="W72">
+        <f t="shared" ca="1" si="9"/>
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1040</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" t="s">
+        <v>137</v>
+      </c>
+      <c r="D73" t="s">
+        <v>397</v>
+      </c>
+      <c r="E73">
+        <v>61</v>
+      </c>
+      <c r="F73" t="s">
+        <v>324</v>
+      </c>
+      <c r="G73" t="s">
+        <v>333</v>
+      </c>
+      <c r="H73" t="s">
+        <v>83</v>
+      </c>
+      <c r="I73">
+        <v>91000</v>
+      </c>
+      <c r="J73" t="s">
+        <v>23</v>
+      </c>
+      <c r="K73" t="s">
+        <v>24</v>
+      </c>
+      <c r="L73" t="s">
+        <v>40</v>
+      </c>
+      <c r="M73" t="s">
+        <v>25</v>
+      </c>
+      <c r="N73" t="s">
+        <v>474</v>
+      </c>
+      <c r="O73" t="s">
+        <v>549</v>
+      </c>
+      <c r="P73" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>24</v>
+      </c>
+      <c r="R73">
+        <v>2</v>
+      </c>
+      <c r="S73" t="str">
+        <f t="shared" si="5"/>
+        <v>Pat Taylor</v>
+      </c>
+      <c r="T73" t="str">
+        <f t="shared" si="6"/>
+        <v>pat.taylor@cyclesillicon.com</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="V73">
+        <f t="shared" ca="1" si="8"/>
+        <v>4676</v>
+      </c>
+      <c r="W73">
+        <f t="shared" ca="1" si="9"/>
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1038</v>
+      </c>
+      <c r="B74" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" t="s">
+        <v>137</v>
+      </c>
+      <c r="D74" t="s">
+        <v>245</v>
+      </c>
+      <c r="E74">
+        <v>52</v>
+      </c>
+      <c r="F74" t="s">
+        <v>325</v>
+      </c>
+      <c r="G74" t="s">
+        <v>332</v>
+      </c>
+      <c r="H74" t="s">
+        <v>76</v>
+      </c>
+      <c r="I74">
+        <v>118000</v>
+      </c>
+      <c r="J74" t="s">
+        <v>77</v>
+      </c>
+      <c r="K74" t="s">
+        <v>24</v>
+      </c>
+      <c r="L74" t="s">
+        <v>40</v>
+      </c>
+      <c r="M74" t="s">
+        <v>71</v>
+      </c>
+      <c r="N74" t="s">
+        <v>475</v>
+      </c>
+      <c r="O74" t="s">
+        <v>550</v>
+      </c>
+      <c r="P74" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>24</v>
+      </c>
+      <c r="R74">
+        <v>3</v>
+      </c>
+      <c r="S74" t="str">
+        <f t="shared" si="5"/>
+        <v>Chris Taylor</v>
+      </c>
+      <c r="T74" t="str">
+        <f t="shared" si="6"/>
+        <v>chris.taylor@cyclesillicon.com</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="V74">
+        <f t="shared" ca="1" si="8"/>
+        <v>1332</v>
+      </c>
+      <c r="W74">
+        <f t="shared" ca="1" si="9"/>
+        <v>951</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1021</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" t="s">
+        <v>247</v>
+      </c>
+      <c r="E75">
+        <v>34</v>
+      </c>
+      <c r="F75" t="s">
+        <v>325</v>
+      </c>
+      <c r="G75" t="s">
+        <v>330</v>
+      </c>
+      <c r="H75" t="s">
+        <v>248</v>
+      </c>
+      <c r="I75">
+        <v>148000</v>
+      </c>
+      <c r="J75" t="s">
+        <v>39</v>
+      </c>
+      <c r="K75" t="s">
+        <v>40</v>
+      </c>
+      <c r="L75" t="s">
+        <v>24</v>
+      </c>
+      <c r="M75" t="s">
+        <v>25</v>
+      </c>
+      <c r="N75" t="s">
+        <v>476</v>
+      </c>
+      <c r="O75" t="s">
+        <v>551</v>
+      </c>
+      <c r="P75" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>40</v>
+      </c>
+      <c r="R75" t="s">
+        <v>561</v>
+      </c>
+      <c r="S75" t="str">
+        <f t="shared" si="5"/>
+        <v>Alex Brown</v>
+      </c>
+      <c r="T75" t="str">
+        <f t="shared" si="6"/>
+        <v>alex.brown@cyclesillicon.com</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="V75">
+        <f t="shared" ca="1" si="8"/>
+        <v>3640</v>
+      </c>
+      <c r="W75">
+        <f t="shared" ca="1" si="9"/>
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>1032</v>
+      </c>
+      <c r="B76" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" t="s">
+        <v>398</v>
+      </c>
+      <c r="E76">
+        <v>25</v>
+      </c>
+      <c r="F76" t="s">
+        <v>325</v>
+      </c>
+      <c r="G76" t="s">
+        <v>330</v>
+      </c>
+      <c r="H76" t="s">
+        <v>38</v>
+      </c>
+      <c r="I76">
+        <v>148000</v>
+      </c>
+      <c r="J76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K76" t="s">
+        <v>24</v>
+      </c>
+      <c r="L76" t="s">
+        <v>24</v>
+      </c>
+      <c r="M76" t="s">
+        <v>71</v>
+      </c>
+      <c r="N76" t="s">
+        <v>477</v>
+      </c>
+      <c r="O76" t="s">
+        <v>552</v>
+      </c>
+      <c r="P76" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>24</v>
+      </c>
+      <c r="R76">
+        <v>4</v>
+      </c>
+      <c r="S76" t="str">
+        <f t="shared" si="5"/>
+        <v>Casey Brown</v>
+      </c>
+      <c r="T76" t="str">
+        <f t="shared" si="6"/>
+        <v>casey.brown@cyclesillicon.com</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="V76">
+        <f t="shared" ca="1" si="8"/>
+        <v>358</v>
+      </c>
+      <c r="W76">
+        <f t="shared" ca="1" si="9"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1048</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="s">
+        <v>191</v>
+      </c>
+      <c r="D77" t="s">
+        <v>239</v>
+      </c>
+      <c r="E77">
+        <v>64</v>
+      </c>
+      <c r="F77" t="s">
+        <v>325</v>
+      </c>
+      <c r="G77" t="s">
+        <v>333</v>
+      </c>
+      <c r="H77" t="s">
+        <v>62</v>
+      </c>
+      <c r="I77">
+        <v>109000</v>
+      </c>
+      <c r="J77" t="s">
+        <v>39</v>
+      </c>
+      <c r="K77" t="s">
+        <v>24</v>
+      </c>
+      <c r="L77" t="s">
+        <v>24</v>
+      </c>
+      <c r="M77" t="s">
+        <v>25</v>
+      </c>
+      <c r="N77" t="s">
+        <v>478</v>
+      </c>
+      <c r="O77" t="s">
+        <v>553</v>
+      </c>
+      <c r="P77" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>24</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77" t="str">
+        <f t="shared" si="5"/>
+        <v>Alex Wilson</v>
+      </c>
+      <c r="T77" t="str">
+        <f t="shared" si="6"/>
+        <v>alex.wilson@cyclesillicon.com</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="V77">
+        <f t="shared" ca="1" si="8"/>
+        <v>3492</v>
+      </c>
+      <c r="W77">
+        <f t="shared" ca="1" si="9"/>
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1050</v>
+      </c>
+      <c r="B78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" t="s">
+        <v>120</v>
+      </c>
+      <c r="D78" t="s">
+        <v>255</v>
+      </c>
+      <c r="E78">
+        <v>48</v>
+      </c>
+      <c r="F78" t="s">
+        <v>324</v>
+      </c>
+      <c r="G78" t="s">
+        <v>333</v>
+      </c>
+      <c r="H78" t="s">
+        <v>62</v>
+      </c>
+      <c r="I78">
+        <v>52000</v>
+      </c>
+      <c r="J78" t="s">
+        <v>39</v>
+      </c>
+      <c r="K78" t="s">
+        <v>24</v>
+      </c>
+      <c r="L78" t="s">
+        <v>24</v>
+      </c>
+      <c r="M78" t="s">
+        <v>71</v>
+      </c>
+      <c r="N78" t="s">
+        <v>479</v>
+      </c>
+      <c r="O78" t="s">
+        <v>554</v>
+      </c>
+      <c r="P78" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>40</v>
+      </c>
+      <c r="R78" t="s">
+        <v>561</v>
+      </c>
+      <c r="S78" t="str">
+        <f t="shared" si="5"/>
+        <v>John Miller</v>
+      </c>
+      <c r="T78" t="str">
+        <f t="shared" si="6"/>
+        <v>john.miller@cyclesillicon.com</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="V78">
+        <f t="shared" ca="1" si="8"/>
+        <v>1444</v>
+      </c>
+      <c r="W78">
+        <f t="shared" ca="1" si="9"/>
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>1035</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>230</v>
+      </c>
+      <c r="E79">
+        <v>61</v>
+      </c>
+      <c r="F79" t="s">
+        <v>325</v>
+      </c>
+      <c r="G79" t="s">
+        <v>332</v>
+      </c>
+      <c r="H79" t="s">
+        <v>112</v>
+      </c>
+      <c r="I79">
+        <v>139000</v>
+      </c>
+      <c r="J79" t="s">
+        <v>91</v>
+      </c>
+      <c r="K79" t="s">
+        <v>24</v>
+      </c>
+      <c r="L79" t="s">
+        <v>24</v>
+      </c>
+      <c r="M79" t="s">
+        <v>25</v>
+      </c>
+      <c r="N79" t="s">
+        <v>480</v>
+      </c>
+      <c r="O79" t="s">
+        <v>555</v>
+      </c>
+      <c r="P79" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>40</v>
+      </c>
+      <c r="R79" t="s">
+        <v>561</v>
+      </c>
+      <c r="S79" t="str">
+        <f t="shared" si="5"/>
+        <v>Alex Davis</v>
+      </c>
+      <c r="T79" t="str">
+        <f t="shared" si="6"/>
+        <v>alex.davis@cyclesillicon.com</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="V79">
+        <f t="shared" ca="1" si="8"/>
+        <v>1048</v>
+      </c>
+      <c r="W79">
+        <f t="shared" ca="1" si="9"/>
+        <v>749</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>1008</v>
+      </c>
+      <c r="B80" t="s">
+        <v>213</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>399</v>
+      </c>
+      <c r="E80">
+        <v>27</v>
+      </c>
+      <c r="F80" t="s">
+        <v>324</v>
+      </c>
+      <c r="G80" t="s">
+        <v>331</v>
+      </c>
+      <c r="H80" t="s">
+        <v>112</v>
+      </c>
+      <c r="I80">
+        <v>106000</v>
+      </c>
+      <c r="J80" t="s">
+        <v>91</v>
+      </c>
+      <c r="K80" t="s">
+        <v>24</v>
+      </c>
+      <c r="L80" t="s">
+        <v>40</v>
+      </c>
+      <c r="M80" t="s">
+        <v>25</v>
+      </c>
+      <c r="N80" t="s">
+        <v>481</v>
+      </c>
+      <c r="O80" t="s">
+        <v>556</v>
+      </c>
+      <c r="P80" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>40</v>
+      </c>
+      <c r="R80" t="s">
+        <v>561</v>
+      </c>
+      <c r="S80" t="str">
+        <f t="shared" si="5"/>
+        <v>Jordan Davis</v>
+      </c>
+      <c r="T80" t="str">
+        <f t="shared" si="6"/>
+        <v>jordan.davis@cyclesillicon.com</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="V80">
+        <f t="shared" ca="1" si="8"/>
+        <v>1235</v>
+      </c>
+      <c r="W80">
+        <f t="shared" ca="1" si="9"/>
+        <v>882</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>1076</v>
+      </c>
+      <c r="B81" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81" t="s">
+        <v>122</v>
+      </c>
+      <c r="D81" t="s">
+        <v>260</v>
+      </c>
+      <c r="E81">
+        <v>57</v>
+      </c>
+      <c r="F81" t="s">
+        <v>324</v>
+      </c>
+      <c r="G81" t="s">
+        <v>332</v>
+      </c>
+      <c r="H81" t="s">
+        <v>58</v>
+      </c>
+      <c r="I81">
+        <v>128000</v>
+      </c>
+      <c r="J81" t="s">
+        <v>32</v>
+      </c>
+      <c r="K81" t="s">
+        <v>24</v>
+      </c>
+      <c r="L81" t="s">
+        <v>40</v>
+      </c>
+      <c r="M81" t="s">
+        <v>25</v>
+      </c>
+      <c r="N81" t="s">
+        <v>482</v>
+      </c>
+      <c r="O81" t="s">
+        <v>557</v>
+      </c>
+      <c r="P81" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>40</v>
+      </c>
+      <c r="R81" t="s">
+        <v>561</v>
+      </c>
+      <c r="S81" t="str">
+        <f t="shared" si="5"/>
+        <v>Chris Jones</v>
+      </c>
+      <c r="T81" t="str">
+        <f t="shared" si="6"/>
+        <v>chris.jones@cyclesillicon.com</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="V81">
+        <f t="shared" ca="1" si="8"/>
+        <v>566</v>
+      </c>
+      <c r="W81">
+        <f t="shared" ca="1" si="9"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>1083</v>
+      </c>
+      <c r="B82" t="s">
+        <v>137</v>
+      </c>
+      <c r="C82" t="s">
+        <v>122</v>
+      </c>
+      <c r="D82" t="s">
+        <v>400</v>
+      </c>
+      <c r="E82">
+        <v>42</v>
+      </c>
+      <c r="F82" t="s">
+        <v>325</v>
+      </c>
+      <c r="G82" t="s">
+        <v>331</v>
+      </c>
+      <c r="H82" t="s">
+        <v>76</v>
+      </c>
+      <c r="I82">
+        <v>30000</v>
+      </c>
+      <c r="J82" t="s">
+        <v>23</v>
+      </c>
+      <c r="K82" t="s">
+        <v>40</v>
+      </c>
+      <c r="L82" t="s">
+        <v>24</v>
+      </c>
+      <c r="M82" t="s">
+        <v>106</v>
+      </c>
+      <c r="N82" t="s">
+        <v>483</v>
+      </c>
+      <c r="O82" t="s">
+        <v>496</v>
+      </c>
+      <c r="P82" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>40</v>
+      </c>
+      <c r="R82" t="s">
+        <v>561</v>
+      </c>
+      <c r="S82" t="str">
+        <f t="shared" si="5"/>
+        <v>Taylor Jones</v>
+      </c>
+      <c r="T82" t="str">
+        <f t="shared" si="6"/>
+        <v>taylor.jones@cyclesillicon.com</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="V82" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Missing End Date</v>
+      </c>
+      <c r="W82" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>Missing End Date</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>1044</v>
+      </c>
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" t="s">
+        <v>120</v>
+      </c>
+      <c r="D83" t="s">
+        <v>401</v>
+      </c>
+      <c r="E83">
+        <v>35</v>
+      </c>
+      <c r="F83" t="s">
+        <v>324</v>
+      </c>
+      <c r="G83" t="s">
+        <v>332</v>
+      </c>
+      <c r="H83" t="s">
+        <v>62</v>
+      </c>
+      <c r="I83">
+        <v>65000</v>
+      </c>
+      <c r="J83" t="s">
+        <v>77</v>
+      </c>
+      <c r="K83" t="s">
+        <v>40</v>
+      </c>
+      <c r="L83" t="s">
+        <v>24</v>
+      </c>
+      <c r="M83" t="s">
+        <v>106</v>
+      </c>
+      <c r="N83" t="s">
+        <v>484</v>
+      </c>
+      <c r="O83" t="s">
+        <v>496</v>
+      </c>
+      <c r="P83" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>40</v>
+      </c>
+      <c r="R83" t="s">
+        <v>561</v>
+      </c>
+      <c r="S83" t="str">
+        <f t="shared" si="5"/>
+        <v>Pat Miller</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="6"/>
+        <v>pat.miller@cyclesillicon.com</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="V83" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Missing End Date</v>
+      </c>
+      <c r="W83" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>Missing End Date</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>1023</v>
+      </c>
+      <c r="B84" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" t="s">
+        <v>191</v>
+      </c>
+      <c r="D84" t="s">
+        <v>402</v>
+      </c>
+      <c r="E84">
+        <v>36</v>
+      </c>
+      <c r="F84" t="s">
+        <v>324</v>
+      </c>
+      <c r="G84" t="s">
+        <v>332</v>
+      </c>
+      <c r="H84" t="s">
+        <v>62</v>
+      </c>
+      <c r="I84">
+        <v>95000</v>
+      </c>
+      <c r="J84" t="s">
+        <v>23</v>
+      </c>
+      <c r="K84" t="s">
+        <v>24</v>
+      </c>
+      <c r="L84" t="s">
+        <v>40</v>
+      </c>
+      <c r="M84" t="s">
+        <v>25</v>
+      </c>
+      <c r="N84" t="s">
+        <v>485</v>
+      </c>
+      <c r="O84" t="s">
+        <v>558</v>
+      </c>
+      <c r="P84" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>24</v>
+      </c>
+      <c r="R84">
+        <v>3</v>
+      </c>
+      <c r="S84" t="str">
+        <f t="shared" si="5"/>
+        <v>Jamie Wilson</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="6"/>
+        <v>jamie.wilson@cyclesillicon.com</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="V84">
+        <f t="shared" ca="1" si="8"/>
+        <v>143</v>
+      </c>
+      <c r="W84">
+        <f t="shared" ca="1" si="9"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>1073</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" t="s">
+        <v>235</v>
+      </c>
+      <c r="E85">
+        <v>27</v>
+      </c>
+      <c r="F85" t="s">
+        <v>325</v>
+      </c>
+      <c r="G85" t="s">
+        <v>333</v>
+      </c>
+      <c r="H85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I85">
+        <v>42000</v>
+      </c>
+      <c r="J85" t="s">
+        <v>23</v>
+      </c>
+      <c r="K85" t="s">
+        <v>24</v>
+      </c>
+      <c r="L85" t="s">
+        <v>24</v>
+      </c>
+      <c r="M85" t="s">
+        <v>106</v>
+      </c>
+      <c r="N85" t="s">
+        <v>486</v>
+      </c>
+      <c r="O85" t="s">
+        <v>559</v>
+      </c>
+      <c r="P85" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>40</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85" t="str">
+        <f t="shared" si="5"/>
+        <v>Pat Williams</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="6"/>
+        <v>pat.williams@cyclesillicon.com</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="V85">
+        <f t="shared" ca="1" si="8"/>
+        <v>2014</v>
+      </c>
+      <c r="W85">
+        <f t="shared" ca="1" si="9"/>
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1016</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" t="s">
+        <v>227</v>
+      </c>
+      <c r="D86" t="s">
+        <v>268</v>
+      </c>
+      <c r="E86">
+        <v>22</v>
+      </c>
+      <c r="F86" t="s">
+        <v>324</v>
+      </c>
+      <c r="G86" t="s">
+        <v>332</v>
+      </c>
+      <c r="H86" t="s">
+        <v>83</v>
+      </c>
+      <c r="I86">
+        <v>68000</v>
+      </c>
+      <c r="J86" t="s">
+        <v>77</v>
+      </c>
+      <c r="K86" t="s">
+        <v>40</v>
+      </c>
+      <c r="L86" t="s">
+        <v>24</v>
+      </c>
+      <c r="M86" t="s">
+        <v>25</v>
+      </c>
+      <c r="N86" t="s">
+        <v>487</v>
+      </c>
+      <c r="O86" t="s">
+        <v>560</v>
+      </c>
+      <c r="P86" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>40</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86" t="str">
+        <f t="shared" si="5"/>
+        <v>Pat Johnson</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="6"/>
+        <v>pat.johnson@cyclesillicon.com</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="V86">
+        <f t="shared" ca="1" si="8"/>
+        <v>1017</v>
+      </c>
+      <c r="W86">
+        <f t="shared" ca="1" si="9"/>
+        <v>728</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>